--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>Severity</t>
   </si>
@@ -79,885 +79,846 @@
     <t>Elevated</t>
   </si>
   <si>
+    <t>Likely</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>CWE-352</t>
+  </si>
+  <si>
+    <t>Cross-Site Request Forgery (CSRF)</t>
+  </si>
+  <si>
+    <t>API Server</t>
+  </si>
+  <si>
+    <t>Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>Cross-Site Request Forgery (CSRF) risk at API Server via Make Requests to API Server from User CLI</t>
+  </si>
+  <si>
+    <t>CSRF Prevention</t>
+  </si>
+  <si>
+    <t>Try to use anti-CSRF tokens ot the double-submit patterns (at least for logged-in requests). When your authentication scheme depends on cookies (like session or token cookies), consider marking them with the same-site flag. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
+  </si>
+  <si>
+    <t>cross-site-request-forgery@api-server@user-cli&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>Unchecked</t>
+  </si>
+  <si>
+    <t>OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>Validate Dex OIDC Token</t>
+  </si>
+  <si>
+    <t>Cross-Site Request Forgery (CSRF) risk at OIDC Proxy (Dex) via Validate Dex OIDC Token from API Server</t>
+  </si>
+  <si>
+    <t>cross-site-request-forgery@dex-server@api-server&gt;validate-dex-oidc-token</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Tampering</t>
+  </si>
+  <si>
+    <t>CWE-79</t>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS) risk at API Server</t>
+  </si>
+  <si>
+    <t>XSS Prevention</t>
+  </si>
+  <si>
+    <t>Try to encode all values sent back to the browser and also handle DOM-manipulations in a safe way to avoid DOM-based XSS. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>cross-site-scripting@api-server</t>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS) risk at OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>cross-site-scripting@dex-server</t>
+  </si>
+  <si>
+    <t>Elevation of Privilege</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>CWE-306</t>
+  </si>
+  <si>
+    <t>Missing Authentication</t>
+  </si>
+  <si>
+    <t>Repo Server</t>
+  </si>
+  <si>
+    <t>Fetching Rendered Manifests from Cache</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Fetching Rendered Manifests from Cache from API Server to Repo Server</t>
+  </si>
+  <si>
+    <t>Authentication of Incoming Requests</t>
+  </si>
+  <si>
+    <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
+  </si>
+  <si>
+    <t>missing-authentication@api-server&gt;fetching-rendered-manifests-from-cache@api-server@repo-server</t>
+  </si>
+  <si>
+    <t>Quay</t>
+  </si>
+  <si>
+    <t>Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Argo CD Image from API Server to Quay</t>
+  </si>
+  <si>
+    <t>missing-authentication@api-server&gt;pull-argo-cd-image@api-server@quay</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Argo CD Image from Application Controller to Quay</t>
+  </si>
+  <si>
+    <t>missing-authentication@application-controller&gt;pull-argo-cd-image@application-controller@quay</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Argo CD Image from ApplicationSet Controller to Quay</t>
+  </si>
+  <si>
+    <t>missing-authentication@applicationset-controller&gt;pull-argo-cd-image@applicationset-controller@quay</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Argo CD Image from Repo Server to Quay</t>
+  </si>
+  <si>
+    <t>missing-authentication@repo-server&gt;pull-argo-cd-image@repo-server@quay</t>
+  </si>
+  <si>
+    <t>Docker Hub</t>
+  </si>
+  <si>
+    <t>Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Base Image from Docker Hub from Argo CD Build Pipeline (GitHub Actions) to Docker Hub</t>
+  </si>
+  <si>
+    <t>missing-authentication@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub@argo-cd-build-pipeline@docker-hub</t>
+  </si>
+  <si>
+    <t>Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
+  </si>
+  <si>
+    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
+  </si>
+  <si>
+    <t>Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>Send/Receive Cached Rendered Manifests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Send/Receive Cached Rendered Manifests from Repo Server to Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>missing-authentication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>CWE-1008</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening risk at Build Time Boundary</t>
+  </si>
+  <si>
+    <t>Cloud Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all cloud components and services, taking special care to follow the individual risk descriptions (which depend on the cloud provider tags in the model). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Amazon Web Services (AWS)&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Amazon Web Services&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"PacBot", "CloudSploit", "CloudMapper", "ScoutSuite", or "Prowler AWS CIS Benchmark Tool"&lt;/i&gt;). &lt;br&gt;For EC2 and other servers running Amazon Linux, follow the &lt;i&gt;CIS Benchmark for Amazon Linux&lt;/i&gt; and switch to IMDSv2. &lt;br&gt;For S3 buckets follow the &lt;i&gt;Security Best Practices for Amazon S3&lt;/i&gt; at &lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html&lt;/a&gt; to avoid accidental leakage. &lt;br&gt;Also take a look at some of these tools: &lt;a href="https://github.com/toniblyx/my-arsenal-of-aws-security-tools"&gt;https://github.com/toniblyx/my-arsenal-of-aws-security-tools&lt;/a&gt; &lt;br&gt;&lt;br&gt;For &lt;b&gt;Microsoft Azure&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Microsoft Azure&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;).&lt;br&gt;&lt;br&gt;For &lt;b&gt;Google Cloud Platform&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Google Cloud Computing Platform&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Oracle Cloud Platform&lt;/b&gt;: Follow the hardening best practices (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit"&lt;/i&gt;).</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@buildtime-boundary</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening risk at External Services</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@external-services-boundary</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening risk at Organization Network</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@organization-network</t>
+  </si>
+  <si>
     <t>Very Likely</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Spoofing</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>CWE-352</t>
-  </si>
-  <si>
-    <t>Cross-Site Request Forgery (CSRF)</t>
-  </si>
-  <si>
-    <t>OIDC Provider (External)</t>
+    <t>CWE-434</t>
+  </si>
+  <si>
+    <t>Missing File Validation</t>
+  </si>
+  <si>
+    <t>Missing File Validation risk at Repo Server</t>
+  </si>
+  <si>
+    <t>File Validation</t>
+  </si>
+  <si>
+    <t>Filter by file extension and discard (if feasible) the name provided. Whitelist the accepted file types and determine the mime-type on the server-side (for example via "Apache Tika" or similar checks). If the file is retrievable by endusers and/or backoffice employees, consider performing scans for popular malware (if the files can be retrieved much later than they were uploaded, also apply a fresh malware scan during retrieval to scan with newer signatures of popular malware). Also enforce limits on maximum file size to avoid denial-of-service like scenarios.</t>
+  </si>
+  <si>
+    <t>missing-file-validation@repo-server</t>
+  </si>
+  <si>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at API Server</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@api-server</t>
+  </si>
+  <si>
+    <t>Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-hardening@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Missing Identity Provider Isolation</t>
+  </si>
+  <si>
+    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Proxy (Dex) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive identity provider assets and their identity datastores.</t>
+  </si>
+  <si>
+    <t>missing-identity-provider-isolation@dex-server</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-22</t>
+  </si>
+  <si>
+    <t>Path-Traversal</t>
+  </si>
+  <si>
+    <t>Store Cached Manifest Sources</t>
+  </si>
+  <si>
+    <t>Path-Traversal risk at Repo Server against filesystem Repo Server Storage via Store Cached Manifest Sources</t>
+  </si>
+  <si>
+    <t>Path-Traversal Prevention</t>
+  </si>
+  <si>
+    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>path-traversal@repo-server@repo-server-storage@repo-server&gt;store-cached-manifest-sources</t>
+  </si>
+  <si>
+    <t>CWE-918</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF)</t>
   </si>
   <si>
     <t>Validate External OIDC Token</t>
   </si>
   <si>
-    <t>Cross-Site Request Forgery (CSRF) risk at OIDC Provider (External) via Validate External OIDC Token from API Server</t>
-  </si>
-  <si>
-    <t>CSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to use anti-CSRF tokens ot the double-submit patterns (at least for logged-in requests). When your authentication scheme depends on cookies (like session or token cookies), consider marking them with the same-site flag. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
-  </si>
-  <si>
-    <t>cross-site-request-forgery@oidc-provider@api-server&gt;validate-external-oidc-token</t>
-  </si>
-  <si>
-    <t>Unchecked</t>
-  </si>
-  <si>
-    <t>Likely</t>
-  </si>
-  <si>
-    <t>API Server</t>
-  </si>
-  <si>
-    <t>Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>Cross-Site Request Forgery (CSRF) risk at API Server via Make Requests to API Server from User CLI</t>
-  </si>
-  <si>
-    <t>cross-site-request-forgery@api-server@user-cli&gt;make-requests-to-api-server</t>
-  </si>
-  <si>
-    <t>OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>Validate Dex OIDC Token</t>
-  </si>
-  <si>
-    <t>Cross-Site Request Forgery (CSRF) risk at OIDC Proxy (Dex) via Validate Dex OIDC Token from API Server</t>
-  </si>
-  <si>
-    <t>cross-site-request-forgery@dex-server@api-server&gt;validate-dex-oidc-token</t>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>SSRF Prevention</t>
+  </si>
+  <si>
+    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
+  </si>
+  <si>
+    <t>Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
+  </si>
+  <si>
+    <t>Update RBAC Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
+  </si>
+  <si>
+    <t>Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
+  </si>
+  <si>
+    <t>Application Controller</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
+  </si>
+  <si>
+    <t>ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Git Generator Pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Pull Source</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Argo CD Source Repo (GitHub) via Pull Source</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Push Image to Quay</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>Argo CD Maintainer Git Client</t>
+  </si>
+  <si>
+    <t>Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
+  </si>
+  <si>
+    <t>Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
+  </si>
+  <si>
+    <t>Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
+  </si>
+  <si>
+    <t>CWE-501</t>
+  </si>
+  <si>
+    <t>Unguarded Access From Internet</t>
+  </si>
+  <si>
+    <t>Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>Build Pipeline Hardening</t>
+  </si>
+  <si>
+    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@docker-hub</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Quay</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@quay</t>
+  </si>
+  <si>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-build-pipeline</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>code-backdooring@docker-hub</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Quay</t>
+  </si>
+  <si>
+    <t>code-backdooring@quay</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at API Server</t>
+  </si>
+  <si>
+    <t>Container Infrastructure Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@api-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Application Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@application-controller</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@applicationset-controller</t>
+  </si>
+  <si>
+    <t>External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@dex-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t>Repo Server Storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server-storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server</t>
+  </si>
+  <si>
+    <t>CWE-1127</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
+  </si>
+  <si>
+    <t>Include the build infrastructure in the model.</t>
+  </si>
+  <si>
+    <t>missing-build-infrastructure@application-controller</t>
+  </si>
+  <si>
+    <t>CWE-287</t>
+  </si>
+  <si>
+    <t>Missing Identity Store</t>
+  </si>
+  <si>
+    <t>Missing Identity Store in the threat model (referencing asset Argo CD Maintainer Git Client as an example)</t>
+  </si>
+  <si>
+    <t>Identity Store</t>
+  </si>
+  <si>
+    <t>Include an identity store in the model if the application has a login.</t>
+  </si>
+  <si>
+    <t>missing-identity-store@argo-cd-maintainer-git-client</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect API Server against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@api-server</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect ApplicationSet Controller against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@applicationset-controller</t>
+  </si>
+  <si>
+    <t>Business Side</t>
+  </si>
+  <si>
+    <t>CWE-308</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication (2FA)</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
+  </si>
+  <si>
+    <t>Authentication with Second Factor (2FA)</t>
+  </si>
+  <si>
+    <t>Apply an authentication method to the technical asset protecting highly sensitive data via two-factor authentication for human users.</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Internal Source Control Management API</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage) in the threat model (referencing asset Internal Source Control Management API as an example)</t>
+  </si>
+  <si>
+    <t>Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
+  </si>
+  <si>
+    <t>Is a Vault (Secret Storage) in place?</t>
+  </si>
+  <si>
+    <t>missing-vault@internal-source-control-management-api</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at API Server</t>
+  </si>
+  <si>
+    <t>Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Consider placing a Web Application Firewall (WAF) in front of the web-services and/or web-applications. For cloud environments many cloud providers offer pre-configured WAFs. Even reverse proxies can be enhances by a WAF component via ModSecurity plugins.</t>
+  </si>
+  <si>
+    <t>Is a Web Application Firewall (WAF) in place?</t>
+  </si>
+  <si>
+    <t>missing-waf@api-server</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-waf@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-waf@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@argo-cd-build-pipeline</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>Cross-Site Request Forgery (CSRF) risk at OIDC Provider (External) via Proxying to an External OIDC Provider from OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>cross-site-request-forgery@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Tampering</t>
-  </si>
-  <si>
-    <t>CWE-79</t>
-  </si>
-  <si>
-    <t>Cross-Site Scripting (XSS)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cross-Site Scripting (XSS) risk at API Server</t>
-  </si>
-  <si>
-    <t>XSS Prevention</t>
-  </si>
-  <si>
-    <t>Try to encode all values sent back to the browser and also handle DOM-manipulations in a safe way to avoid DOM-based XSS. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>cross-site-scripting@api-server</t>
-  </si>
-  <si>
-    <t>Internal Source Control Management UI</t>
-  </si>
-  <si>
-    <t>Cross-Site Scripting (XSS) risk at Internal Source Control Management UI</t>
-  </si>
-  <si>
-    <t>cross-site-scripting@internal-source-control-management-ui</t>
-  </si>
-  <si>
-    <t>Cross-Site Scripting (XSS) risk at OIDC Provider (External)</t>
-  </si>
-  <si>
-    <t>cross-site-scripting@oidc-provider</t>
-  </si>
-  <si>
-    <t>Cross-Site Scripting (XSS) risk at OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>cross-site-scripting@dex-server</t>
-  </si>
-  <si>
-    <t>Elevation of Privilege</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>CWE-306</t>
-  </si>
-  <si>
-    <t>Missing Authentication</t>
-  </si>
-  <si>
-    <t>Repo Server</t>
-  </si>
-  <si>
-    <t>Fetching Rendered Manifests from Cache</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Fetching Rendered Manifests from Cache from API Server to Repo Server</t>
-  </si>
-  <si>
-    <t>Authentication of Incoming Requests</t>
-  </si>
-  <si>
-    <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;fetching-rendered-manifests-from-cache@api-server@repo-server</t>
-  </si>
-  <si>
-    <t>Quay</t>
-  </si>
-  <si>
-    <t>Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from API Server to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;pull-argo-cd-image@api-server@quay</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from Application Controller to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@application-controller&gt;pull-argo-cd-image@application-controller@quay</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from ApplicationSet Controller to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@applicationset-controller&gt;pull-argo-cd-image@applicationset-controller@quay</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from Repo Server to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@repo-server&gt;pull-argo-cd-image@repo-server@quay</t>
-  </si>
-  <si>
-    <t>Docker Hub</t>
-  </si>
-  <si>
-    <t>Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Base Image from Docker Hub from Argo CD Build Pipeline (GitHub Actions) to Docker Hub</t>
-  </si>
-  <si>
-    <t>missing-authentication@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub@argo-cd-build-pipeline@docker-hub</t>
-  </si>
-  <si>
-    <t>Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
-  </si>
-  <si>
-    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
-  </si>
-  <si>
-    <t>Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>Send/Receive Cached Rendered Manifests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Send/Receive Cached Rendered Manifests from Repo Server to Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>missing-authentication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Validate External OIDC Token from API Server to OIDC Provider (External)</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;validate-external-oidc-token@api-server@oidc-provider</t>
-  </si>
-  <si>
-    <t>CWE-434</t>
-  </si>
-  <si>
-    <t>Missing File Validation</t>
-  </si>
-  <si>
-    <t>Missing File Validation risk at Repo Server</t>
-  </si>
-  <si>
-    <t>File Validation</t>
-  </si>
-  <si>
-    <t>Filter by file extension and discard (if feasible) the name provided. Whitelist the accepted file types and determine the mime-type on the server-side (for example via "Apache Tika" or similar checks). If the file is retrievable by endusers and/or backoffice employees, consider performing scans for popular malware (if the files can be retrieved much later than they were uploaded, also apply a fresh malware scan during retrieval to scan with newer signatures of popular malware). Also enforce limits on maximum file size to avoid denial-of-service like scenarios.</t>
-  </si>
-  <si>
-    <t>missing-file-validation@repo-server</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at API Server</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@api-server</t>
-  </si>
-  <si>
-    <t>Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-hardening@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>CWE-1008</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Provider (External) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive identity provider assets and their identity datastores.</t>
-  </si>
-  <si>
-    <t>missing-identity-provider-isolation@oidc-provider</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Proxy (Dex) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-identity-provider-isolation@dex-server</t>
-  </si>
-  <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
-    <t>CWE-22</t>
-  </si>
-  <si>
-    <t>Path-Traversal</t>
-  </si>
-  <si>
-    <t>Store Cached Manifest Sources</t>
-  </si>
-  <si>
-    <t>Path-Traversal risk at Repo Server against filesystem Repo Server Storage via Store Cached Manifest Sources</t>
-  </si>
-  <si>
-    <t>Path-Traversal Prevention</t>
-  </si>
-  <si>
-    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>path-traversal@repo-server@repo-server-storage@repo-server&gt;store-cached-manifest-sources</t>
-  </si>
-  <si>
-    <t>CWE-918</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>SSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
-  </si>
-  <si>
-    <t>Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
-  </si>
-  <si>
-    <t>Update RBAC Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
-  </si>
-  <si>
-    <t>Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
-  </si>
-  <si>
-    <t>Application Controller</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
-  </si>
-  <si>
-    <t>ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Git Generator Pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Pull Source</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Argo CD Source Repo (GitHub) via Pull Source</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Push Image to Quay</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
-  </si>
-  <si>
-    <t>Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
-  </si>
-  <si>
-    <t>User CLI</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
-  </si>
-  <si>
-    <t>Push Manifest Sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Internal Source Control Management UI server-side web-requesting the target Internal Source Control Management API via Push Manifest Sources</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@internal-source-control-management-ui@internal-source-control-management-api@internal-source-control-management-ui&gt;push-manifest-sources</t>
-  </si>
-  <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@docker-hub</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Quay</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@quay</t>
-  </si>
-  <si>
-    <t>CWE-912</t>
-  </si>
-  <si>
-    <t>Code Backdooring</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>code-backdooring@docker-hub</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Quay</t>
-  </si>
-  <si>
-    <t>code-backdooring@quay</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at API Server</t>
-  </si>
-  <si>
-    <t>Container Infrastructure Hardening</t>
-  </si>
-  <si>
-    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@api-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Application Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@application-controller</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@applicationset-controller</t>
-  </si>
-  <si>
-    <t>External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@dex-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Repo Server Storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server-storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server</t>
-  </si>
-  <si>
-    <t>CWE-1127</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
-  </si>
-  <si>
-    <t>Include the build infrastructure in the model.</t>
-  </si>
-  <si>
-    <t>missing-build-infrastructure@application-controller</t>
-  </si>
-  <si>
-    <t>CWE-287</t>
-  </si>
-  <si>
-    <t>Missing Identity Store</t>
-  </si>
-  <si>
-    <t>Missing Identity Store in the threat model (referencing asset Argo CD Maintainer Git Client as an example)</t>
-  </si>
-  <si>
-    <t>Identity Store</t>
-  </si>
-  <si>
-    <t>Include an identity store in the model if the application has a login.</t>
-  </si>
-  <si>
-    <t>missing-identity-store@argo-cd-maintainer-git-client</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect API Server against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@api-server</t>
-  </si>
-  <si>
-    <t>Business Side</t>
-  </si>
-  <si>
-    <t>CWE-308</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication (2FA)</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
-  </si>
-  <si>
-    <t>Authentication with Second Factor (2FA)</t>
-  </si>
-  <si>
-    <t>Apply an authentication method to the technical asset protecting highly sensitive data via two-factor authentication for human users.</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
-  </si>
-  <si>
-    <t>CWE-522</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Internal Source Control Management API</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage) in the threat model (referencing asset Internal Source Control Management API as an example)</t>
-  </si>
-  <si>
-    <t>Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
-  </si>
-  <si>
-    <t>Is a Vault (Secret Storage) in place?</t>
-  </si>
-  <si>
-    <t>missing-vault@internal-source-control-management-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at API Server</t>
-  </si>
-  <si>
-    <t>Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Consider placing a Web Application Firewall (WAF) in front of the web-services and/or web-applications. For cloud environments many cloud providers offer pre-configured WAFs. Even reverse proxies can be enhances by a WAF component via ModSecurity plugins.</t>
-  </si>
-  <si>
-    <t>Is a Web Application Firewall (WAF) in place?</t>
-  </si>
-  <si>
-    <t>missing-waf@api-server</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-waf@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-waf@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at Internal Source Control Management API</t>
-  </si>
-  <si>
-    <t>missing-waf@internal-source-control-management-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at OIDC Provider (External)</t>
-  </si>
-  <si>
-    <t>missing-waf@oidc-provider</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@argo-cd-build-pipeline</t>
-  </si>
-  <si>
     <t>Unchecked Deployment risk at Argo CD Source Repo (GitHub)</t>
   </si>
   <si>
@@ -1019,6 +980,24 @@
   </si>
   <si>
     <t>unnecessary-data-transfer@argo-cd-rbac-config@host-cluster-kubernetes-api@api-server</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to User CLI</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@user-provided-secret@api-server@user-cli</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Asset named Argo CD Database Export</t>
+  </si>
+  <si>
+    <t>Try to avoid having data assets that are not required/used.</t>
+  </si>
+  <si>
+    <t>unnecessary-data-asset@argocd-db-export</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1646,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="19">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>29</v>
@@ -1697,7 +1676,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
@@ -1715,16 +1694,16 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="19">
+        <v>36</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" s="19">
-        <v>100</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>30</v>
@@ -1736,7 +1715,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>34</v>
@@ -1751,46 +1730,46 @@
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="19">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>34</v>
@@ -1801,50 +1780,50 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="19">
+        <v>36</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="19">
-        <v>23</v>
-      </c>
-      <c r="K5" s="20" t="s">
+      <c r="M5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>34</v>
@@ -1859,46 +1838,46 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J6" s="19">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>34</v>
@@ -1913,46 +1892,46 @@
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="19">
+        <v>34</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="19">
-        <v>12</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="M7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>55</v>
-      </c>
       <c r="N7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>34</v>
@@ -1967,46 +1946,46 @@
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J8" s="19">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>34</v>
@@ -2021,46 +2000,46 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J9" s="19">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>34</v>
@@ -2075,46 +2054,46 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="19">
+        <v>34</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="L10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="J10" s="19">
-        <v>28</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>34</v>
@@ -2129,46 +2108,46 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J11" s="19">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>34</v>
@@ -2183,46 +2162,46 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="19">
+        <v>44</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="19">
-        <v>27</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="L12" s="23" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>34</v>
@@ -2237,46 +2216,46 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J13" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>34</v>
@@ -2291,46 +2270,46 @@
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J14" s="19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>34</v>
@@ -2345,46 +2324,46 @@
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="J15" s="19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>34</v>
@@ -2399,46 +2378,46 @@
         <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="J16" s="19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K16" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="M16" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>34</v>
@@ -2453,46 +2432,46 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="J17" s="19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>34</v>
@@ -2507,46 +2486,46 @@
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J18" s="19">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>34</v>
@@ -2561,46 +2540,46 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J19" s="19">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>34</v>
@@ -2621,40 +2600,40 @@
         <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J20" s="19">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>34</v>
@@ -2669,46 +2648,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="19">
         <v>36</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="19">
-        <v>100</v>
-      </c>
       <c r="K21" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>34</v>
@@ -2723,46 +2702,46 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J22" s="19">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>34</v>
@@ -2777,46 +2756,46 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J23" s="19">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -2827,50 +2806,50 @@
       <c r="T23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>52</v>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="J24" s="19">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>34</v>
@@ -2881,50 +2860,50 @@
       <c r="T24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>128</v>
+      <c r="H25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J25" s="19">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="K25" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="M25" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="M25" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -2935,50 +2914,50 @@
       <c r="T25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>28</v>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="J26" s="19">
         <v>100</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>34</v>
@@ -2993,46 +2972,46 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J27" s="19">
         <v>100</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3047,46 +3026,46 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J28" s="19">
         <v>100</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3101,46 +3080,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="J29" s="19">
         <v>100</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3155,28 +3134,28 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="J30" s="19">
         <v>100</v>
@@ -3185,10 +3164,10 @@
         <v>149</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
@@ -3209,46 +3188,46 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="J31" s="19">
         <v>100</v>
       </c>
       <c r="K31" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>153</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3263,46 +3242,46 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="J32" s="19">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3317,46 +3296,46 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="J33" s="19">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3371,46 +3350,46 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J34" s="19">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3425,40 +3404,40 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="J35" s="19">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>162</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
@@ -3479,40 +3458,40 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J36" s="19">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K36" s="20" t="s">
         <v>165</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
@@ -3533,46 +3512,46 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="J37" s="19">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3587,46 +3566,46 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="J38" s="19">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -3641,46 +3620,46 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="J39" s="19">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -3695,46 +3674,46 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="J40" s="19">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -3749,46 +3728,46 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="J41" s="19">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>34</v>
@@ -3803,46 +3782,46 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J42" s="19">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -3857,46 +3836,46 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="J43" s="19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -3911,46 +3890,46 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J44" s="19">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>34</v>
@@ -3965,46 +3944,46 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J45" s="19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4019,46 +3998,46 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J46" s="19">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4073,46 +4052,46 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="J47" s="19">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4123,50 +4102,50 @@
       <c r="T47" s="17"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>197</v>
+      <c r="A48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="J48" s="19">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4177,50 +4156,50 @@
       <c r="T48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>75</v>
+      <c r="A49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="J49" s="19">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4231,50 +4210,50 @@
       <c r="T49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>92</v>
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="J50" s="19">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K50" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L50" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="L50" s="23" t="s">
-        <v>136</v>
-      </c>
       <c r="M50" s="23" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4289,46 +4268,46 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J51" s="19">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4339,50 +4318,50 @@
       <c r="T51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>207</v>
+      <c r="A52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J52" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4393,50 +4372,50 @@
       <c r="T52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="A53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="19">
+        <v>34</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L53" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="19">
-        <v>4</v>
-      </c>
-      <c r="K53" s="20" t="s">
+      <c r="M53" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="L53" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="M53" s="23" t="s">
-        <v>215</v>
-      </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>34</v>
@@ -4447,50 +4426,50 @@
       <c r="T53" s="17"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="5" t="s">
+      <c r="A54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="F54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="J54" s="19">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>34</v>
@@ -4501,50 +4480,50 @@
       <c r="T54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>185</v>
+      <c r="A55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J55" s="19">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N55" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>34</v>
@@ -4559,46 +4538,46 @@
         <v>22</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" s="19">
+        <v>13</v>
+      </c>
+      <c r="K56" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M56" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="19">
-        <v>4</v>
-      </c>
-      <c r="K56" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="L56" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="M56" s="23" t="s">
-        <v>225</v>
-      </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>34</v>
@@ -4613,46 +4592,46 @@
         <v>22</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" s="19">
+        <v>34</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M57" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="19">
-        <v>4</v>
-      </c>
-      <c r="K57" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="M57" s="23" t="s">
-        <v>225</v>
-      </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>34</v>
@@ -4667,46 +4646,46 @@
         <v>22</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J58" s="19">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="N58" s="23" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P58" s="11" t="s">
         <v>34</v>
@@ -4721,46 +4700,46 @@
         <v>22</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" s="19">
+        <v>43</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="L59" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="19">
-        <v>25</v>
-      </c>
-      <c r="K59" s="20" t="s">
+      <c r="M59" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="L59" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="M59" s="23" t="s">
+      <c r="N59" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="N59" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="O59" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>34</v>
@@ -4775,46 +4754,46 @@
         <v>22</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" s="19">
+        <v>54</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="19">
-        <v>4</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>224</v>
-      </c>
       <c r="M60" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N60" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="N60" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="O60" s="21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>34</v>
@@ -4829,46 +4808,46 @@
         <v>22</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" s="19">
+        <v>27</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="L61" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J61" s="19">
-        <v>4</v>
-      </c>
-      <c r="K61" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>224</v>
-      </c>
       <c r="M61" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N61" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="N61" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="O61" s="21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>34</v>
@@ -4883,46 +4862,46 @@
         <v>22</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="19">
+        <v>69</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="L62" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" s="19">
-        <v>27</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="L62" s="23" t="s">
-        <v>224</v>
-      </c>
       <c r="M62" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N62" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="N62" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="O62" s="21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>34</v>
@@ -4937,46 +4916,46 @@
         <v>22</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" s="19">
         <v>36</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="19">
-        <v>100</v>
-      </c>
       <c r="K63" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N63" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O63" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="O63" s="21" t="s">
-        <v>247</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>34</v>
@@ -4991,46 +4970,46 @@
         <v>22</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J64" s="19">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K64" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O64" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="L64" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="M64" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="N64" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>34</v>
@@ -5045,43 +5024,43 @@
         <v>22</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J65" s="19">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="K65" s="20" t="s">
         <v>250</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O65" s="21" t="s">
         <v>251</v>
@@ -5099,46 +5078,46 @@
         <v>22</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="19">
+        <v>44</v>
+      </c>
+      <c r="K66" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" s="19">
-        <v>19</v>
-      </c>
-      <c r="K66" s="20" t="s">
+      <c r="L66" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O66" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="L66" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="M66" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>254</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>34</v>
@@ -5153,46 +5132,46 @@
         <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J67" s="19">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5207,46 +5186,46 @@
         <v>22</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J68" s="19">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5261,46 +5240,46 @@
         <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J69" s="19">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5315,46 +5294,46 @@
         <v>22</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J70" s="19">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>34</v>
@@ -5369,46 +5348,46 @@
         <v>22</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J71" s="19">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>34</v>
@@ -5423,46 +5402,46 @@
         <v>22</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J72" s="19">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>34</v>
@@ -5477,46 +5456,46 @@
         <v>22</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J73" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>34</v>
@@ -5531,46 +5510,46 @@
         <v>22</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J74" s="19">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>34</v>
@@ -5585,46 +5564,46 @@
         <v>22</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J75" s="19">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>34</v>
@@ -5639,46 +5618,46 @@
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J76" s="19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -5689,50 +5668,50 @@
       <c r="T76" s="17"/>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="A77" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>52</v>
+      <c r="H77" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="J77" s="19">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L77" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M77" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="M77" s="23" t="s">
-        <v>299</v>
-      </c>
       <c r="N77" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -5743,50 +5722,50 @@
       <c r="T77" s="17"/>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="A78" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>52</v>
+      <c r="H78" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="J78" s="19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L78" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M78" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="M78" s="23" t="s">
-        <v>299</v>
-      </c>
       <c r="N78" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -5797,50 +5776,50 @@
       <c r="T78" s="17"/>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="A79" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>52</v>
+      <c r="H79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="J79" s="19">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L79" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M79" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="M79" s="23" t="s">
-        <v>299</v>
-      </c>
       <c r="N79" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -5855,46 +5834,46 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J80" s="19">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N80" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -5909,46 +5888,46 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J81" s="19">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>34</v>
@@ -5963,46 +5942,46 @@
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J82" s="19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N82" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P82" s="11" t="s">
         <v>34</v>
@@ -6013,50 +5992,50 @@
       <c r="T82" s="17"/>
     </row>
     <row r="83">
-      <c r="A83" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>52</v>
+      <c r="A83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J83" s="19">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N83" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>34</v>
@@ -6067,50 +6046,50 @@
       <c r="T83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>52</v>
+      <c r="A84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J84" s="19">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="K84" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="L84" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="M84" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="L84" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="M84" s="23" t="s">
-        <v>312</v>
-      </c>
       <c r="N84" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>34</v>
@@ -6122,49 +6101,49 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J85" s="19">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="N85" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>34</v>
@@ -6173,222 +6152,6 @@
       <c r="R85" s="18"/>
       <c r="S85" s="18"/>
       <c r="T85" s="17"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J86" s="19">
-        <v>12</v>
-      </c>
-      <c r="K86" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="L86" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="M86" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="N86" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O86" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="P86" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="17"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87" s="19">
-        <v>4</v>
-      </c>
-      <c r="K87" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="M87" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="N87" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O87" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="17"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J88" s="19">
-        <v>4</v>
-      </c>
-      <c r="K88" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="M88" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="N88" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O88" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="P88" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="17"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J89" s="19">
-        <v>57</v>
-      </c>
-      <c r="K89" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="L89" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="M89" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="N89" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O89" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="P89" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="17"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>Severity</t>
   </si>
@@ -352,6 +352,15 @@
     <t>missing-hardening@host-cluster-kubernetes-api</t>
   </si>
   <si>
+    <t>User CLI</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at User CLI</t>
+  </si>
+  <si>
+    <t>missing-hardening@user-cli</t>
+  </si>
+  <si>
     <t>Missing Identity Provider Isolation</t>
   </si>
   <si>
@@ -475,6 +484,15 @@
     <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
   </si>
   <si>
+    <t>Export Database</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
+  </si>
+  <si>
     <t>Application Controller</t>
   </si>
   <si>
@@ -610,6 +628,12 @@
     <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
   </si>
   <si>
+    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
     <t>CWE-501</t>
   </si>
   <si>
@@ -799,7 +823,7 @@
     <t>Missing Identity Store</t>
   </si>
   <si>
-    <t>Missing Identity Store in the threat model (referencing asset Argo CD Maintainer Git Client as an example)</t>
+    <t>Missing Identity Store in the threat model (referencing asset User CLI as an example)</t>
   </si>
   <si>
     <t>Identity Store</t>
@@ -808,7 +832,7 @@
     <t>Include an identity store in the model if the application has a login.</t>
   </si>
   <si>
-    <t>missing-identity-store@argo-cd-maintainer-git-client</t>
+    <t>missing-identity-store@user-cli</t>
   </si>
   <si>
     <t>Missing Network Segmentation</t>
@@ -829,6 +853,12 @@
     <t>missing-network-segmentation@applicationset-controller</t>
   </si>
   <si>
+    <t>Missing Network Segmentation to further encapsulate and protect User CLI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@user-cli</t>
+  </si>
+  <si>
     <t>Business Side</t>
   </si>
   <si>
@@ -970,6 +1000,12 @@
     <t>unnecessary-data-transfer@argo-cd-container-image-tag@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
   </si>
   <si>
+    <t>Unnecessary Data Transfer of Argo CD Database Export data at User CLI from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@argocd-db-export@user-cli@api-server</t>
+  </si>
+  <si>
     <t>Unnecessary Data Transfer of Argo CD GitHub Push Token data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
   </si>
   <si>
@@ -986,18 +1022,6 @@
   </si>
   <si>
     <t>unnecessary-data-transfer@user-provided-secret@api-server@user-cli</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Asset</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Asset named Argo CD Database Export</t>
-  </si>
-  <si>
-    <t>Try to avoid having data assets that are not required/used.</t>
-  </si>
-  <si>
-    <t>unnecessary-data-asset@argocd-db-export</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1724,7 @@
         <v>36</v>
       </c>
       <c r="J3" s="19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>37</v>
@@ -1808,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>48</v>
@@ -1862,7 +1886,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>56</v>
@@ -1916,7 +1940,7 @@
         <v>61</v>
       </c>
       <c r="J7" s="19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>62</v>
@@ -1970,7 +1994,7 @@
         <v>61</v>
       </c>
       <c r="J8" s="19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>64</v>
@@ -2024,7 +2048,7 @@
         <v>61</v>
       </c>
       <c r="J9" s="19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>66</v>
@@ -2078,7 +2102,7 @@
         <v>61</v>
       </c>
       <c r="J10" s="19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>68</v>
@@ -2186,7 +2210,7 @@
         <v>74</v>
       </c>
       <c r="J12" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>75</v>
@@ -2240,7 +2264,7 @@
         <v>78</v>
       </c>
       <c r="J13" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>79</v>
@@ -2294,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="J14" s="19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>81</v>
@@ -2510,7 +2534,7 @@
         <v>43</v>
       </c>
       <c r="J18" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>99</v>
@@ -2618,7 +2642,7 @@
         <v>43</v>
       </c>
       <c r="J20" s="19">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>110</v>
@@ -2648,46 +2672,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="19">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>113</v>
       </c>
       <c r="L21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>34</v>
@@ -2702,46 +2726,46 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="19">
+        <v>35</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="M22" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="N22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="19">
-        <v>44</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>34</v>
@@ -2759,43 +2783,43 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="19">
+        <v>42</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="M23" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="N23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="J23" s="19">
-        <v>100</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -2806,44 +2830,44 @@
       <c r="T23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>132</v>
+      <c r="I24" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="J24" s="19">
         <v>100</v>
       </c>
       <c r="K24" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>130</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
@@ -2870,16 +2894,16 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>27</v>
@@ -2894,10 +2918,10 @@
         <v>136</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
@@ -2924,16 +2948,16 @@
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>27</v>
@@ -2948,10 +2972,10 @@
         <v>139</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>32</v>
@@ -2978,16 +3002,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>27</v>
@@ -3002,10 +3026,10 @@
         <v>142</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
@@ -3032,16 +3056,16 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>27</v>
@@ -3056,10 +3080,10 @@
         <v>145</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
@@ -3086,40 +3110,40 @@
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="J29" s="19">
         <v>100</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3140,40 +3164,40 @@
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="J30" s="19">
         <v>100</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3194,40 +3218,40 @@
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J31" s="19">
         <v>100</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3248,40 +3272,40 @@
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="19">
+        <v>100</v>
+      </c>
+      <c r="K32" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="19">
-        <v>43</v>
-      </c>
-      <c r="K32" s="20" t="s">
+      <c r="L32" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3302,40 +3326,40 @@
         <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J33" s="19">
+        <v>100</v>
+      </c>
+      <c r="K33" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="J33" s="19">
-        <v>43</v>
-      </c>
-      <c r="K33" s="20" t="s">
+      <c r="L33" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3356,40 +3380,40 @@
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="J34" s="19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3410,40 +3434,40 @@
         <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="J35" s="19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3464,40 +3488,40 @@
         <v>22</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J36" s="19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3518,34 +3542,34 @@
         <v>22</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="J37" s="19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K37" s="20" t="s">
         <v>168</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
@@ -3572,40 +3596,40 @@
         <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="J38" s="19">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -3626,34 +3650,34 @@
         <v>22</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J39" s="19">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K39" s="20" t="s">
         <v>174</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
@@ -3680,34 +3704,34 @@
         <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J40" s="19">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K40" s="20" t="s">
         <v>176</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
@@ -3734,40 +3758,40 @@
         <v>22</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J41" s="19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>34</v>
@@ -3788,40 +3812,40 @@
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="19">
+        <v>31</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="19">
-        <v>9</v>
-      </c>
-      <c r="K42" s="20" t="s">
+      <c r="L42" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>184</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -3842,40 +3866,40 @@
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J43" s="19">
+        <v>31</v>
+      </c>
+      <c r="K43" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J43" s="19">
-        <v>36</v>
-      </c>
-      <c r="K43" s="20" t="s">
+      <c r="L43" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>186</v>
-      </c>
-      <c r="L43" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>187</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -3896,34 +3920,34 @@
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="19">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="K44" s="20" t="s">
         <v>189</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
@@ -3950,34 +3974,34 @@
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>191</v>
       </c>
       <c r="J45" s="19">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K45" s="20" t="s">
         <v>192</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
@@ -4004,40 +4028,40 @@
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J46" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4058,40 +4082,40 @@
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="J47" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4102,50 +4126,50 @@
       <c r="T47" s="17"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="A48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="19">
+        <v>42</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J48" s="19">
-        <v>13</v>
-      </c>
-      <c r="K48" s="20" t="s">
+      <c r="L48" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="M48" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="N48" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4156,50 +4180,50 @@
       <c r="T48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>71</v>
+      <c r="A49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="J49" s="19">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="M49" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4210,50 +4234,50 @@
       <c r="T49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>178</v>
+      <c r="A50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J50" s="19">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4264,50 +4288,50 @@
       <c r="T50" s="17"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>43</v>
+      <c r="A51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="J51" s="19">
         <v>13</v>
       </c>
       <c r="K51" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="L51" s="23" t="s">
+      <c r="N51" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="N51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4318,50 +4342,50 @@
       <c r="T51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="A52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>43</v>
+      <c r="I52" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="J52" s="19">
         <v>13</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4372,50 +4396,50 @@
       <c r="T52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="A53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="19">
+        <v>33</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="L53" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="19">
-        <v>34</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>212</v>
-      </c>
       <c r="M53" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>34</v>
@@ -4436,40 +4460,40 @@
         <v>39</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J54" s="19">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K54" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M54" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="L54" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M54" s="23" t="s">
+      <c r="N54" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>223</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>34</v>
@@ -4490,19 +4514,19 @@
         <v>39</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>43</v>
@@ -4511,19 +4535,19 @@
         <v>13</v>
       </c>
       <c r="K55" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M55" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>34</v>
@@ -4544,40 +4568,40 @@
         <v>39</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J56" s="19">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K56" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="L56" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M56" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="N56" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>227</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>34</v>
@@ -4604,34 +4628,34 @@
         <v>85</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J57" s="19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>34</v>
@@ -4658,34 +4682,34 @@
         <v>85</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J58" s="19">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M58" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="N58" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="O58" s="21" t="s">
-        <v>235</v>
       </c>
       <c r="P58" s="11" t="s">
         <v>34</v>
@@ -4712,34 +4736,34 @@
         <v>85</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J59" s="19">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>34</v>
@@ -4766,34 +4790,34 @@
         <v>85</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J60" s="19">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N60" s="23" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>34</v>
@@ -4820,34 +4844,34 @@
         <v>85</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J61" s="19">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K61" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M61" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="L61" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>233</v>
-      </c>
       <c r="N61" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>34</v>
@@ -4874,34 +4898,34 @@
         <v>85</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J62" s="19">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N62" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>34</v>
@@ -4928,34 +4952,34 @@
         <v>85</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J63" s="19">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>34</v>
@@ -4982,13 +5006,13 @@
         <v>85</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>43</v>
@@ -4997,19 +5021,19 @@
         <v>26</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>34</v>
@@ -5036,34 +5060,34 @@
         <v>85</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J65" s="19">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>34</v>
@@ -5090,34 +5114,34 @@
         <v>85</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J66" s="19">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>34</v>
@@ -5135,43 +5159,43 @@
         <v>83</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J67" s="19">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K67" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="O67" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="L67" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5189,43 +5213,43 @@
         <v>83</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J68" s="19">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5243,43 +5267,43 @@
         <v>83</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J69" s="19">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5300,40 +5324,40 @@
         <v>22</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J70" s="19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N70" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>34</v>
@@ -5354,40 +5378,40 @@
         <v>22</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E71" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="19">
+        <v>56</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="M71" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="N71" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" s="19">
-        <v>100</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="L71" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>34</v>
@@ -5408,40 +5432,40 @@
         <v>22</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>278</v>
+        <v>86</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J72" s="19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>34</v>
@@ -5462,7 +5486,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>85</v>
@@ -5471,31 +5495,31 @@
         <v>86</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J73" s="19">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>34</v>
@@ -5516,7 +5540,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>85</v>
@@ -5525,31 +5549,31 @@
         <v>86</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J74" s="19">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>34</v>
@@ -5570,40 +5594,40 @@
         <v>22</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="19">
+        <v>100</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="M75" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J75" s="19">
-        <v>69</v>
-      </c>
-      <c r="K75" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="L75" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>289</v>
-      </c>
       <c r="N75" s="23" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>34</v>
@@ -5624,40 +5648,40 @@
         <v>22</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J76" s="19">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -5668,50 +5692,50 @@
       <c r="T76" s="17"/>
     </row>
     <row r="77">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="19">
+        <v>100</v>
+      </c>
+      <c r="K77" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N77" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J77" s="19">
-        <v>13</v>
-      </c>
-      <c r="K77" s="20" t="s">
+      <c r="O77" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M77" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="N77" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -5722,50 +5746,50 @@
       <c r="T77" s="17"/>
     </row>
     <row r="78">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="19">
+        <v>26</v>
+      </c>
+      <c r="K78" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="L78" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M78" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N78" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J78" s="19">
-        <v>13</v>
-      </c>
-      <c r="K78" s="20" t="s">
+      <c r="O78" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="L78" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M78" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="N78" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O78" s="21" t="s">
-        <v>304</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -5776,50 +5800,50 @@
       <c r="T78" s="17"/>
     </row>
     <row r="79">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" s="19">
+        <v>67</v>
+      </c>
+      <c r="K79" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N79" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J79" s="19">
-        <v>34</v>
-      </c>
-      <c r="K79" s="20" t="s">
+      <c r="O79" s="21" t="s">
         <v>305</v>
-      </c>
-      <c r="L79" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M79" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="N79" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O79" s="21" t="s">
-        <v>306</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -5837,43 +5861,43 @@
         <v>83</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J80" s="19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K80" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N80" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="21" t="s">
         <v>309</v>
-      </c>
-      <c r="L80" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="M80" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="N80" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -5884,50 +5908,50 @@
       <c r="T80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="A81" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I81" s="7" t="s">
+      <c r="F81" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J81" s="19">
         <v>13</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N81" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>34</v>
@@ -5938,50 +5962,50 @@
       <c r="T81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="A82" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I82" s="7" t="s">
+      <c r="F82" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J82" s="19">
         <v>13</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N82" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P82" s="11" t="s">
         <v>34</v>
@@ -5992,50 +6016,50 @@
       <c r="T82" s="17"/>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="A83" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I83" s="7" t="s">
+      <c r="F83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J83" s="19">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="M83" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N83" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="N83" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O83" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>34</v>
@@ -6053,43 +6077,43 @@
         <v>83</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J84" s="19">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K84" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="L84" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="M84" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="N84" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="21" t="s">
         <v>322</v>
-      </c>
-      <c r="L84" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="M84" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="N84" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84" s="21" t="s">
-        <v>323</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>34</v>
@@ -6100,41 +6124,41 @@
       <c r="T84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="A85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85" s="19">
+        <v>13</v>
+      </c>
+      <c r="K85" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J85" s="19">
-        <v>0</v>
-      </c>
-      <c r="K85" s="20" t="s">
+      <c r="L85" s="23" t="s">
         <v>325</v>
-      </c>
-      <c r="L85" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="M85" s="23" t="s">
         <v>326</v>
@@ -6152,6 +6176,222 @@
       <c r="R85" s="18"/>
       <c r="S85" s="18"/>
       <c r="T85" s="17"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" s="19">
+        <v>56</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L86" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="M86" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="N86" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="17"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" s="19">
+        <v>13</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="17"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88" s="19">
+        <v>67</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="17"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" s="19">
+        <v>100</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="M89" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="P89" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="17"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>Severity</t>
   </si>
@@ -79,46 +79,64 @@
     <t>Elevated</t>
   </si>
   <si>
+    <t>Very Likely</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>CWE-352</t>
+  </si>
+  <si>
+    <t>Cross-Site Request Forgery (CSRF)</t>
+  </si>
+  <si>
+    <t>API Server</t>
+  </si>
+  <si>
+    <t>Get App Code</t>
+  </si>
+  <si>
+    <t>Cross-Site Request Forgery (CSRF) risk at API Server via Get App Code from Web UI</t>
+  </si>
+  <si>
+    <t>CSRF Prevention</t>
+  </si>
+  <si>
+    <t>Try to use anti-CSRF tokens ot the double-submit patterns (at least for logged-in requests). When your authentication scheme depends on cookies (like session or token cookies), consider marking them with the same-site flag. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
+  </si>
+  <si>
+    <t>cross-site-request-forgery@api-server@web-ui&gt;get-app-code</t>
+  </si>
+  <si>
+    <t>Unchecked</t>
+  </si>
+  <si>
     <t>Likely</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Spoofing</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>CWE-352</t>
-  </si>
-  <si>
-    <t>Cross-Site Request Forgery (CSRF)</t>
-  </si>
-  <si>
-    <t>API Server</t>
-  </si>
-  <si>
     <t>Make Requests to API Server</t>
   </si>
   <si>
     <t>Cross-Site Request Forgery (CSRF) risk at API Server via Make Requests to API Server from User CLI</t>
   </si>
   <si>
-    <t>CSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to use anti-CSRF tokens ot the double-submit patterns (at least for logged-in requests). When your authentication scheme depends on cookies (like session or token cookies), consider marking them with the same-site flag. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
-  </si>
-  <si>
     <t>cross-site-request-forgery@api-server@user-cli&gt;make-requests-to-api-server</t>
   </si>
   <si>
-    <t>Unchecked</t>
+    <t>Cross-Site Request Forgery (CSRF) risk at API Server via Make Requests to API Server from Web UI</t>
+  </si>
+  <si>
+    <t>cross-site-request-forgery@api-server@web-ui&gt;make-requests-to-api-server</t>
   </si>
   <si>
     <t>OIDC Proxy (Dex)</t>
@@ -166,6 +184,39 @@
     <t>cross-site-scripting@dex-server</t>
   </si>
   <si>
+    <t>Web UI</t>
+  </si>
+  <si>
+    <t>Cross-Site Scripting (XSS) risk at Web UI</t>
+  </si>
+  <si>
+    <t>cross-site-scripting@web-ui</t>
+  </si>
+  <si>
+    <t>in Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In general, Argo CD relies on the anti-XSS tools provided by React and other frontend libraries to sanitize and encode input before injecting them to the DOM.
+The Argo CD team has dealt with XSS vulnerabilities in the past:
+ * A leaked API server encryption key can allow XSS for SSO users - https://github.com/argoproj/argo-cd/security/advisories/GHSA-pmjg-52h9-72qv
+ * Possible XSS when using SSO with the CLI - https://github.com/argoproj/argo-cd/security/advisories/GHSA-qq5v-f4c3-395c
+ * Missing XSS Protection Header - https://github.com/argoproj/argo-cd/security/advisories/GHSA-pg99-h5gc-446r
+ * External URLs for Deployments can include javascript - https://github.com/argoproj/argo-cd/security/advisories/GHSA-h4w9-6x78-8vrj
+One area of particular interest is user-supplied links in the interface. GHSA-h4w9-6x78-8vrj showed that, where a user can insert an unsanitized link, they can cause JavaScript code to run in another user's browser.
+Other links may only be provided by administrators and are therefore considered relatively trusted.
+Some work to mitigate XSS is still underway:
+ * fix: set security headers on oidc handler responses - https://github.com/argoproj/argo-cd/pull/9854
+ * fix: add url validation for help chat - https://github.com/argoproj/argo-cd/pull/10417
+ * feat: stricter CSP - https://github.com/argoproj/argo-cd/pull/10131
+</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>Michael Crenshaw</t>
+  </si>
+  <si>
     <t>Elevation of Privilege</t>
   </si>
   <si>
@@ -196,6 +247,51 @@
     <t>missing-authentication@api-server&gt;fetching-rendered-manifests-from-cache@api-server@repo-server</t>
   </si>
   <si>
+    <t>Missing Authentication covering communication link Get App Code from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication@web-ui&gt;get-app-code@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>Docker Hub</t>
+  </si>
+  <si>
+    <t>Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Base Image from Docker Hub from Argo CD Build Pipeline (GitHub Actions) to Docker Hub</t>
+  </si>
+  <si>
+    <t>missing-authentication@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub@argo-cd-build-pipeline@docker-hub</t>
+  </si>
+  <si>
+    <t>Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
+  </si>
+  <si>
+    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
+  </si>
+  <si>
+    <t>Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>Send/Receive Cached Rendered Manifests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Send/Receive Cached Rendered Manifests from Repo Server to Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>missing-authentication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
+  </si>
+  <si>
     <t>Quay</t>
   </si>
   <si>
@@ -208,6 +304,15 @@
     <t>missing-authentication@api-server&gt;pull-argo-cd-image@api-server@quay</t>
   </si>
   <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>The Argo CD image is public. There is no need to authenticate to Quay.</t>
+  </si>
+  <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
     <t>Missing Authentication covering communication link Pull Argo CD Image from Application Controller to Quay</t>
   </si>
   <si>
@@ -226,45 +331,6 @@
     <t>missing-authentication@repo-server&gt;pull-argo-cd-image@repo-server@quay</t>
   </si>
   <si>
-    <t>Docker Hub</t>
-  </si>
-  <si>
-    <t>Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Base Image from Docker Hub from Argo CD Build Pipeline (GitHub Actions) to Docker Hub</t>
-  </si>
-  <si>
-    <t>missing-authentication@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub@argo-cd-build-pipeline@docker-hub</t>
-  </si>
-  <si>
-    <t>Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
-  </si>
-  <si>
-    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
-  </si>
-  <si>
-    <t>Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>Send/Receive Cached Rendered Manifests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Send/Receive Cached Rendered Manifests from Repo Server to Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>missing-authentication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
-  </si>
-  <si>
     <t>Unlikely</t>
   </si>
   <si>
@@ -304,7 +370,763 @@
     <t>missing-cloud-hardening@organization-network</t>
   </si>
   <si>
-    <t>Very Likely</t>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at API Server</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@api-server</t>
+  </si>
+  <si>
+    <t>Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-hardening@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>User CLI</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at User CLI</t>
+  </si>
+  <si>
+    <t>missing-hardening@user-cli</t>
+  </si>
+  <si>
+    <t>Missing Identity Provider Isolation</t>
+  </si>
+  <si>
+    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Proxy (Dex) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive identity provider assets and their identity datastores.</t>
+  </si>
+  <si>
+    <t>missing-identity-provider-isolation@dex-server</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-22</t>
+  </si>
+  <si>
+    <t>Path-Traversal</t>
+  </si>
+  <si>
+    <t>Store Cached Manifest Sources</t>
+  </si>
+  <si>
+    <t>Path-Traversal risk at Repo Server against filesystem Repo Server Storage via Store Cached Manifest Sources</t>
+  </si>
+  <si>
+    <t>Path-Traversal Prevention</t>
+  </si>
+  <si>
+    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>path-traversal@repo-server@repo-server-storage@repo-server&gt;store-cached-manifest-sources</t>
+  </si>
+  <si>
+    <t>CWE-918</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF)</t>
+  </si>
+  <si>
+    <t>Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>SSRF Prevention</t>
+  </si>
+  <si>
+    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Get App Code</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;get-app-code</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
+  </si>
+  <si>
+    <t>Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
+  </si>
+  <si>
+    <t>Update RBAC Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
+  </si>
+  <si>
+    <t>Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
+  </si>
+  <si>
+    <t>Export Database</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
+  </si>
+  <si>
+    <t>Application Controller</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
+  </si>
+  <si>
+    <t>ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Git Generator Pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Pull Source</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Argo CD Source Repo (GitHub) via Pull Source</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Push Image to Quay</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>Argo CD Maintainer Git Client</t>
+  </si>
+  <si>
+    <t>Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
+  </si>
+  <si>
+    <t>Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
+  </si>
+  <si>
+    <t>Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>CWE-501</t>
+  </si>
+  <si>
+    <t>Unguarded Access From Internet</t>
+  </si>
+  <si>
+    <t>Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>Build Pipeline Hardening</t>
+  </si>
+  <si>
+    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@docker-hub</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Quay</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@quay</t>
+  </si>
+  <si>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-build-pipeline</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>code-backdooring@docker-hub</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Quay</t>
+  </si>
+  <si>
+    <t>code-backdooring@quay</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at API Server</t>
+  </si>
+  <si>
+    <t>Container Infrastructure Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@api-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Application Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@application-controller</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@applicationset-controller</t>
+  </si>
+  <si>
+    <t>External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@dex-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t>Repo Server Storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server-storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server</t>
+  </si>
+  <si>
+    <t>CWE-1127</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
+  </si>
+  <si>
+    <t>Include the build infrastructure in the model.</t>
+  </si>
+  <si>
+    <t>missing-build-infrastructure@application-controller</t>
+  </si>
+  <si>
+    <t>CWE-287</t>
+  </si>
+  <si>
+    <t>Missing Identity Store</t>
+  </si>
+  <si>
+    <t>Missing Identity Store in the threat model (referencing asset User CLI as an example)</t>
+  </si>
+  <si>
+    <t>Identity Store</t>
+  </si>
+  <si>
+    <t>Include an identity store in the model if the application has a login.</t>
+  </si>
+  <si>
+    <t>missing-identity-store@user-cli</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect API Server against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@api-server</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect User CLI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@user-cli</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect Web UI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@web-ui</t>
+  </si>
+  <si>
+    <t>Business Side</t>
+  </si>
+  <si>
+    <t>CWE-308</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication (2FA)</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Get App Code from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>Authentication with Second Factor (2FA)</t>
+  </si>
+  <si>
+    <t>Apply an authentication method to the technical asset protecting highly sensitive data via two-factor authentication for human users.</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;get-app-code@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;make-requests-to-api-server@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Internal Source Control Management API</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage) in the threat model (referencing asset Internal Source Control Management API as an example)</t>
+  </si>
+  <si>
+    <t>Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
+  </si>
+  <si>
+    <t>Is a Vault (Secret Storage) in place?</t>
+  </si>
+  <si>
+    <t>missing-vault@internal-source-control-management-api</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at API Server</t>
+  </si>
+  <si>
+    <t>Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Consider placing a Web Application Firewall (WAF) in front of the web-services and/or web-applications. For cloud environments many cloud providers offer pre-configured WAFs. Even reverse proxies can be enhances by a WAF component via ModSecurity plugins.</t>
+  </si>
+  <si>
+    <t>Is a Web Application Firewall (WAF) in place?</t>
+  </si>
+  <si>
+    <t>missing-waf@api-server</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-waf@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-waf@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@argo-cd-build-pipeline</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@docker-hub</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Quay</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@quay</t>
+  </si>
+  <si>
+    <t>CWE-311</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Assets</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named Repo Server Storage missing enduser-individual encryption with data-with-enduser-individual-key</t>
+  </si>
+  <si>
+    <t>Encryption of Technical Asset</t>
+  </si>
+  <si>
+    <t>Apply encryption to the technical asset.</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@repo-server-storage</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD Container Image Tag data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
+  </si>
+  <si>
+    <t>Attack Surface Reduction</t>
+  </si>
+  <si>
+    <t>Try to avoid sending or receiving sensitive data assets which are not required (i.e. neither processed or stored) by the involved technical asset.</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@argo-cd-container-image-tag@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD Database Export data at User CLI from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@argocd-db-export@user-cli@api-server</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD GitHub Push Token data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@argo-cd-github-push-token@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD RBAC Config data at Host Cluster Kubernetes API from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@argo-cd-rbac-config@host-cluster-kubernetes-api@api-server</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to User CLI</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@user-provided-secret@api-server@user-cli</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to Web UI</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@user-provided-secret@api-server@web-ui</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Bundled UI Code data at API Server from/to Web UI</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@bundled-ui-code@api-server@web-ui</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Bundled UI Code data at Web UI from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@bundled-ui-code@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Manifest Sources data at Web UI from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@manifest-sources@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of OIDC Client Secret data at Host Cluster Kubernetes API from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@oidc-client-secret@host-cluster-kubernetes-api@api-server</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of OIDC Configuration data at Host Cluster Kubernetes API from/to API Server</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@oidc-configuration@host-cluster-kubernetes-api@api-server</t>
   </si>
   <si>
     <t>CWE-434</t>
@@ -325,703 +1147,14 @@
     <t>missing-file-validation@repo-server</t>
   </si>
   <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at API Server</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@api-server</t>
-  </si>
-  <si>
-    <t>Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-hardening@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>User CLI</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at User CLI</t>
-  </si>
-  <si>
-    <t>missing-hardening@user-cli</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Proxy (Dex) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive identity provider assets and their identity datastores.</t>
-  </si>
-  <si>
-    <t>missing-identity-provider-isolation@dex-server</t>
-  </si>
-  <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
-    <t>CWE-22</t>
-  </si>
-  <si>
-    <t>Path-Traversal</t>
-  </si>
-  <si>
-    <t>Store Cached Manifest Sources</t>
-  </si>
-  <si>
-    <t>Path-Traversal risk at Repo Server against filesystem Repo Server Storage via Store Cached Manifest Sources</t>
-  </si>
-  <si>
-    <t>Path-Traversal Prevention</t>
-  </si>
-  <si>
-    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>path-traversal@repo-server@repo-server-storage@repo-server&gt;store-cached-manifest-sources</t>
-  </si>
-  <si>
-    <t>CWE-918</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF)</t>
-  </si>
-  <si>
-    <t>Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>SSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
-  </si>
-  <si>
-    <t>Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
-  </si>
-  <si>
-    <t>Update RBAC Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
-  </si>
-  <si>
-    <t>Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
-  </si>
-  <si>
-    <t>Export Database</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
-  </si>
-  <si>
-    <t>Application Controller</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
-  </si>
-  <si>
-    <t>ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Git Generator Pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Pull Source</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Argo CD Source Repo (GitHub) via Pull Source</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Push Image to Quay</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
-  </si>
-  <si>
-    <t>Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
-  </si>
-  <si>
-    <t>Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
-  </si>
-  <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@docker-hub</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Quay</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@quay</t>
-  </si>
-  <si>
-    <t>CWE-912</t>
-  </si>
-  <si>
-    <t>Code Backdooring</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>code-backdooring@docker-hub</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Quay</t>
-  </si>
-  <si>
-    <t>code-backdooring@quay</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at API Server</t>
-  </si>
-  <si>
-    <t>Container Infrastructure Hardening</t>
-  </si>
-  <si>
-    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@api-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Application Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@application-controller</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@applicationset-controller</t>
-  </si>
-  <si>
-    <t>External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@dex-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Repo Server Storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server-storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server</t>
-  </si>
-  <si>
-    <t>CWE-1127</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
-  </si>
-  <si>
-    <t>Include the build infrastructure in the model.</t>
-  </si>
-  <si>
-    <t>missing-build-infrastructure@application-controller</t>
-  </si>
-  <si>
-    <t>CWE-287</t>
-  </si>
-  <si>
-    <t>Missing Identity Store</t>
-  </si>
-  <si>
-    <t>Missing Identity Store in the threat model (referencing asset User CLI as an example)</t>
-  </si>
-  <si>
-    <t>Identity Store</t>
-  </si>
-  <si>
-    <t>Include an identity store in the model if the application has a login.</t>
-  </si>
-  <si>
-    <t>missing-identity-store@user-cli</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect API Server against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@api-server</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect ApplicationSet Controller against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@applicationset-controller</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect User CLI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@user-cli</t>
-  </si>
-  <si>
-    <t>Business Side</t>
-  </si>
-  <si>
-    <t>CWE-308</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication (2FA)</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
-  </si>
-  <si>
-    <t>Authentication with Second Factor (2FA)</t>
-  </si>
-  <si>
-    <t>Apply an authentication method to the technical asset protecting highly sensitive data via two-factor authentication for human users.</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
-  </si>
-  <si>
-    <t>CWE-522</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Internal Source Control Management API</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage) in the threat model (referencing asset Internal Source Control Management API as an example)</t>
-  </si>
-  <si>
-    <t>Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
-  </si>
-  <si>
-    <t>Is a Vault (Secret Storage) in place?</t>
-  </si>
-  <si>
-    <t>missing-vault@internal-source-control-management-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at API Server</t>
-  </si>
-  <si>
-    <t>Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Consider placing a Web Application Firewall (WAF) in front of the web-services and/or web-applications. For cloud environments many cloud providers offer pre-configured WAFs. Even reverse proxies can be enhances by a WAF component via ModSecurity plugins.</t>
-  </si>
-  <si>
-    <t>Is a Web Application Firewall (WAF) in place?</t>
-  </si>
-  <si>
-    <t>missing-waf@api-server</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-waf@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-waf@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@docker-hub</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Quay</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@quay</t>
-  </si>
-  <si>
-    <t>CWE-311</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Assets</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named Repo Server Storage missing enduser-individual encryption with data-with-enduser-individual-key</t>
-  </si>
-  <si>
-    <t>Encryption of Technical Asset</t>
-  </si>
-  <si>
-    <t>Apply encryption to the technical asset.</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@repo-server-storage</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD Container Image Tag data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>Attack Surface Reduction</t>
-  </si>
-  <si>
-    <t>Try to avoid sending or receiving sensitive data assets which are not required (i.e. neither processed or stored) by the involved technical asset.</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argo-cd-container-image-tag@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD Database Export data at User CLI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argocd-db-export@user-cli@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD GitHub Push Token data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argo-cd-github-push-token@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD RBAC Config data at Host Cluster Kubernetes API from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argo-cd-rbac-config@host-cluster-kubernetes-api@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to User CLI</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@user-provided-secret@api-server@user-cli</t>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Argo CD repo server accepts files from a number of sources. First, it accepts files from Git and Helm  repositories. Second, it accepts files from users via the API when they do "local syncs" or "local diffs". 
+The repo server has several lines of defense against invalid file inputs.  1) Some storage mechanisms limit file size by default (for example git, unless LFS is enabled). 2) The repo-server enforces a secondary, user-configured file size limit for directory-type apps (since
+   those files are read directly into memory).
+3) The repo-server relies on configuration management tools (Helm, Kustomize, jsonnet) to only accept valid input. 4) The repo-server, by default, disallows symlink files which exit the repository boundaries.
+</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1833,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
@@ -1718,13 +1851,13 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="19">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>37</v>
@@ -1754,46 +1887,46 @@
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J4" s="19">
         <v>100</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>34</v>
@@ -1808,46 +1941,46 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="19">
+        <v>32</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="19">
-        <v>35</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="L5" s="23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>34</v>
@@ -1862,46 +1995,46 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="19">
+        <v>100</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="L6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="M6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="N6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="19">
-        <v>42</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>34</v>
@@ -1916,46 +2049,46 @@
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="19">
+        <v>32</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="M7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="19">
-        <v>33</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="N7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>34</v>
@@ -1970,100 +2103,108 @@
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="19">
+        <v>53</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="M8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="N8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="R8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="19">
-        <v>33</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="17"/>
+      <c r="S8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="19">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="19">
-        <v>33</v>
-      </c>
       <c r="K9" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>34</v>
@@ -2078,46 +2219,46 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J10" s="19">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>34</v>
@@ -2132,46 +2273,46 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="19">
+        <v>12</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="M11" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="19">
-        <v>13</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="N11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>34</v>
@@ -2186,46 +2327,46 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="19">
         <v>39</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="19">
-        <v>42</v>
-      </c>
       <c r="K12" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>34</v>
@@ -2240,46 +2381,46 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J13" s="19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>34</v>
@@ -2294,46 +2435,46 @@
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J14" s="19">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>34</v>
@@ -2344,44 +2485,44 @@
       <c r="T14" s="17"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>43</v>
+      <c r="B15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="J15" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>32</v>
@@ -2389,221 +2530,253 @@
       <c r="O15" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="17"/>
+      <c r="P15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>43</v>
+      <c r="B16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="J16" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="Q16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="21" t="s">
+      <c r="J17" s="19">
+        <v>30</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="R17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="23" t="s">
+      <c r="B18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="J18" s="19">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>99</v>
       </c>
       <c r="L18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="M18" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="17"/>
+      <c r="P18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J19" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>34</v>
@@ -2618,40 +2791,40 @@
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J20" s="19">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>110</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>32</v>
@@ -2672,46 +2845,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="19">
-        <v>56</v>
-      </c>
-      <c r="K21" s="20" t="s">
+      <c r="L21" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>34</v>
@@ -2726,31 +2899,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>115</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J22" s="19">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>116</v>
@@ -2780,46 +2953,46 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="I23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="19">
+        <v>62</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="L23" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="19">
-        <v>42</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -2834,46 +3007,46 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="J24" s="19">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>34</v>
@@ -2884,50 +3057,50 @@
       <c r="T24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="A25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="19">
+        <v>32</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="19">
-        <v>100</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>133</v>
-      </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -2938,50 +3111,50 @@
       <c r="T25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="F26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="19">
+        <v>39</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="J26" s="19">
-        <v>100</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>34</v>
@@ -2992,31 +3165,31 @@
       <c r="T26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J27" s="19">
@@ -3026,16 +3199,16 @@
         <v>142</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3046,50 +3219,50 @@
       <c r="T27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="F28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="19">
+        <v>53</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="19">
-        <v>100</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>133</v>
-      </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3104,46 +3277,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J29" s="19">
         <v>100</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3158,46 +3331,46 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="J30" s="19">
         <v>100</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3212,46 +3385,46 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="J31" s="19">
         <v>100</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3266,46 +3439,46 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="J32" s="19">
         <v>100</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3320,46 +3493,46 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J33" s="19">
         <v>100</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3374,46 +3547,46 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="J34" s="19">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3428,46 +3601,46 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="J35" s="19">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3482,46 +3655,46 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J36" s="19">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3536,46 +3709,46 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="J37" s="19">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3590,46 +3763,46 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J38" s="19">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -3644,46 +3817,46 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J39" s="19">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -3698,46 +3871,46 @@
         <v>22</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J40" s="19">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -3752,46 +3925,46 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="J41" s="19">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>34</v>
@@ -3806,46 +3979,46 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="J42" s="19">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -3860,46 +4033,46 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J43" s="19">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -3914,40 +4087,40 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="J44" s="19">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="K44" s="20" t="s">
         <v>189</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
@@ -3968,46 +4141,46 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J45" s="19">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4022,40 +4195,40 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="J46" s="19">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>195</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
@@ -4076,40 +4249,40 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>197</v>
       </c>
       <c r="J47" s="19">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K47" s="20" t="s">
         <v>198</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
@@ -4130,46 +4303,46 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="J48" s="19">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4184,46 +4357,46 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="J49" s="19">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4238,46 +4411,46 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="J50" s="19">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4288,44 +4461,44 @@
       <c r="T50" s="17"/>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>179</v>
+      <c r="A51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="J51" s="19">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>32</v>
@@ -4342,44 +4515,44 @@
       <c r="T51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>71</v>
+      <c r="A52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="J52" s="19">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K52" s="20" t="s">
         <v>213</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
@@ -4396,44 +4569,44 @@
       <c r="T52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>184</v>
+      <c r="A53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="J53" s="19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K53" s="20" t="s">
         <v>215</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
@@ -4454,46 +4627,46 @@
         <v>22</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="19">
+        <v>56</v>
+      </c>
+      <c r="K54" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="L54" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J54" s="19">
-        <v>13</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M54" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>34</v>
@@ -4508,46 +4681,46 @@
         <v>22</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J55" s="19">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L55" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="M55" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>34</v>
@@ -4558,50 +4731,50 @@
       <c r="T55" s="17"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>43</v>
+      <c r="A56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="J56" s="19">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K56" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L56" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="L56" s="23" t="s">
-        <v>220</v>
-      </c>
       <c r="M56" s="23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>34</v>
@@ -4612,50 +4785,50 @@
       <c r="T56" s="17"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="A57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="19">
+        <v>12</v>
+      </c>
+      <c r="K57" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J57" s="19">
-        <v>31</v>
-      </c>
-      <c r="K57" s="20" t="s">
+      <c r="L57" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M57" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="N57" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>34</v>
@@ -4666,50 +4839,50 @@
       <c r="T57" s="17"/>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>43</v>
+      <c r="A58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="J58" s="19">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P58" s="11" t="s">
         <v>34</v>
@@ -4724,46 +4897,46 @@
         <v>22</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J59" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" s="20" t="s">
         <v>234</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>34</v>
@@ -4778,46 +4951,46 @@
         <v>22</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J60" s="19">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K60" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M60" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="L60" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M60" s="23" t="s">
-        <v>230</v>
-      </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>34</v>
@@ -4832,46 +5005,46 @@
         <v>22</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J61" s="19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M61" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="N61" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="O61" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>34</v>
@@ -4886,46 +5059,46 @@
         <v>22</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J62" s="19">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K62" s="20" t="s">
         <v>244</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N62" s="23" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>34</v>
@@ -4940,46 +5113,46 @@
         <v>22</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J63" s="19">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>34</v>
@@ -4994,43 +5167,43 @@
         <v>22</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J64" s="19">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K64" s="20" t="s">
         <v>249</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="O64" s="21" t="s">
         <v>250</v>
@@ -5048,43 +5221,43 @@
         <v>22</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J65" s="19">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="K65" s="20" t="s">
         <v>251</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="O65" s="21" t="s">
         <v>252</v>
@@ -5102,46 +5275,46 @@
         <v>22</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J66" s="19">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>34</v>
@@ -5156,46 +5329,46 @@
         <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="19">
         <v>39</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J67" s="19">
-        <v>25</v>
-      </c>
       <c r="K67" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="L67" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="L67" s="23" t="s">
-        <v>240</v>
-      </c>
       <c r="M67" s="23" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5210,46 +5383,46 @@
         <v>22</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H68" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="19">
+        <v>48</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="N68" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J68" s="19">
-        <v>19</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>242</v>
-      </c>
       <c r="O68" s="21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5264,46 +5437,46 @@
         <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J69" s="19">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5318,46 +5491,46 @@
         <v>22</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J70" s="19">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>34</v>
@@ -5372,46 +5545,46 @@
         <v>22</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G71" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" s="19">
+        <v>32</v>
+      </c>
+      <c r="K71" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J71" s="19">
-        <v>56</v>
-      </c>
-      <c r="K71" s="20" t="s">
+      <c r="L71" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O71" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="L71" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>34</v>
@@ -5426,46 +5599,46 @@
         <v>22</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J72" s="19">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>34</v>
@@ -5480,46 +5653,46 @@
         <v>22</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="G73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J73" s="19">
+        <v>18</v>
+      </c>
+      <c r="K73" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="19">
-        <v>52</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>277</v>
-      </c>
       <c r="L73" s="23" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>34</v>
@@ -5534,46 +5707,46 @@
         <v>22</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J74" s="19">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>34</v>
@@ -5588,46 +5761,46 @@
         <v>22</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J75" s="19">
+        <v>39</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="21" t="s">
         <v>281</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" s="19">
-        <v>100</v>
-      </c>
-      <c r="K75" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="L75" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="N75" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" s="21" t="s">
-        <v>287</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>34</v>
@@ -5642,46 +5815,46 @@
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>290</v>
+        <v>123</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J76" s="19">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -5696,46 +5869,46 @@
         <v>22</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J77" s="19">
         <v>100</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -5750,46 +5923,46 @@
         <v>22</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J78" s="19">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N78" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -5804,46 +5977,46 @@
         <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J79" s="19">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -5858,46 +6031,46 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J80" s="19">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N80" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -5908,50 +6081,50 @@
       <c r="T80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>43</v>
+      <c r="A81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="J81" s="19">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N81" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>34</v>
@@ -5962,50 +6135,50 @@
       <c r="T81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="A82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" s="19">
+        <v>100</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="N82" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J82" s="19">
-        <v>13</v>
-      </c>
-      <c r="K82" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="L82" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M82" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N82" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O82" s="21" t="s">
-        <v>314</v>
       </c>
       <c r="P82" s="11" t="s">
         <v>34</v>
@@ -6016,50 +6189,50 @@
       <c r="T82" s="17"/>
     </row>
     <row r="83">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" s="19">
+        <v>1</v>
+      </c>
+      <c r="K83" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J83" s="19">
-        <v>33</v>
-      </c>
-      <c r="K83" s="20" t="s">
-        <v>315</v>
-      </c>
       <c r="L83" s="23" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>34</v>
@@ -6074,46 +6247,46 @@
         <v>22</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F84" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" s="19">
+        <v>100</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="M84" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="H84" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J84" s="19">
-        <v>19</v>
-      </c>
-      <c r="K84" s="20" t="s">
+      <c r="N84" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="L84" s="23" t="s">
+      <c r="O84" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="M84" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="N84" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>34</v>
@@ -6128,46 +6301,46 @@
         <v>22</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J85" s="19">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>34</v>
@@ -6182,46 +6355,46 @@
         <v>22</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J86" s="19">
+        <v>62</v>
+      </c>
+      <c r="K86" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J86" s="19">
-        <v>56</v>
-      </c>
-      <c r="K86" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="L86" s="23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>34</v>
@@ -6236,46 +6409,46 @@
         <v>22</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J87" s="19">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N87" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>34</v>
@@ -6286,50 +6459,50 @@
       <c r="T87" s="17"/>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>43</v>
+      <c r="A88" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="J88" s="19">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N88" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>34</v>
@@ -6340,50 +6513,50 @@
       <c r="T88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>43</v>
+      <c r="A89" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="J89" s="19">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>34</v>
@@ -6392,6 +6565,770 @@
       <c r="R89" s="18"/>
       <c r="S89" s="18"/>
       <c r="T89" s="17"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J90" s="19">
+        <v>30</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="P90" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="17"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J91" s="19">
+        <v>18</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="M91" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="N91" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="P91" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="17"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J92" s="19">
+        <v>12</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="17"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J93" s="19">
+        <v>56</v>
+      </c>
+      <c r="K93" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="L93" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M93" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="P93" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="17"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J94" s="19">
+        <v>12</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N94" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="17"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J95" s="19">
+        <v>62</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M95" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="17"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96" s="19">
+        <v>100</v>
+      </c>
+      <c r="K96" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="L96" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M96" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N96" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="17"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97" s="19">
+        <v>100</v>
+      </c>
+      <c r="K97" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="L97" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M97" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="17"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98" s="19">
+        <v>100</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="L98" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M98" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N98" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="17"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" s="19">
+        <v>53</v>
+      </c>
+      <c r="K99" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="L99" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M99" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N99" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="17"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J100" s="19">
+        <v>53</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="L100" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N100" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="17"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J101" s="19">
+        <v>62</v>
+      </c>
+      <c r="K101" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="L101" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M101" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N101" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="P101" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="17"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" s="19">
+        <v>62</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="L102" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="P102" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="17"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" s="19">
+        <v>39</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="L103" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="N103" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="P103" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q103" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="R103" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S103" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T103" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>Severity</t>
   </si>
@@ -406,6 +406,12 @@
     <t>missing-hardening@user-cli</t>
   </si>
   <si>
+    <t>Missing Hardening risk at Web UI</t>
+  </si>
+  <si>
+    <t>missing-hardening@web-ui</t>
+  </si>
+  <si>
     <t>Missing Identity Provider Isolation</t>
   </si>
   <si>
@@ -424,6 +430,694 @@
     <t>Information Disclosure</t>
   </si>
   <si>
+    <t>CWE-918</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF)</t>
+  </si>
+  <si>
+    <t>Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>SSRF Prevention</t>
+  </si>
+  <si>
+    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Get App Code</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;get-app-code</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
+  </si>
+  <si>
+    <t>Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
+  </si>
+  <si>
+    <t>Update RBAC Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
+  </si>
+  <si>
+    <t>Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
+  </si>
+  <si>
+    <t>Export Database</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
+  </si>
+  <si>
+    <t>Application Controller</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
+  </si>
+  <si>
+    <t>ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Git Generator Pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Push Image to Quay</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>Argo CD Maintainer Git Client</t>
+  </si>
+  <si>
+    <t>Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
+  </si>
+  <si>
+    <t>Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
+  </si>
+  <si>
+    <t>Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>Pull Source</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Argo CD Source Repo (GitHub) via Pull Source</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
+  </si>
+  <si>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Argo CD build pipeline uses GitHub's checkout action to retrieve source code before building. The action accepts no input, and it should be impossible for a malicious actor (outside GitHub itself) to cause the checkout action to retrieve anything besides the Argo CD source code.
+</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>CWE-501</t>
+  </si>
+  <si>
+    <t>Unguarded Access From Internet</t>
+  </si>
+  <si>
+    <t>Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>Build Pipeline Hardening</t>
+  </si>
+  <si>
+    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@docker-hub</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at Quay</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@quay</t>
+  </si>
+  <si>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-build-pipeline</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>code-backdooring@docker-hub</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Quay</t>
+  </si>
+  <si>
+    <t>code-backdooring@quay</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at API Server</t>
+  </si>
+  <si>
+    <t>Container Infrastructure Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@api-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Application Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@application-controller</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@applicationset-controller</t>
+  </si>
+  <si>
+    <t>External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@dex-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t>Repo Server Storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server-storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server</t>
+  </si>
+  <si>
+    <t>CWE-1127</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
+  </si>
+  <si>
+    <t>Include the build infrastructure in the model.</t>
+  </si>
+  <si>
+    <t>missing-build-infrastructure@application-controller</t>
+  </si>
+  <si>
+    <t>CWE-287</t>
+  </si>
+  <si>
+    <t>Missing Identity Store</t>
+  </si>
+  <si>
+    <t>Missing Identity Store in the threat model (referencing asset User CLI as an example)</t>
+  </si>
+  <si>
+    <t>Identity Store</t>
+  </si>
+  <si>
+    <t>Include an identity store in the model if the application has a login.</t>
+  </si>
+  <si>
+    <t>missing-identity-store@user-cli</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect API Server against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@api-server</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect User CLI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@user-cli</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect Web UI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@web-ui</t>
+  </si>
+  <si>
+    <t>Business Side</t>
+  </si>
+  <si>
+    <t>CWE-308</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication (2FA)</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
+  </si>
+  <si>
+    <t>Authentication with Second Factor (2FA)</t>
+  </si>
+  <si>
+    <t>Apply an authentication method to the technical asset protecting highly sensitive data via two-factor authentication for human users.</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argo CD does not yet support 2FA for API actions. It has been requested, specifically when users attempt sensitive API calls.
+Argo CD does support OIDC providers which may require 2FA for login.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/argoproj/argo-cd/issues/10232</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;make-requests-to-api-server@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Get App Code from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;get-app-code@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>2FA does not make sense when fetching the app code, since Argo CD app code is public.</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Internal Source Control Management API</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage) in the threat model (referencing asset Internal Source Control Management API as an example)</t>
+  </si>
+  <si>
+    <t>Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
+  </si>
+  <si>
+    <t>Is a Vault (Secret Storage) in place?</t>
+  </si>
+  <si>
+    <t>missing-vault@internal-source-control-management-api</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at API Server</t>
+  </si>
+  <si>
+    <t>Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Consider placing a Web Application Firewall (WAF) in front of the web-services and/or web-applications. For cloud environments many cloud providers offer pre-configured WAFs. Even reverse proxies can be enhances by a WAF component via ModSecurity plugins.</t>
+  </si>
+  <si>
+    <t>Is a Web Application Firewall (WAF) in place?</t>
+  </si>
+  <si>
+    <t>missing-waf@api-server</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-waf@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Missing Web Application Firewall (WAF) risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-waf@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@argo-cd-build-pipeline</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@argo-cd-source-repo</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Docker Hub</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@docker-hub</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at Quay</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@quay</t>
+  </si>
+  <si>
+    <t>CWE-311</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Assets</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named Repo Server Storage missing enduser-individual encryption with data-with-enduser-individual-key</t>
+  </si>
+  <si>
+    <t>Encryption of Technical Asset</t>
+  </si>
+  <si>
+    <t>Apply encryption to the technical asset.</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@repo-server-storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Argo CD repo-server does not encrypt resources at rest on the disk cache.
+The cache should not contain any secrets. The cache holds the contents of git and Helm repositories, which are not designed for storing secrets. Users may choose to store secrets on the repo-server (for example, when using a  plugin that injects secrets into manifests). Those users should consider adding encryption to their plugins.
+All users should consider Kubernetes- and cloud provider-level encryption for storage used by Argo CD.
+</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to User CLI</t>
+  </si>
+  <si>
+    <t>Attack Surface Reduction</t>
+  </si>
+  <si>
+    <t>Try to avoid sending or receiving sensitive data assets which are not required (i.e. neither processed or stored) by the involved technical asset.</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@user-provided-secret@api-server@user-cli</t>
+  </si>
+  <si>
+    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to Web UI</t>
+  </si>
+  <si>
+    <t>unnecessary-data-transfer@user-provided-secret@api-server@web-ui</t>
+  </si>
+  <si>
+    <t>CWE-434</t>
+  </si>
+  <si>
+    <t>Missing File Validation</t>
+  </si>
+  <si>
+    <t>Missing File Validation risk at Repo Server</t>
+  </si>
+  <si>
+    <t>File Validation</t>
+  </si>
+  <si>
+    <t>Filter by file extension and discard (if feasible) the name provided. Whitelist the accepted file types and determine the mime-type on the server-side (for example via "Apache Tika" or similar checks). If the file is retrievable by endusers and/or backoffice employees, consider performing scans for popular malware (if the files can be retrieved much later than they were uploaded, also apply a fresh malware scan during retrieval to scan with newer signatures of popular malware). Also enforce limits on maximum file size to avoid denial-of-service like scenarios.</t>
+  </si>
+  <si>
+    <t>missing-file-validation@repo-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Argo CD repo server accepts files from a number of sources. First, it accepts files from Git and Helm  repositories. Second, it accepts files from users via the API when they do "local syncs" or "local diffs". 
+The repo server has several lines of defense against invalid file inputs. 
+1) Some storage mechanisms limit file size by default (for example git, unless LFS is enabled).
+2) The repo-server enforces a secondary, user-configured file size limit for directory-type apps (since
+   those files are read directly into memory).
+3) The repo-server relies on configuration management tools (Helm, Kustomize, jsonnet) to only accept valid input.
+4) The repo-server, by default, disallows symlink files which exit the repository boundaries.
+</t>
+  </si>
+  <si>
     <t>CWE-22</t>
   </si>
   <si>
@@ -445,715 +1139,18 @@
     <t>path-traversal@repo-server@repo-server-storage@repo-server&gt;store-cached-manifest-sources</t>
   </si>
   <si>
-    <t>CWE-918</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF)</t>
-  </si>
-  <si>
-    <t>Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>SSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Get App Code</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;get-app-code</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
-  </si>
-  <si>
-    <t>Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
-  </si>
-  <si>
-    <t>Update RBAC Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
-  </si>
-  <si>
-    <t>Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
-  </si>
-  <si>
-    <t>Export Database</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
-  </si>
-  <si>
-    <t>Application Controller</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
-  </si>
-  <si>
-    <t>ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Git Generator Pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Pull Source</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Argo CD Source Repo (GitHub) via Pull Source</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Push Image to Quay</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
-  </si>
-  <si>
-    <t>Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
-  </si>
-  <si>
-    <t>Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;make-requests-to-api-server</t>
-  </si>
-  <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@docker-hub</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Quay</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@quay</t>
-  </si>
-  <si>
-    <t>CWE-912</t>
-  </si>
-  <si>
-    <t>Code Backdooring</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>code-backdooring@docker-hub</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Quay</t>
-  </si>
-  <si>
-    <t>code-backdooring@quay</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at API Server</t>
-  </si>
-  <si>
-    <t>Container Infrastructure Hardening</t>
-  </si>
-  <si>
-    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@api-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Application Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@application-controller</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@applicationset-controller</t>
-  </si>
-  <si>
-    <t>External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@dex-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Repo Server Storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server-storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server</t>
-  </si>
-  <si>
-    <t>CWE-1127</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
-  </si>
-  <si>
-    <t>Include the build infrastructure in the model.</t>
-  </si>
-  <si>
-    <t>missing-build-infrastructure@application-controller</t>
-  </si>
-  <si>
-    <t>CWE-287</t>
-  </si>
-  <si>
-    <t>Missing Identity Store</t>
-  </si>
-  <si>
-    <t>Missing Identity Store in the threat model (referencing asset User CLI as an example)</t>
-  </si>
-  <si>
-    <t>Identity Store</t>
-  </si>
-  <si>
-    <t>Include an identity store in the model if the application has a login.</t>
-  </si>
-  <si>
-    <t>missing-identity-store@user-cli</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect API Server against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@api-server</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect User CLI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@user-cli</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect Web UI against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@web-ui</t>
-  </si>
-  <si>
-    <t>Business Side</t>
-  </si>
-  <si>
-    <t>CWE-308</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication (2FA)</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Get App Code from Web UI to API Server</t>
-  </si>
-  <si>
-    <t>Authentication with Second Factor (2FA)</t>
-  </si>
-  <si>
-    <t>Apply an authentication method to the technical asset protecting highly sensitive data via two-factor authentication for human users.</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@web-ui&gt;get-app-code@web-ui@api-server</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from Web UI to API Server</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@web-ui&gt;make-requests-to-api-server@web-ui@api-server</t>
-  </si>
-  <si>
-    <t>CWE-522</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Internal Source Control Management API</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage) in the threat model (referencing asset Internal Source Control Management API as an example)</t>
-  </si>
-  <si>
-    <t>Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
-  </si>
-  <si>
-    <t>Is a Vault (Secret Storage) in place?</t>
-  </si>
-  <si>
-    <t>missing-vault@internal-source-control-management-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at API Server</t>
-  </si>
-  <si>
-    <t>Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Consider placing a Web Application Firewall (WAF) in front of the web-services and/or web-applications. For cloud environments many cloud providers offer pre-configured WAFs. Even reverse proxies can be enhances by a WAF component via ModSecurity plugins.</t>
-  </si>
-  <si>
-    <t>Is a Web Application Firewall (WAF) in place?</t>
-  </si>
-  <si>
-    <t>missing-waf@api-server</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-waf@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Missing Web Application Firewall (WAF) risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-waf@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@docker-hub</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at Quay</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@quay</t>
-  </si>
-  <si>
-    <t>CWE-311</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Assets</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named Repo Server Storage missing enduser-individual encryption with data-with-enduser-individual-key</t>
-  </si>
-  <si>
-    <t>Encryption of Technical Asset</t>
-  </si>
-  <si>
-    <t>Apply encryption to the technical asset.</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@repo-server-storage</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD Container Image Tag data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>Attack Surface Reduction</t>
-  </si>
-  <si>
-    <t>Try to avoid sending or receiving sensitive data assets which are not required (i.e. neither processed or stored) by the involved technical asset.</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argo-cd-container-image-tag@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD Database Export data at User CLI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argocd-db-export@user-cli@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD GitHub Push Token data at Argo CD Source Repo (GitHub) from/to Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argo-cd-github-push-token@argo-cd-source-repo@argo-cd-maintainer-git-client</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD RBAC Config data at Host Cluster Kubernetes API from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@argo-cd-rbac-config@host-cluster-kubernetes-api@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to User CLI</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@user-provided-secret@api-server@user-cli</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Argo CD User Provided Secret data at API Server from/to Web UI</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@user-provided-secret@api-server@web-ui</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Bundled UI Code data at API Server from/to Web UI</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@bundled-ui-code@api-server@web-ui</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Bundled UI Code data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@bundled-ui-code@web-ui@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Manifest Sources data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@manifest-sources@web-ui@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of OIDC Client Secret data at Host Cluster Kubernetes API from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@oidc-client-secret@host-cluster-kubernetes-api@api-server</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of OIDC Configuration data at Host Cluster Kubernetes API from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@oidc-configuration@host-cluster-kubernetes-api@api-server</t>
-  </si>
-  <si>
-    <t>CWE-434</t>
-  </si>
-  <si>
-    <t>Missing File Validation</t>
-  </si>
-  <si>
-    <t>Missing File Validation risk at Repo Server</t>
-  </si>
-  <si>
-    <t>File Validation</t>
-  </si>
-  <si>
-    <t>Filter by file extension and discard (if feasible) the name provided. Whitelist the accepted file types and determine the mime-type on the server-side (for example via "Apache Tika" or similar checks). If the file is retrievable by endusers and/or backoffice employees, consider performing scans for popular malware (if the files can be retrieved much later than they were uploaded, also apply a fresh malware scan during retrieval to scan with newer signatures of popular malware). Also enforce limits on maximum file size to avoid denial-of-service like scenarios.</t>
-  </si>
-  <si>
-    <t>missing-file-validation@repo-server</t>
-  </si>
-  <si>
-    <t>Mitigated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Argo CD repo server accepts files from a number of sources. First, it accepts files from Git and Helm  repositories. Second, it accepts files from users via the API when they do "local syncs" or "local diffs". 
-The repo server has several lines of defense against invalid file inputs.  1) Some storage mechanisms limit file size by default (for example git, unless LFS is enabled). 2) The repo-server enforces a secondary, user-configured file size limit for directory-type apps (since
-   those files are read directly into memory).
-3) The repo-server relies on configuration management tools (Helm, Kustomize, jsonnet) to only accept valid input. 4) The repo-server, by default, disallows symlink files which exit the repository boundaries.
+    <t xml:space="preserve">The repo server maintains a cache of git and Helm repo contents. The cache should not contain secrets, but it might contain otherwise-sensitive information. If multiple tenants use the same Argo CD instance, an attacker from one tenant may try to access the manifests owned by another tenant.
+The repo server component has suffered from a variety of path traversal and symlink following bugs. In response, we have built strong safeguards against these attacks.
+1) Symlinks exiting the repository bounds are blocked by default.
+2) All user path inputs are run through a standard path traversal detection library. That library has good unit  test coverage.
+3) The config management tools (Helm, Jsonnet, Kustomize) have built-in path traversal prevention mechanisms.
+4) Cache directories have random names (cryptographically-secure random UUIDs). The directories' permissions are locked down when the directories are not actively in use. This makes many traversal attacks impractical.
+Previously discovered and resolved path traversal and symlink following bugs include the following:
+* Symlink following allows leaking out-of-bounds YAML files from Argo CD repo-server - https://github.com/argoproj/argo-cd/security/advisories/GHSA-q4w5-4gq2-98vm
+* Symlink following allows leaking out-of-bound manifests and JSON files from Argo CD repo-server - https://github.com/argoproj/argo-cd/security/advisories/GHSA-6gcg-hp2x-q54h
+* Path traversal and improper access control allows leaking out-of-bound files from Argo CD repo-server - https://github.com/argoproj/argo-cd/security/advisories/GHSA-r9cr-hvjj-496v
+* Path traversal allows leaking out-of-bound files from Argo CD repo-server - https://github.com/argoproj/argo-cd/security/advisories/GHSA-h6h5-6fmq-rh28
+* Path traversal and dereference of symlinks when passing Helm value files - https://github.com/argoproj/argo-cd/security/advisories/GHSA-63qx-x74g-jcr7
 </t>
   </si>
 </sst>
@@ -2127,7 +2124,7 @@
         <v>49</v>
       </c>
       <c r="J8" s="19">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>57</v>
@@ -2405,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="J13" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>84</v>
@@ -2977,7 +2974,7 @@
         <v>49</v>
       </c>
       <c r="J23" s="19">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>121</v>
@@ -3031,7 +3028,7 @@
         <v>49</v>
       </c>
       <c r="J24" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>124</v>
@@ -3061,46 +3058,46 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="19">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="K25" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -3115,46 +3112,46 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="19">
+        <v>32</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="N26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="19">
-        <v>39</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>34</v>
@@ -3175,40 +3172,40 @@
         <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J27" s="19">
         <v>100</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3229,16 +3226,16 @@
         <v>22</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>56</v>
@@ -3247,22 +3244,22 @@
         <v>28</v>
       </c>
       <c r="J28" s="19">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3283,40 +3280,40 @@
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J29" s="19">
         <v>100</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3337,40 +3334,40 @@
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J30" s="19">
         <v>100</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3391,40 +3388,40 @@
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J31" s="19">
         <v>100</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3445,40 +3442,40 @@
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J32" s="19">
         <v>100</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3499,40 +3496,40 @@
         <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J33" s="19">
         <v>100</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3553,16 +3550,16 @@
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>27</v>
@@ -3574,19 +3571,19 @@
         <v>100</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3607,16 +3604,16 @@
         <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>27</v>
@@ -3628,19 +3625,19 @@
         <v>100</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3661,16 +3658,16 @@
         <v>22</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>27</v>
@@ -3682,19 +3679,19 @@
         <v>100</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3715,40 +3712,40 @@
         <v>22</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J37" s="19">
         <v>100</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3769,40 +3766,40 @@
         <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J38" s="19">
         <v>39</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -3823,40 +3820,40 @@
         <v>22</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J39" s="19">
         <v>39</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -3877,19 +3874,19 @@
         <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>89</v>
@@ -3898,19 +3895,19 @@
         <v>39</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -3931,19 +3928,19 @@
         <v>22</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>79</v>
@@ -3952,19 +3949,19 @@
         <v>39</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>34</v>
@@ -3985,40 +3982,40 @@
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J42" s="19">
         <v>48</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -4039,40 +4036,40 @@
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J43" s="19">
         <v>48</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -4093,19 +4090,19 @@
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>89</v>
@@ -4114,19 +4111,19 @@
         <v>48</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>34</v>
@@ -4147,40 +4144,40 @@
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="19">
+        <v>28</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J45" s="19">
-        <v>29</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L45" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M45" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4201,40 +4198,40 @@
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="19">
+        <v>28</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="N46" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J46" s="19">
-        <v>29</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M46" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="N46" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>196</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4255,40 +4252,40 @@
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J47" s="19">
+        <v>8</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J47" s="19">
-        <v>29</v>
-      </c>
-      <c r="K47" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="L47" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M47" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4309,40 +4306,40 @@
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" s="19">
+        <v>32</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M48" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J48" s="19">
-        <v>8</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M48" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4363,40 +4360,40 @@
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J49" s="19">
+        <v>39</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J49" s="19">
-        <v>32</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4417,40 +4414,40 @@
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J50" s="19">
         <v>39</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4471,40 +4468,40 @@
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="J51" s="19">
         <v>39</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4525,40 +4522,40 @@
         <v>22</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J52" s="19">
         <v>39</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4579,40 +4576,40 @@
         <v>22</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="19">
+        <v>57</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="19">
-        <v>39</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M53" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>34</v>
@@ -4633,19 +4630,19 @@
         <v>22</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>36</v>
@@ -4654,19 +4651,19 @@
         <v>56</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>34</v>
@@ -4677,58 +4674,66 @@
       <c r="T54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="C55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" s="19">
+        <v>28</v>
+      </c>
+      <c r="K55" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="19">
-        <v>53</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M55" s="23" t="s">
-        <v>144</v>
-      </c>
       <c r="N55" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="P55" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q55" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="R55" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S55" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
@@ -4747,34 +4752,34 @@
         <v>64</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="I56" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J56" s="19">
+        <v>30</v>
+      </c>
+      <c r="K56" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="L56" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J56" s="19">
-        <v>12</v>
-      </c>
-      <c r="K56" s="20" t="s">
+      <c r="M56" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="N56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="M56" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="N56" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>227</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>34</v>
@@ -4801,10 +4806,10 @@
         <v>64</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>75</v>
@@ -4816,19 +4821,19 @@
         <v>12</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>34</v>
@@ -4855,34 +4860,34 @@
         <v>64</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J58" s="19">
         <v>30</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P58" s="11" t="s">
         <v>34</v>
@@ -4903,40 +4908,40 @@
         <v>45</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J59" s="19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K59" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M59" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="L59" s="23" t="s">
+      <c r="N59" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="M59" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="N59" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>237</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>34</v>
@@ -4957,16 +4962,16 @@
         <v>45</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>75</v>
@@ -4978,19 +4983,19 @@
         <v>12</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>34</v>
@@ -5011,16 +5016,16 @@
         <v>45</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>88</v>
@@ -5032,19 +5037,19 @@
         <v>30</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>34</v>
@@ -5071,34 +5076,34 @@
         <v>103</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J62" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K62" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M62" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="L62" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="M62" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="N62" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>34</v>
@@ -5125,34 +5130,34 @@
         <v>103</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J63" s="19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N63" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>34</v>
@@ -5179,10 +5184,10 @@
         <v>103</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>75</v>
@@ -5194,19 +5199,19 @@
         <v>12</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N64" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>34</v>
@@ -5233,10 +5238,10 @@
         <v>103</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>88</v>
@@ -5248,19 +5253,19 @@
         <v>30</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>34</v>
@@ -5287,10 +5292,10 @@
         <v>103</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>27</v>
@@ -5302,19 +5307,19 @@
         <v>100</v>
       </c>
       <c r="K66" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="L66" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M66" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="L66" s="23" t="s">
+      <c r="N66" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M66" s="23" t="s">
+      <c r="O66" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>34</v>
@@ -5341,13 +5346,13 @@
         <v>103</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>49</v>
@@ -5356,19 +5361,19 @@
         <v>39</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L67" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N67" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M67" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O67" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5395,13 +5400,13 @@
         <v>103</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>49</v>
@@ -5410,19 +5415,19 @@
         <v>48</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L68" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N68" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M68" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O68" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5449,13 +5454,13 @@
         <v>103</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>49</v>
@@ -5464,19 +5469,19 @@
         <v>24</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L69" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N69" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M69" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N69" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O69" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5503,10 +5508,10 @@
         <v>103</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>120</v>
@@ -5515,22 +5520,22 @@
         <v>49</v>
       </c>
       <c r="J70" s="19">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L70" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N70" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M70" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O70" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>34</v>
@@ -5557,10 +5562,10 @@
         <v>103</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>41</v>
@@ -5572,19 +5577,19 @@
         <v>32</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L71" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N71" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M71" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O71" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>34</v>
@@ -5611,10 +5616,10 @@
         <v>103</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>82</v>
@@ -5623,22 +5628,22 @@
         <v>49</v>
       </c>
       <c r="J72" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L72" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N72" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M72" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N72" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O72" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>34</v>
@@ -5665,13 +5670,13 @@
         <v>103</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>49</v>
@@ -5680,19 +5685,19 @@
         <v>18</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L73" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N73" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M73" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N73" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O73" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>34</v>
@@ -5719,10 +5724,10 @@
         <v>103</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>67</v>
@@ -5734,19 +5739,19 @@
         <v>39</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L74" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M74" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="N74" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M74" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="N74" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="O74" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>34</v>
@@ -5773,13 +5778,13 @@
         <v>64</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>49</v>
@@ -5788,19 +5793,19 @@
         <v>39</v>
       </c>
       <c r="K75" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="L75" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="N75" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" s="21" t="s">
-        <v>281</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>34</v>
@@ -5827,10 +5832,10 @@
         <v>64</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>123</v>
@@ -5839,22 +5844,22 @@
         <v>49</v>
       </c>
       <c r="J76" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K76" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="M76" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="L76" s="23" t="s">
+      <c r="N76" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="M76" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="N76" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O76" s="21" t="s">
-        <v>287</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -5884,7 +5889,7 @@
         <v>104</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>27</v>
@@ -5896,19 +5901,19 @@
         <v>100</v>
       </c>
       <c r="K77" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="21" t="s">
         <v>289</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M77" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="N77" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="21" t="s">
-        <v>291</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -5938,7 +5943,7 @@
         <v>104</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>123</v>
@@ -5947,22 +5952,22 @@
         <v>49</v>
       </c>
       <c r="J78" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N78" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -5992,7 +5997,7 @@
         <v>104</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>56</v>
@@ -6001,22 +6006,22 @@
         <v>49</v>
       </c>
       <c r="J79" s="19">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N79" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -6040,45 +6045,53 @@
         <v>63</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J80" s="19">
         <v>100</v>
       </c>
       <c r="K80" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M80" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="L80" s="23" t="s">
+      <c r="N80" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="M80" s="23" t="s">
+      <c r="P80" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="N80" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80" s="21" t="s">
+      <c r="Q80" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="P80" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="17"/>
+      <c r="R80" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S80" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T80" s="17" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
@@ -6094,13 +6107,13 @@
         <v>63</v>
       </c>
       <c r="E81" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>27</v>
@@ -6112,81 +6125,97 @@
         <v>100</v>
       </c>
       <c r="K81" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="L81" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="P81" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q81" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="R81" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S81" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T81" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="L81" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="M81" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="N81" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O81" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="P81" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="C82" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>36</v>
+      <c r="I82" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J82" s="19">
         <v>100</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N82" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="P82" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="17"/>
+        <v>307</v>
+      </c>
+      <c r="P82" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q82" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="R82" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S82" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T82" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
@@ -6199,19 +6228,19 @@
         <v>22</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>49</v>
@@ -6220,19 +6249,19 @@
         <v>1</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>34</v>
@@ -6262,7 +6291,7 @@
         <v>104</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>27</v>
@@ -6274,19 +6303,19 @@
         <v>100</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>34</v>
@@ -6316,10 +6345,10 @@
         <v>104</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>49</v>
@@ -6328,19 +6357,19 @@
         <v>24</v>
       </c>
       <c r="K85" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L85" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N85" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="L85" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="N85" s="23" t="s">
-        <v>319</v>
-      </c>
       <c r="O85" s="21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>34</v>
@@ -6370,7 +6399,7 @@
         <v>104</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>120</v>
@@ -6379,22 +6408,22 @@
         <v>49</v>
       </c>
       <c r="J86" s="19">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>34</v>
@@ -6421,34 +6450,34 @@
         <v>64</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J87" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N87" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>34</v>
@@ -6460,13 +6489,13 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>46</v>
@@ -6475,34 +6504,34 @@
         <v>64</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J88" s="19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N88" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>34</v>
@@ -6514,13 +6543,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>46</v>
@@ -6529,10 +6558,10 @@
         <v>64</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>75</v>
@@ -6544,19 +6573,19 @@
         <v>12</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>34</v>
@@ -6568,13 +6597,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>46</v>
@@ -6583,10 +6612,10 @@
         <v>64</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>88</v>
@@ -6598,19 +6627,19 @@
         <v>30</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N90" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P90" s="11" t="s">
         <v>34</v>
@@ -6631,19 +6660,19 @@
         <v>45</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>49</v>
@@ -6652,27 +6681,35 @@
         <v>18</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N91" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="P91" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="17"/>
+        <v>343</v>
+      </c>
+      <c r="P91" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q91" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="R91" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S91" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T91" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="8" t="s">
@@ -6694,31 +6731,31 @@
         <v>104</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J92" s="19">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N92" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P92" s="11" t="s">
         <v>34</v>
@@ -6748,31 +6785,31 @@
         <v>104</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J93" s="19">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K93" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="L93" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="L93" s="23" t="s">
-        <v>344</v>
-      </c>
       <c r="M93" s="23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N93" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>34</v>
@@ -6783,550 +6820,126 @@
       <c r="T93" s="17"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I94" s="7" t="s">
+      <c r="A94" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J94" s="19">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N94" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="P94" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="17"/>
+        <v>357</v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q94" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="R94" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S94" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T94" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>49</v>
+      <c r="A95" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="J95" s="19">
+        <v>39</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="M95" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="P95" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q95" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="R95" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="S95" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K95" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="L95" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M95" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N95" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O95" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="P95" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="17"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J96" s="19">
-        <v>100</v>
-      </c>
-      <c r="K96" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="L96" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M96" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N96" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O96" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="P96" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="17"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J97" s="19">
-        <v>100</v>
-      </c>
-      <c r="K97" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="L97" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M97" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N97" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O97" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="P97" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="17"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J98" s="19">
-        <v>100</v>
-      </c>
-      <c r="K98" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="L98" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M98" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N98" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O98" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="P98" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="17"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J99" s="19">
-        <v>53</v>
-      </c>
-      <c r="K99" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="L99" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M99" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N99" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O99" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="P99" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="17"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J100" s="19">
-        <v>53</v>
-      </c>
-      <c r="K100" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="L100" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M100" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N100" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O100" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="P100" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="17"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J101" s="19">
-        <v>62</v>
-      </c>
-      <c r="K101" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="L101" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M101" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N101" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O101" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="P101" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="17"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J102" s="19">
-        <v>62</v>
-      </c>
-      <c r="K102" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="L102" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="M102" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="N102" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O102" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="P102" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="17"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="H103" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J103" s="19">
-        <v>39</v>
-      </c>
-      <c r="K103" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="L103" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="M103" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="N103" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O103" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="P103" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q103" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="R103" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="S103" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T103" s="17" t="s">
+      <c r="T95" s="17" t="s">
         <v>49</v>
       </c>
     </row>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>Severity</t>
   </si>
@@ -232,10 +232,10 @@
     <t>Repo Server</t>
   </si>
   <si>
-    <t>Fetching Rendered Manifests from Cache</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Fetching Rendered Manifests from Cache from API Server to Repo Server</t>
+    <t>Fetching Rendered Manifests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Fetching Rendered Manifests from API Server to Repo Server</t>
   </si>
   <si>
     <t>Authentication of Incoming Requests</t>
@@ -244,7 +244,7 @@
     <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
   </si>
   <si>
-    <t>missing-authentication@api-server&gt;fetching-rendered-manifests-from-cache@api-server@repo-server</t>
+    <t>missing-authentication@api-server&gt;fetching-rendered-manifests@api-server@repo-server</t>
   </si>
   <si>
     <t>Missing Authentication covering communication link Get App Code from Web UI to API Server</t>
@@ -253,6 +253,24 @@
     <t>missing-authentication@web-ui&gt;get-app-code@web-ui@api-server</t>
   </si>
   <si>
+    <t>Quay</t>
+  </si>
+  <si>
+    <t>Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Argo CD Image from ApplicationSet Controller to Quay</t>
+  </si>
+  <si>
+    <t>missing-authentication@applicationset-controller&gt;pull-argo-cd-image@applicationset-controller@quay</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Pull Argo CD Image from Repo Server to Quay</t>
+  </si>
+  <si>
+    <t>missing-authentication@repo-server&gt;pull-argo-cd-image@repo-server@quay</t>
+  </si>
+  <si>
     <t>Docker Hub</t>
   </si>
   <si>
@@ -292,214 +310,247 @@
     <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
   </si>
   <si>
-    <t>Quay</t>
-  </si>
-  <si>
-    <t>Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from API Server to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;pull-argo-cd-image@api-server@quay</t>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>CWE-1008</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening risk at Build Time Boundary</t>
+  </si>
+  <si>
+    <t>Cloud Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all cloud components and services, taking special care to follow the individual risk descriptions (which depend on the cloud provider tags in the model). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Amazon Web Services (AWS)&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Amazon Web Services&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"PacBot", "CloudSploit", "CloudMapper", "ScoutSuite", or "Prowler AWS CIS Benchmark Tool"&lt;/i&gt;). &lt;br&gt;For EC2 and other servers running Amazon Linux, follow the &lt;i&gt;CIS Benchmark for Amazon Linux&lt;/i&gt; and switch to IMDSv2. &lt;br&gt;For S3 buckets follow the &lt;i&gt;Security Best Practices for Amazon S3&lt;/i&gt; at &lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html&lt;/a&gt; to avoid accidental leakage. &lt;br&gt;Also take a look at some of these tools: &lt;a href="https://github.com/toniblyx/my-arsenal-of-aws-security-tools"&gt;https://github.com/toniblyx/my-arsenal-of-aws-security-tools&lt;/a&gt; &lt;br&gt;&lt;br&gt;For &lt;b&gt;Microsoft Azure&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Microsoft Azure&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;).&lt;br&gt;&lt;br&gt;For &lt;b&gt;Google Cloud Platform&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Google Cloud Computing Platform&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Oracle Cloud Platform&lt;/b&gt;: Follow the hardening best practices (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit"&lt;/i&gt;).</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@buildtime-boundary</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening risk at External Services</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@external-services-boundary</t>
+  </si>
+  <si>
+    <t>Missing Cloud Hardening risk at Organization Network</t>
+  </si>
+  <si>
+    <t>missing-cloud-hardening@organization-network</t>
+  </si>
+  <si>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at API Server</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@api-server</t>
+  </si>
+  <si>
+    <t>Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>missing-hardening@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>User CLI</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at User CLI</t>
+  </si>
+  <si>
+    <t>missing-hardening@user-cli</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at Web UI</t>
+  </si>
+  <si>
+    <t>missing-hardening@web-ui</t>
+  </si>
+  <si>
+    <t>Missing Identity Provider Isolation</t>
+  </si>
+  <si>
+    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Proxy (Dex) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive identity provider assets and their identity datastores.</t>
+  </si>
+  <si>
+    <t>missing-identity-provider-isolation@dex-server</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-918</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Get App Code</t>
+  </si>
+  <si>
+    <t>SSRF Prevention</t>
+  </si>
+  <si>
+    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;get-app-code</t>
+  </si>
+  <si>
+    <t>Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
   </si>
   <si>
     <t>False Positive</t>
   </si>
   <si>
-    <t>The Argo CD image is public. There is no need to authenticate to Quay.</t>
-  </si>
-  <si>
-    <t>2022-11-17</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from Application Controller to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@application-controller&gt;pull-argo-cd-image@application-controller@quay</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from ApplicationSet Controller to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@applicationset-controller&gt;pull-argo-cd-image@applicationset-controller@quay</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from Repo Server to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@repo-server&gt;pull-argo-cd-image@repo-server@quay</t>
-  </si>
-  <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>CWE-1008</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening risk at Build Time Boundary</t>
-  </si>
-  <si>
-    <t>Cloud Hardening</t>
-  </si>
-  <si>
-    <t>Apply hardening of all cloud components and services, taking special care to follow the individual risk descriptions (which depend on the cloud provider tags in the model). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Amazon Web Services (AWS)&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Amazon Web Services&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"PacBot", "CloudSploit", "CloudMapper", "ScoutSuite", or "Prowler AWS CIS Benchmark Tool"&lt;/i&gt;). &lt;br&gt;For EC2 and other servers running Amazon Linux, follow the &lt;i&gt;CIS Benchmark for Amazon Linux&lt;/i&gt; and switch to IMDSv2. &lt;br&gt;For S3 buckets follow the &lt;i&gt;Security Best Practices for Amazon S3&lt;/i&gt; at &lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/security-best-practices.html&lt;/a&gt; to avoid accidental leakage. &lt;br&gt;Also take a look at some of these tools: &lt;a href="https://github.com/toniblyx/my-arsenal-of-aws-security-tools"&gt;https://github.com/toniblyx/my-arsenal-of-aws-security-tools&lt;/a&gt; &lt;br&gt;&lt;br&gt;For &lt;b&gt;Microsoft Azure&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Microsoft Azure&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;).&lt;br&gt;&lt;br&gt;For &lt;b&gt;Google Cloud Platform&lt;/b&gt;: Follow the &lt;i&gt;CIS Benchmark for Google Cloud Computing Platform&lt;/i&gt; (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit" or "ScoutSuite"&lt;/i&gt;). &lt;br&gt;&lt;br&gt;For &lt;b&gt;Oracle Cloud Platform&lt;/b&gt;: Follow the hardening best practices (see also the automated checks of cloud audit tools like &lt;i&gt;"CloudSploit"&lt;/i&gt;).</t>
-  </si>
-  <si>
-    <t>missing-cloud-hardening@buildtime-boundary</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening risk at External Services</t>
-  </si>
-  <si>
-    <t>missing-cloud-hardening@external-services-boundary</t>
-  </si>
-  <si>
-    <t>Missing Cloud Hardening risk at Organization Network</t>
-  </si>
-  <si>
-    <t>missing-cloud-hardening@organization-network</t>
-  </si>
-  <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at API Server</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@api-server</t>
-  </si>
-  <si>
-    <t>Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>missing-hardening@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>User CLI</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at User CLI</t>
-  </si>
-  <si>
-    <t>missing-hardening@user-cli</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at Web UI</t>
-  </si>
-  <si>
-    <t>missing-hardening@web-ui</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation</t>
-  </si>
-  <si>
-    <t>Missing Identity Provider Isolation to further encapsulate and protect identity-related asset OIDC Proxy (Dex) against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive identity provider assets and their identity datastores.</t>
-  </si>
-  <si>
-    <t>missing-identity-provider-isolation@dex-server</t>
-  </si>
-  <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
-    <t>CWE-918</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF)</t>
-  </si>
-  <si>
-    <t>Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Provider (External) via Validate External OIDC Token</t>
-  </si>
-  <si>
-    <t>SSRF Prevention</t>
-  </si>
-  <si>
-    <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@oidc-provider@api-server&gt;validate-external-oidc-token</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Get App Code</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;get-app-code</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
-  </si>
-  <si>
-    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
-  </si>
-  <si>
-    <t>Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
-  </si>
-  <si>
-    <t>Update RBAC Config</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
-  </si>
-  <si>
-    <t>Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
+    <t xml:space="preserve">There is a request to get 3rd party public OIDC keys. The request URL comes from an ArgoCD configmap  so there is no risk of SSRF. It is also the responsibility of the OIDC provider to ensure that SSRF dose not  affect them.
+</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>Zach Aller</t>
+  </si>
+  <si>
+    <t>ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
+  </si>
+  <si>
+    <t>Push Image to Quay</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
+  </si>
+  <si>
+    <t>Argo CD Maintainer Git Client</t>
+  </si>
+  <si>
+    <t>Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
+  </si>
+  <si>
+    <t>Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
+  </si>
+  <si>
+    <t>Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Make Requests to API Server</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;make-requests-to-api-server</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is potential for SSRF in the repo-server. The repo-server is responsible for fetching manifests from git and running a plugin to render the manifests. The plugins themself support fetching remote resources, such as Kustomizes remote bases and Helms remote dependencies.
+There is work in progress to mitigate this issue more by moving manifest generation outside of the repo-server, and into what we call a config management plugin. This plugin will be responsible for generating manifests for a specific plugin such as kustomize. This removes a risk because repo-server contains highly sensitive information and running various plugins within repo-server is a risk because we depend on the plugins to behave well. The config management  plugin will be run in a separate container/pod which adds a layer of isolation and removes plugins such as  helm/kustomize from the repo-server.
+</t>
   </si>
   <si>
     <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target OIDC Proxy (Dex) via Validate Dex OIDC Token</t>
@@ -508,163 +559,11 @@
     <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
   </si>
   <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@quay@api-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Repo Server via Fetching Rendered Manifests from Cache</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests-from-cache</t>
-  </si>
-  <si>
-    <t>Export Database</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
-  </si>
-  <si>
-    <t>Application Controller</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
-  </si>
-  <si>
-    <t>Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@quay@application-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
-  </si>
-  <si>
-    <t>ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
-  </si>
-  <si>
-    <t>Git Generator Pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@applicationset-controller@quay@applicationset-controller&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@docker-hub@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Push Image to Quay</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Quay via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-build-pipeline@quay@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>Argo CD Maintainer Git Client</t>
-  </si>
-  <si>
-    <t>Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Argo CD Maintainer Git Client server-side web-requesting the target Argo CD Source Repo (GitHub) via Push Code/Tags to GitHub</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@argo-cd-maintainer-git-client@argo-cd-source-repo@argo-cd-maintainer-git-client&gt;push-code-tags-to-github</t>
-  </si>
-  <si>
-    <t>Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at OIDC Proxy (Dex) server-side web-requesting the target OIDC Provider (External) via Proxying to an External OIDC Provider</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@dex-server@oidc-provider@dex-server&gt;proxying-to-an-external-oidc-provider</t>
-  </si>
-  <si>
-    <t>Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Host Cluster Kubernetes API via Get Repo Access Credentials</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@host-cluster-kubernetes-api@repo-server&gt;get-repo-access-credentials</t>
-  </si>
-  <si>
-    <t>Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Internal Source Control Management API via Fetch Manifest Sources</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@internal-source-control-management-api@repo-server&gt;fetch-manifest-sources</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Quay via Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@quay@repo-server&gt;pull-argo-cd-image</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Repo Server server-side web-requesting the target Rendered Manifests Cache (Redis) via Send/Receive Cached Rendered Manifests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@repo-server@rendered-manifests-cache@repo-server&gt;send-receive-cached-rendered-manifests</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at User CLI server-side web-requesting the target API Server via Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@user-cli@api-server@user-cli&gt;make-requests-to-api-server</t>
-  </si>
-  <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Web UI server-side web-requesting the target API Server via Make Requests to API Server</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@web-ui@api-server@web-ui&gt;make-requests-to-api-server</t>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a request to get the Dex public keys from the Dex server. The request URL comes from an ArgoCD configmap  so there is no risk of SSRF. Dex is also out of scope of components that are developed by ArgoCD maintainers.
+</t>
   </si>
   <si>
     <t>Pull Source</t>
@@ -674,16 +573,122 @@
   </si>
   <si>
     <t>server-side-request-forgery@argo-cd-build-pipeline@argo-cd-source-repo@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Mitigated</t>
   </si>
   <si>
     <t xml:space="preserve">The Argo CD build pipeline uses GitHub's checkout action to retrieve source code before building. The action accepts no input, and it should be impossible for a malicious actor (outside GitHub itself) to cause the checkout action to retrieve anything besides the Argo CD source code.
 </t>
   </si>
   <si>
-    <t>2022-11-19</t>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target External Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (External)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@external-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is outside the scope of ArgoCD security we do not control the Kubernetes API, we depend on Kubernetes to protect  against any SSRF. ArgoCD uses the Kubernetes client-go library to communicate with the Kubernetes API server.  As far as we know, the Kubernetes API dose not allow SSRF, because there is generally no passed in URLs to the  Kubernetes API server.
+</t>
+  </si>
+  <si>
+    <t>Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Get/Update/Delete Live Resource State from Kubernetes (Host)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;get-update-delete-live-resource-state-from-kubernetes-host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is outside the scope of ArgoCD security we do not control the Kubernetes API, we depend on Kubernetes to protect  against any SSRF. ArgoCD uses the Kubernetes client-go library to communicate with the Kubernetes API server.  As far as we know, the Kubernetes api dose not allow SSRF, because there is generally no passed in URLs to the  Kubernetes API server.
+</t>
+  </si>
+  <si>
+    <t>Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Cluster Access Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-cluster-access-config</t>
+  </si>
+  <si>
+    <t>Update RBAC Config</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update RBAC Config</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-rbac-config</t>
+  </si>
+  <si>
+    <t>Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target Host Cluster Kubernetes API via Update Repo Access Credentials</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@host-cluster-kubernetes-api@api-server&gt;update-repo-access-credentials</t>
+  </si>
+  <si>
+    <t>Export Database</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at API Server server-side web-requesting the target User CLI via Export Database</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@api-server@user-cli@api-server&gt;export-database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The export command dose not call any ArgoCD API's it talks directly to Kubernetes API and therefor is out of scope for SSRF.
+</t>
+  </si>
+  <si>
+    <t>Application Controller</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target External Cluster Kubernetes API via Reconcile Resource State (External Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@external-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-external-cluster</t>
+  </si>
+  <si>
+    <t>Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@host-cluster-kubernetes-api@applicationset-controller&gt;reconcile-resource-state-host-cluster</t>
+  </si>
+  <si>
+    <t>Git Generator Pull</t>
+  </si>
+  <si>
+    <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Internal Source Control Management API via Git Generator Pull</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@applicationset-controller@internal-source-control-management-api@applicationset-controller&gt;git-generator-pull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO
+</t>
   </si>
   <si>
     <t>CWE-501</t>
@@ -930,9 +935,6 @@
   </si>
   <si>
     <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
-  </si>
-  <si>
-    <t>Accepted</t>
   </si>
   <si>
     <t xml:space="preserve">Argo CD does not yet support 2FA for API actions. It has been requested, specifically when users attempt sensitive API calls.
@@ -1962,7 +1964,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>43</v>
@@ -2070,7 +2072,7 @@
         <v>49</v>
       </c>
       <c r="J7" s="19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>54</v>
@@ -2124,7 +2126,7 @@
         <v>49</v>
       </c>
       <c r="J8" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>57</v>
@@ -2186,7 +2188,7 @@
         <v>68</v>
       </c>
       <c r="J9" s="19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>69</v>
@@ -2294,7 +2296,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="19">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>77</v>
@@ -2342,16 +2344,16 @@
         <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="19">
+        <v>31</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="J12" s="19">
-        <v>39</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>80</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>70</v>
@@ -2363,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>34</v>
@@ -2396,16 +2398,16 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="19">
+        <v>12</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="J13" s="19">
-        <v>23</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>70</v>
@@ -2417,7 +2419,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>34</v>
@@ -2450,13 +2452,13 @@
         <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="J14" s="19">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>86</v>
@@ -2482,35 +2484,35 @@
       <c r="T14" s="17"/>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J15" s="19">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>90</v>
@@ -2527,55 +2529,47 @@
       <c r="O15" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="19">
+        <v>33</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="19">
-        <v>30</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>70</v>
@@ -2587,169 +2581,145 @@
         <v>32</v>
       </c>
       <c r="O16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R16" s="18" t="s">
+      <c r="F17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="S16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="19">
-        <v>30</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="C18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="21" t="s">
+      <c r="G18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>89</v>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J18" s="19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>49</v>
@@ -2761,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="K19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>34</v>
@@ -2788,46 +2758,46 @@
         <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="23" t="s">
-        <v>107</v>
-      </c>
       <c r="M20" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>34</v>
@@ -2842,46 +2812,46 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="19">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>34</v>
@@ -2905,37 +2875,37 @@
         <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="19">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M22" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>34</v>
@@ -2959,37 +2929,37 @@
         <v>46</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="19">
+        <v>57</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="19">
-        <v>66</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -3004,40 +2974,40 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="19">
+        <v>33</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="19">
-        <v>57</v>
-      </c>
-      <c r="K24" s="20" t="s">
+      <c r="M24" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>118</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
@@ -3064,40 +3034,40 @@
         <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J25" s="19">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -3108,38 +3078,38 @@
       <c r="T25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="B26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>49</v>
+      <c r="H26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="J26" s="19">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>130</v>
@@ -3151,61 +3121,69 @@
         <v>32</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>136</v>
+      <c r="F27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="J27" s="19">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3216,50 +3194,50 @@
       <c r="T27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="A28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>28</v>
+      <c r="F28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="J28" s="19">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3274,46 +3252,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J29" s="19">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3328,46 +3306,46 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J30" s="19">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3382,46 +3360,46 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J31" s="19">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3436,46 +3414,46 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J32" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3490,46 +3468,46 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J33" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3544,46 +3522,46 @@
         <v>22</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J34" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3598,46 +3576,46 @@
         <v>22</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J35" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3652,46 +3630,46 @@
         <v>22</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J36" s="19">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3706,46 +3684,46 @@
         <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="J37" s="19">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3760,802 +3738,914 @@
         <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="J38" s="19">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L38" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q38" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="R38" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="S38" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="N38" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="17"/>
+      <c r="T38" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="A39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>171</v>
+      <c r="F39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="J39" s="19">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L39" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q39" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="R39" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="S39" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="N39" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="21" t="s">
+      <c r="T39" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="19">
+        <v>29</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S40" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" s="19">
+        <v>100</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S41" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J42" s="19">
+        <v>100</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q42" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="R42" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S42" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="19">
+        <v>100</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q43" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R43" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S43" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J44" s="19">
+        <v>100</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q44" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S44" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="19">
+        <v>100</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R45" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J46" s="19">
+        <v>100</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q46" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="R46" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S46" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="19">
+        <v>38</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q47" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R47" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S47" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" s="19">
+        <v>38</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q48" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R48" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S48" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="19">
+        <v>38</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q49" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="P39" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="17"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="R49" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S49" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="19">
-        <v>39</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="L40" s="23" t="s">
+      <c r="F50" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="19">
+        <v>49</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R50" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="S50" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="N40" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="17"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="T50" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" s="19">
-        <v>39</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="L41" s="23" t="s">
+      <c r="F51" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J51" s="19">
+        <v>49</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q51" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="R51" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="S51" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="N41" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="17"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="T51" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="19">
-        <v>48</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="17"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="19">
-        <v>48</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="L43" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="17"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="19">
-        <v>48</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L44" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M44" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N44" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="17"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J45" s="19">
-        <v>28</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L45" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M45" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N45" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="17"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J46" s="19">
-        <v>28</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M46" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="17"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J47" s="19">
-        <v>8</v>
-      </c>
-      <c r="K47" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="L47" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M47" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N47" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="17"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J48" s="19">
-        <v>32</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M48" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N48" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="17"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J49" s="19">
-        <v>39</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M49" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="17"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="J50" s="19">
-        <v>39</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="L50" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N50" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="17"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J51" s="19">
-        <v>39</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="P51" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="17"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="J52" s="19">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4566,50 +4656,50 @@
       <c r="T52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>36</v>
+      <c r="A53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J53" s="19">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>34</v>
@@ -4620,50 +4710,50 @@
       <c r="T53" s="17"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>36</v>
+      <c r="A54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="J54" s="19">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>34</v>
@@ -4674,112 +4764,104 @@
       <c r="T54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>213</v>
+      <c r="A55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J55" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="N55" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="P55" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q55" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="R55" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="S55" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T55" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="17"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>213</v>
+      <c r="A56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J56" s="19">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>34</v>
@@ -4790,50 +4872,50 @@
       <c r="T56" s="17"/>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H57" s="5" t="s">
+      <c r="A57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>76</v>
+      <c r="I57" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J57" s="19">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>34</v>
@@ -4844,50 +4926,50 @@
       <c r="T57" s="17"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>189</v>
+      <c r="A58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J58" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="P58" s="11" t="s">
         <v>34</v>
@@ -4902,25 +4984,25 @@
         <v>22</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>49</v>
@@ -4929,19 +5011,19 @@
         <v>30</v>
       </c>
       <c r="K59" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="L59" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="L59" s="23" t="s">
-        <v>233</v>
-      </c>
       <c r="M59" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>34</v>
@@ -4956,25 +5038,25 @@
         <v>22</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>49</v>
@@ -4983,19 +5065,19 @@
         <v>12</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>34</v>
@@ -5010,46 +5092,46 @@
         <v>22</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J61" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>34</v>
@@ -5064,7 +5146,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>45</v>
@@ -5073,37 +5155,37 @@
         <v>46</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J62" s="19">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N62" s="23" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>34</v>
@@ -5118,7 +5200,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>45</v>
@@ -5127,37 +5209,37 @@
         <v>46</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J63" s="19">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>34</v>
@@ -5172,7 +5254,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>45</v>
@@ -5181,37 +5263,37 @@
         <v>46</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J64" s="19">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>34</v>
@@ -5226,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>45</v>
@@ -5235,37 +5317,37 @@
         <v>46</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J65" s="19">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>34</v>
@@ -5280,7 +5362,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>45</v>
@@ -5289,37 +5371,37 @@
         <v>46</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J66" s="19">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K66" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="L66" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="L66" s="23" t="s">
+      <c r="M66" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="M66" s="23" t="s">
+      <c r="N66" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="N66" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="O66" s="21" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>34</v>
@@ -5334,7 +5416,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>45</v>
@@ -5343,37 +5425,37 @@
         <v>46</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J67" s="19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L67" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M67" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="M67" s="23" t="s">
+      <c r="N67" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="N67" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="O67" s="21" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5388,7 +5470,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>45</v>
@@ -5397,37 +5479,37 @@
         <v>46</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J68" s="19">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L68" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M68" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="N68" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="N68" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="O68" s="21" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5442,7 +5524,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>45</v>
@@ -5451,37 +5533,37 @@
         <v>46</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J69" s="19">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L69" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M69" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="M69" s="23" t="s">
+      <c r="N69" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="N69" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="O69" s="21" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5496,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>45</v>
@@ -5505,37 +5587,37 @@
         <v>46</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J70" s="19">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L70" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M70" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="M70" s="23" t="s">
+      <c r="N70" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="N70" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="O70" s="21" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>34</v>
@@ -5550,46 +5632,46 @@
         <v>22</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J71" s="19">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>34</v>
@@ -5604,46 +5686,46 @@
         <v>22</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J72" s="19">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>34</v>
@@ -5658,46 +5740,46 @@
         <v>22</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J73" s="19">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>34</v>
@@ -5712,46 +5794,46 @@
         <v>22</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J74" s="19">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>34</v>
@@ -5766,46 +5848,46 @@
         <v>22</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J75" s="19">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N75" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>34</v>
@@ -5820,61 +5902,69 @@
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J76" s="19">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="N76" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="P76" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="17"/>
+        <v>299</v>
+      </c>
+      <c r="P76" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q76" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="R76" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S76" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T76" s="17" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>22</v>
@@ -5883,145 +5973,161 @@
         <v>63</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J77" s="19">
         <v>100</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="P77" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="17"/>
+        <v>303</v>
+      </c>
+      <c r="P77" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q77" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="R77" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S77" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T77" s="17" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="A78" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>49</v>
+      <c r="E78" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J78" s="19">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="N78" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="P78" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="P78" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q78" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="R78" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S78" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T78" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>104</v>
+        <v>307</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J79" s="19">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -6036,232 +6142,208 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J80" s="19">
         <v>100</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N80" s="23" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="P80" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q80" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="R80" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="S80" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T80" s="17" t="s">
-        <v>303</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="17"/>
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J81" s="19">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="P81" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q81" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="R81" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="S81" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T81" s="17" t="s">
-        <v>303</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>28</v>
+      <c r="A82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J82" s="19">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="P82" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q82" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="R82" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="S82" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T82" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="17"/>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J83" s="19">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>34</v>
@@ -6272,50 +6354,50 @@
       <c r="T83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="A84" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="7" t="s">
+      <c r="E84" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J84" s="19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>34</v>
@@ -6326,50 +6408,50 @@
       <c r="T84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="A85" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I85" s="7" t="s">
+      <c r="E85" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J85" s="19">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>34</v>
@@ -6380,50 +6462,50 @@
       <c r="T85" s="17"/>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="A86" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I86" s="7" t="s">
+      <c r="E86" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J86" s="19">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>34</v>
@@ -6438,100 +6520,108 @@
         <v>22</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E87" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87" s="19">
+        <v>18</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="P87" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q87" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="R87" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S87" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T87" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J87" s="19">
-        <v>28</v>
-      </c>
-      <c r="K87" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="M87" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="N87" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O87" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="17"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="I88" s="9" t="s">
+      <c r="F88" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J88" s="19">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="N88" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>34</v>
@@ -6542,50 +6632,50 @@
       <c r="T88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="A89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I89" s="9" t="s">
+      <c r="F89" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J89" s="19">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>34</v>
@@ -6596,350 +6686,126 @@
       <c r="T89" s="17"/>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I90" s="9" t="s">
+      <c r="A90" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J90" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="N90" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="P90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="17"/>
+        <v>355</v>
+      </c>
+      <c r="P90" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q90" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="R90" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S90" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T90" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="A91" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>49</v>
+      <c r="D91" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="J91" s="19">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="N91" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="P91" s="14" t="s">
-        <v>301</v>
+        <v>363</v>
+      </c>
+      <c r="P91" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="S91" s="18" t="s">
         <v>62</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J92" s="19">
-        <v>100</v>
-      </c>
-      <c r="K92" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="L92" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M92" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="N92" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O92" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="P92" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="17"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J93" s="19">
-        <v>100</v>
-      </c>
-      <c r="K93" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="L93" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="M93" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="N93" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O93" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="P93" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="17"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J94" s="19">
-        <v>39</v>
-      </c>
-      <c r="K94" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="L94" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="M94" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="N94" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O94" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="P94" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q94" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="R94" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="S94" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T94" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="J95" s="19">
-        <v>39</v>
-      </c>
-      <c r="K95" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="L95" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="M95" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="N95" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O95" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="P95" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q95" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="R95" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="S95" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="T95" s="17" t="s">
         <v>49</v>
       </c>
     </row>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t>Severity</t>
   </si>
@@ -337,36 +337,6 @@
     <t>missing-authentication@web-ui&gt;get-app-code@web-ui@api-server</t>
   </si>
   <si>
-    <t>Quay</t>
-  </si>
-  <si>
-    <t>Pull Argo CD Image</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from ApplicationSet Controller to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@applicationset-controller&gt;pull-argo-cd-image@applicationset-controller@quay</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Argo CD Image from Repo Server to Quay</t>
-  </si>
-  <si>
-    <t>missing-authentication@repo-server&gt;pull-argo-cd-image@repo-server@quay</t>
-  </si>
-  <si>
-    <t>Docker Hub</t>
-  </si>
-  <si>
-    <t>Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Pull Base Image from Docker Hub from Argo CD Build Pipeline (GitHub Actions) to Docker Hub</t>
-  </si>
-  <si>
-    <t>missing-authentication@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub@argo-cd-build-pipeline@docker-hub</t>
-  </si>
-  <si>
     <t>Rendered Manifest Requests</t>
   </si>
   <si>
@@ -590,6 +560,9 @@
     <t>ApplicationSet Controller</t>
   </si>
   <si>
+    <t>Pull Argo CD Image</t>
+  </si>
+  <si>
     <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Quay via Pull Argo CD Image</t>
   </si>
   <si>
@@ -597,6 +570,9 @@
   </si>
   <si>
     <t>Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Pull Base Image from Docker Hub</t>
   </si>
   <si>
     <t>Server-Side Request Forgery (SSRF) risk at Argo CD Build Pipeline (GitHub Actions) server-side web-requesting the target Docker Hub via Pull Base Image from Docker Hub</t>
@@ -829,100 +805,22 @@
 </t>
   </si>
   <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Argo CD Source Repo (GitHub) by Argo CD Build Pipeline (GitHub Actions) via Pull Source</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@argo-cd-source-repo@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-source</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Docker Hub by Argo CD Build Pipeline (GitHub Actions) via Pull Base Image from Docker Hub</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@docker-hub@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;pull-base-image-from-docker-hub</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of Quay by Argo CD Build Pipeline (GitHub Actions) via Push Image to Quay</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@quay@argo-cd-build-pipeline@argo-cd-build-pipeline&gt;push-image-to-quay</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Argo CD Source Repo (GitHub)</t>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
   </si>
   <si>
     <t>Build Pipeline Hardening</t>
   </si>
   <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@docker-hub</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at Quay</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@quay</t>
-  </si>
-  <si>
-    <t>CWE-912</t>
-  </si>
-  <si>
-    <t>Code Backdooring</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
-  </si>
-  <si>
     <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
   </si>
   <si>
     <t>code-backdooring@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Source Repo (GitHub)</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-source-repo</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Docker Hub</t>
-  </si>
-  <si>
-    <t>code-backdooring@docker-hub</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Quay</t>
-  </si>
-  <si>
-    <t>code-backdooring@quay</t>
   </si>
   <si>
     <t>Container Base Image Backdooring</t>
@@ -1212,18 +1110,27 @@
     <t>unchecked-deployment@argo-cd-build-pipeline</t>
   </si>
   <si>
+    <t>Argo CD Source Repo (GitHub)</t>
+  </si>
+  <si>
     <t>Unchecked Deployment risk at Argo CD Source Repo (GitHub)</t>
   </si>
   <si>
     <t>unchecked-deployment@argo-cd-source-repo</t>
   </si>
   <si>
+    <t>Docker Hub</t>
+  </si>
+  <si>
     <t>Unchecked Deployment risk at Docker Hub</t>
   </si>
   <si>
     <t>unchecked-deployment@docker-hub</t>
   </si>
   <si>
+    <t>Quay</t>
+  </si>
+  <si>
     <t>Unchecked Deployment risk at Quay</t>
   </si>
   <si>
@@ -1246,6 +1153,15 @@
   </si>
   <si>
     <t>unencrypted-communication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensitivity of traffic between the repo-server and other Argo CD components depends on the sensitivity of the  rendered manifests. If you do not store secrets in Git and if you do not use a secret-substitution plugin, then it should be relatively safe for the communication to occur in the clear.
+However, if your manifests are sensitive or secret, then you should carefully analyze who may have access to this plaintext traffic and restrict that access as much as possible.
+The Argo CD team plans to enable HTTPS communication with Redis in a future version.
+</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
   </si>
   <si>
     <t>CWE-311</t>
@@ -1299,58 +1215,28 @@
     <t>unnecessary-data-transfer@resource-tree@api-server@web-ui</t>
   </si>
   <si>
-    <t>Unnecessary Data Transfer of Resource Tree data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@resource-tree@web-ui@api-server</t>
-  </si>
-  <si>
     <t>Unnecessary Data Transfer of Resource Actions data at API Server from/to Web UI</t>
   </si>
   <si>
     <t>unnecessary-data-transfer@resource-actions@api-server@web-ui</t>
   </si>
   <si>
-    <t>Unnecessary Data Transfer of Resource Actions data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@resource-actions@web-ui@api-server</t>
-  </si>
-  <si>
     <t>Unnecessary Data Transfer of Resource Event data at API Server from/to Web UI</t>
   </si>
   <si>
     <t>unnecessary-data-transfer@resource-event@api-server@web-ui</t>
   </si>
   <si>
-    <t>Unnecessary Data Transfer of Resource Event data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@resource-event@web-ui@api-server</t>
-  </si>
-  <si>
     <t>Unnecessary Data Transfer of Resource Logs data at API Server from/to Web UI</t>
   </si>
   <si>
     <t>unnecessary-data-transfer@resource-logs@api-server@web-ui</t>
   </si>
   <si>
-    <t>Unnecessary Data Transfer of Resource Logs data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@resource-logs@web-ui@api-server</t>
-  </si>
-  <si>
     <t>Unnecessary Data Transfer of Sync Window data at API Server from/to Web UI</t>
   </si>
   <si>
     <t>unnecessary-data-transfer@sync-window@api-server@web-ui</t>
-  </si>
-  <si>
-    <t>Unnecessary Data Transfer of Sync Window data at Web UI from/to API Server</t>
-  </si>
-  <si>
-    <t>unnecessary-data-transfer@sync-window@web-ui@api-server</t>
   </si>
   <si>
     <t>CWE-434</t>
@@ -2873,7 +2759,7 @@
         <v>77</v>
       </c>
       <c r="J17" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>85</v>
@@ -3037,16 +2923,16 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="19">
+        <v>40</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="J20" s="19">
-        <v>31</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>98</v>
@@ -3058,7 +2944,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>34</v>
@@ -3091,16 +2977,16 @@
         <v>94</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J21" s="19">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>98</v>
@@ -3112,7 +2998,7 @@
         <v>32</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>34</v>
@@ -3145,16 +3031,16 @@
         <v>94</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="19">
+        <v>33</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="J22" s="19">
-        <v>12</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>98</v>
@@ -3166,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>34</v>
@@ -3181,46 +3067,46 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="J23" s="19">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -3235,46 +3121,46 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="J24" s="19">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>98</v>
-      </c>
       <c r="M24" s="23" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>34</v>
@@ -3289,46 +3175,46 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J25" s="19">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -3343,16 +3229,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>125</v>
@@ -3361,13 +3247,13 @@
         <v>126</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J26" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>127</v>
@@ -3397,16 +3283,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>125</v>
@@ -3415,16 +3301,16 @@
         <v>126</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J27" s="19">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>128</v>
@@ -3436,7 +3322,7 @@
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3451,16 +3337,16 @@
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>125</v>
@@ -3469,16 +3355,16 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="19">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>128</v>
@@ -3490,7 +3376,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3514,37 +3400,37 @@
         <v>74</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J29" s="19">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>137</v>
       </c>
       <c r="L29" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3559,40 +3445,40 @@
         <v>20</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J30" s="19">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="K30" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
@@ -3619,40 +3505,40 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J31" s="19">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3673,40 +3559,40 @@
         <v>22</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J32" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3721,46 +3607,46 @@
         <v>20</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="19">
+        <v>79</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M33" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="19">
-        <v>33</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>152</v>
-      </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3781,40 +3667,40 @@
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J34" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3835,40 +3721,40 @@
         <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J35" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L35" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3889,40 +3775,40 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J36" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3943,40 +3829,40 @@
         <v>22</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J37" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3997,40 +3883,40 @@
         <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J38" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -4051,40 +3937,40 @@
         <v>22</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J39" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -4105,40 +3991,40 @@
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J40" s="19">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -4149,104 +4035,112 @@
       <c r="T40" s="17"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>67</v>
+      <c r="F41" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="J41" s="19">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="K41" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="L41" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N41" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="21" t="s">
+      <c r="R41" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="P41" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="17"/>
+      <c r="S41" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>70</v>
+      <c r="F42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="J42" s="19">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -4257,50 +4151,50 @@
       <c r="T42" s="17"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="A43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>38</v>
+      <c r="F43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="J43" s="19">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -4311,112 +4205,104 @@
       <c r="T43" s="17"/>
     </row>
     <row r="44">
-      <c r="A44" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="18" t="s">
+      <c r="A44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>179</v>
+      <c r="F44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="J44" s="19">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q44" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="R44" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S44" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="T44" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="17"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="J45" s="19">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4431,46 +4317,46 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="J46" s="19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4485,46 +4371,46 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J47" s="19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4539,46 +4425,46 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J48" s="19">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4593,40 +4479,40 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="J49" s="19">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K49" s="20" t="s">
         <v>200</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
@@ -4647,46 +4533,46 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="J50" s="19">
         <v>40</v>
       </c>
       <c r="K50" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="L50" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M50" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N50" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>204</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4701,46 +4587,46 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="19">
+        <v>58</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="J51" s="19">
-        <v>40</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>207</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4755,46 +4641,46 @@
         <v>22</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="J52" s="19">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4809,94 +4695,102 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="J53" s="19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K53" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="P53" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="L53" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M53" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N53" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="21" t="s">
+      <c r="Q53" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="P53" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="17"/>
+      <c r="R53" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S53" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="A54" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>42</v>
+      <c r="F54" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="J54" s="19">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K54" s="20" t="s">
         <v>212</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
@@ -4904,125 +4798,141 @@
       <c r="O54" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="P54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="17"/>
+      <c r="P54" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q54" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="R54" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S54" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="A55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>42</v>
+      <c r="F55" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="J55" s="19">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="K55" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P55" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="L55" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M55" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="P55" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="17"/>
+      <c r="Q55" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="R55" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S55" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="A56" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="F56" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="7" t="s">
-        <v>96</v>
+      <c r="I56" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="J56" s="19">
         <v>100</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T56" s="17" t="s">
         <v>77</v>
@@ -5033,58 +4943,58 @@
         <v>22</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="J57" s="19">
         <v>100</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="P57" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T57" s="17" t="s">
         <v>77</v>
@@ -5095,58 +5005,58 @@
         <v>22</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J58" s="19">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>222</v>
+        <v>230</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="T58" s="17" t="s">
         <v>77</v>
@@ -5157,58 +5067,58 @@
         <v>22</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J59" s="19">
         <v>100</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T59" s="17" t="s">
         <v>77</v>
@@ -5219,58 +5129,58 @@
         <v>22</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J60" s="19">
         <v>100</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T60" s="17" t="s">
         <v>77</v>
@@ -5281,58 +5191,58 @@
         <v>22</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J61" s="19">
         <v>100</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T61" s="17" t="s">
         <v>77</v>
@@ -5343,58 +5253,58 @@
         <v>22</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J62" s="19">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N62" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T62" s="17" t="s">
         <v>77</v>
@@ -5405,58 +5315,58 @@
         <v>22</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J63" s="19">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N63" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T63" s="17" t="s">
         <v>77</v>
@@ -5467,58 +5377,58 @@
         <v>22</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="J64" s="19">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N64" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T64" s="17" t="s">
         <v>77</v>
@@ -5529,58 +5439,58 @@
         <v>22</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="I65" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J65" s="19">
+        <v>49</v>
+      </c>
+      <c r="K65" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="J65" s="19">
-        <v>38</v>
-      </c>
-      <c r="K65" s="20" t="s">
+      <c r="L65" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="L65" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N65" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" s="21" t="s">
-        <v>252</v>
-      </c>
       <c r="P65" s="16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T65" s="17" t="s">
         <v>77</v>
@@ -5591,294 +5501,270 @@
         <v>22</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="I66" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="J66" s="19">
+        <v>49</v>
+      </c>
+      <c r="K66" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="J66" s="19">
-        <v>38</v>
-      </c>
-      <c r="K66" s="20" t="s">
+      <c r="L66" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="L66" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M66" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="21" t="s">
+      <c r="P66" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q66" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="P66" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q66" s="20" t="s">
-        <v>231</v>
-      </c>
       <c r="R66" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T66" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>113</v>
+      <c r="A67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="J67" s="19">
+        <v>29</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="17"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="19">
+        <v>100</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="17"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="19">
         <v>38</v>
       </c>
-      <c r="K67" s="20" t="s">
+      <c r="K69" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="L69" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="17"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="L67" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q67" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="R67" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S67" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="T67" s="17" t="s">
+      <c r="G70" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="J68" s="19">
+      <c r="J70" s="19">
         <v>49</v>
       </c>
-      <c r="K68" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q68" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="R68" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S68" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="T68" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="J69" s="19">
-        <v>49</v>
-      </c>
-      <c r="K69" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="L69" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M69" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N69" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="P69" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q69" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="R69" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S69" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="T69" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="K70" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="M70" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="N70" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J70" s="19">
-        <v>30</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="L70" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="M70" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="O70" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>34</v>
@@ -5889,50 +5775,50 @@
       <c r="T70" s="17"/>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="A71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="19">
+        <v>24</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="L71" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="M71" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J71" s="19">
-        <v>12</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="L71" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>269</v>
-      </c>
       <c r="N71" s="23" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>34</v>
@@ -5943,50 +5829,50 @@
       <c r="T71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="A72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="19">
+        <v>68</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L72" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="M72" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="H72" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J72" s="19">
-        <v>31</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="M72" s="23" t="s">
-        <v>269</v>
-      </c>
       <c r="N72" s="23" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>34</v>
@@ -6001,46 +5887,46 @@
         <v>22</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J73" s="19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K73" s="20" t="s">
         <v>277</v>
       </c>
       <c r="L73" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N73" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O73" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="M73" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="N73" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O73" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>34</v>
@@ -6055,46 +5941,46 @@
         <v>22</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J74" s="19">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>34</v>
@@ -6109,46 +5995,46 @@
         <v>22</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J75" s="19">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K75" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O75" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="L75" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="M75" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="N75" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" s="21" t="s">
-        <v>284</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>34</v>
@@ -6163,7 +6049,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>73</v>
@@ -6172,37 +6058,37 @@
         <v>74</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J76" s="19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -6217,46 +6103,46 @@
         <v>22</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J77" s="19">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K77" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="N77" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="21" t="s">
         <v>290</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="M77" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="N77" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="21" t="s">
-        <v>291</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -6271,46 +6157,46 @@
         <v>22</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J78" s="19">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N78" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -6325,46 +6211,46 @@
         <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J79" s="19">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="N79" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -6379,46 +6265,46 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J80" s="19">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="M80" s="23" t="s">
         <v>299</v>
       </c>
       <c r="N80" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -6433,46 +6319,46 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J81" s="19">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="M81" s="23" t="s">
         <v>299</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>34</v>
@@ -6487,46 +6373,46 @@
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J82" s="19">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P82" s="11" t="s">
         <v>34</v>
@@ -6541,46 +6427,46 @@
         <v>22</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J83" s="19">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>34</v>
@@ -6595,46 +6481,46 @@
         <v>22</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="J84" s="19">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K84" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="L84" s="23" t="s">
-        <v>298</v>
-      </c>
       <c r="M84" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>34</v>
@@ -6649,46 +6535,46 @@
         <v>22</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J85" s="19">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P85" s="11" t="s">
         <v>34</v>
@@ -6703,46 +6589,46 @@
         <v>22</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J86" s="19">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P86" s="11" t="s">
         <v>34</v>
@@ -6757,46 +6643,46 @@
         <v>22</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J87" s="19">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N87" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P87" s="11" t="s">
         <v>34</v>
@@ -6811,46 +6697,46 @@
         <v>22</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J88" s="19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P88" s="11" t="s">
         <v>34</v>
@@ -6865,46 +6751,46 @@
         <v>22</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J89" s="19">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>34</v>
@@ -6919,61 +6805,69 @@
         <v>22</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G90" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" s="19">
+        <v>100</v>
+      </c>
+      <c r="K90" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="H90" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J90" s="19">
-        <v>58</v>
-      </c>
-      <c r="K90" s="20" t="s">
+      <c r="L90" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="L90" s="23" t="s">
+      <c r="P90" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q90" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="M90" s="23" t="s">
+      <c r="R90" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S90" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T90" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="N90" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O90" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="P90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="17"/>
     </row>
     <row r="91">
       <c r="A91" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>22</v>
@@ -6982,145 +6876,161 @@
         <v>91</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J91" s="19">
         <v>100</v>
       </c>
       <c r="K91" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M91" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="N91" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="P91" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q91" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="R91" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S91" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T91" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="19">
+        <v>100</v>
+      </c>
+      <c r="K92" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="L91" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="M91" s="23" t="s">
+      <c r="L92" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="N91" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O91" s="21" t="s">
+      <c r="P92" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q92" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="P91" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="17"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I92" s="7" t="s">
+      <c r="R92" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S92" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T92" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="19">
-        <v>58</v>
-      </c>
-      <c r="K92" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="L92" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="M92" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="N92" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O92" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="P92" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="17"/>
     </row>
     <row r="93">
       <c r="A93" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>125</v>
+        <v>335</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J93" s="19">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>34</v>
@@ -7135,46 +7045,46 @@
         <v>22</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>340</v>
+        <v>115</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="J94" s="19">
         <v>100</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P94" s="11" t="s">
         <v>34</v>
@@ -7189,46 +7099,46 @@
         <v>22</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>340</v>
+        <v>115</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="J95" s="19">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K95" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M95" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="L95" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="M95" s="23" t="s">
-        <v>344</v>
-      </c>
       <c r="N95" s="23" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>34</v>
@@ -7243,46 +7153,46 @@
         <v>22</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>340</v>
+        <v>115</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J96" s="19">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>34</v>
@@ -7297,46 +7207,46 @@
         <v>22</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="J97" s="19">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N97" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>34</v>
@@ -7347,50 +7257,50 @@
       <c r="T97" s="17"/>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>35</v>
+      <c r="A98" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="J98" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N98" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P98" s="11" t="s">
         <v>34</v>
@@ -7401,50 +7311,50 @@
       <c r="T98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>64</v>
+      <c r="A99" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="J99" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N99" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P99" s="11" t="s">
         <v>34</v>
@@ -7455,50 +7365,50 @@
       <c r="T99" s="17"/>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>67</v>
+      <c r="A100" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="J100" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N100" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="21" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P100" s="11" t="s">
         <v>34</v>
@@ -7513,115 +7423,123 @@
         <v>22</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="J101" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="P101" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="17"/>
+        <v>371</v>
+      </c>
+      <c r="P101" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="R101" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="S101" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T101" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="J102" s="19">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="N102" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="21" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="P102" s="14" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q102" s="20" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="R102" s="18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S102" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>363</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
@@ -7629,7 +7547,7 @@
         <v>22</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>22</v>
@@ -7638,161 +7556,145 @@
         <v>91</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>340</v>
+        <v>115</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="J103" s="19">
         <v>100</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="M103" s="23" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="N103" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="P103" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q103" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="R103" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S103" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T103" s="17" t="s">
-        <v>363</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="17"/>
     </row>
     <row r="104">
-      <c r="A104" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="18" t="s">
+      <c r="A104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="H104" s="22" t="s">
+      <c r="E104" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H104" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I104" s="22" t="s">
-        <v>28</v>
+      <c r="I104" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="J104" s="19">
         <v>100</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="P104" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q104" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="R104" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S104" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T104" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+      <c r="T104" s="17"/>
     </row>
     <row r="105">
       <c r="A105" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>369</v>
+        <v>115</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>371</v>
+        <v>27</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J105" s="19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="N105" s="23" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
       <c r="O105" s="21" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>34</v>
@@ -7803,50 +7705,50 @@
       <c r="T105" s="17"/>
     </row>
     <row r="106">
-      <c r="A106" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H106" s="7" t="s">
+      <c r="A106" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H106" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J106" s="19">
         <v>100</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N106" s="23" t="s">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="O106" s="21" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="P106" s="11" t="s">
         <v>34</v>
@@ -7857,50 +7759,50 @@
       <c r="T106" s="17"/>
     </row>
     <row r="107">
-      <c r="A107" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I107" s="7" t="s">
+      <c r="A107" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J107" s="19">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="K107" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="L107" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="L107" s="23" t="s">
-        <v>379</v>
-      </c>
       <c r="M107" s="23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N107" s="23" t="s">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="O107" s="21" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="P107" s="11" t="s">
         <v>34</v>
@@ -7911,50 +7813,50 @@
       <c r="T107" s="17"/>
     </row>
     <row r="108">
-      <c r="A108" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I108" s="7" t="s">
+      <c r="A108" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J108" s="19">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N108" s="23" t="s">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>34</v>
@@ -7965,50 +7867,50 @@
       <c r="T108" s="17"/>
     </row>
     <row r="109">
-      <c r="A109" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E109" s="8" t="s">
+      <c r="A109" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I109" s="7" t="s">
+      <c r="F109" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J109" s="19">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="21" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P109" s="11" t="s">
         <v>34</v>
@@ -8019,1052 +7921,126 @@
       <c r="T109" s="17"/>
     </row>
     <row r="110">
-      <c r="A110" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I110" s="9" t="s">
+      <c r="A110" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I110" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J110" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>278</v>
+        <v>401</v>
       </c>
       <c r="M110" s="23" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="N110" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="P110" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="17"/>
+        <v>403</v>
+      </c>
+      <c r="P110" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q110" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="R110" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S110" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T110" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>77</v>
+      <c r="A111" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>407</v>
       </c>
       <c r="J111" s="19">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="M111" s="23" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="N111" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="P111" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="17"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" s="19">
-        <v>31</v>
-      </c>
-      <c r="K112" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="L112" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="M112" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="N112" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O112" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="P112" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-      <c r="T112" s="17"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J113" s="19">
-        <v>40</v>
-      </c>
-      <c r="K113" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="L113" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="M113" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="N113" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O113" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="P113" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
-      <c r="T113" s="17"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J114" s="19">
-        <v>18</v>
-      </c>
-      <c r="K114" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="L114" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="M114" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="N114" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O114" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="P114" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q114" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="R114" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S114" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="P111" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q111" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="R111" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="S111" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="T114" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J115" s="19">
-        <v>100</v>
-      </c>
-      <c r="K115" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="L115" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M115" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N115" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O115" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="P115" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-      <c r="T115" s="17"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J116" s="19">
-        <v>100</v>
-      </c>
-      <c r="K116" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="L116" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M116" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N116" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O116" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="P116" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="17"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J117" s="19">
-        <v>100</v>
-      </c>
-      <c r="K117" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="L117" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M117" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N117" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O117" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="P117" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="17"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J118" s="19">
-        <v>69</v>
-      </c>
-      <c r="K118" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="L118" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M118" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N118" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O118" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="P118" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="17"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J119" s="19">
-        <v>100</v>
-      </c>
-      <c r="K119" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="L119" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M119" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N119" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O119" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="P119" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="17"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J120" s="19">
-        <v>69</v>
-      </c>
-      <c r="K120" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="L120" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M120" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N120" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O120" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="P120" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q120" s="20"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="17"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J121" s="19">
-        <v>100</v>
-      </c>
-      <c r="K121" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="L121" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M121" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N121" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O121" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="P121" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q121" s="20"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="17"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J122" s="19">
-        <v>69</v>
-      </c>
-      <c r="K122" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="L122" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M122" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N122" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O122" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="P122" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="17"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J123" s="19">
-        <v>100</v>
-      </c>
-      <c r="K123" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="L123" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M123" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N123" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O123" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="P123" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q123" s="20"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
-      <c r="T123" s="17"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J124" s="19">
-        <v>69</v>
-      </c>
-      <c r="K124" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="L124" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M124" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N124" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O124" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="P124" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q124" s="20"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
-      <c r="T124" s="17"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J125" s="19">
-        <v>100</v>
-      </c>
-      <c r="K125" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="L125" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M125" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N125" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O125" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="P125" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="17"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J126" s="19">
-        <v>69</v>
-      </c>
-      <c r="K126" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="L126" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="M126" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N126" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O126" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="P126" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
-      <c r="T126" s="17"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="H127" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I127" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J127" s="19">
-        <v>40</v>
-      </c>
-      <c r="K127" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="L127" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="M127" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="N127" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O127" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="P127" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q127" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="R127" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="S127" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T127" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E128" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="H128" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I128" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="J128" s="19">
-        <v>40</v>
-      </c>
-      <c r="K128" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="L128" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="M128" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="N128" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O128" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="P128" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q128" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="R128" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S128" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T128" s="17" t="s">
+      <c r="T111" s="17" t="s">
         <v>77</v>
       </c>
     </row>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <si>
     <t>Severity</t>
   </si>
@@ -331,19 +331,35 @@
     <t>missing-authentication@api-server&gt;fetching-rendered-manifests@api-server@repo-server</t>
   </si>
   <si>
+    <t>Rendered Manifest Requests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
+  </si>
+  <si>
+    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
+  </si>
+  <si>
     <t>Missing Authentication covering communication link Get App Code from Web UI to API Server</t>
   </si>
   <si>
     <t>missing-authentication@web-ui&gt;get-app-code@web-ui@api-server</t>
   </si>
   <si>
-    <t>Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
-  </si>
-  <si>
-    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
+    <t>in Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: determine whether auth happens for the endpoint which returns the web UI assets.
+</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
   </si>
   <si>
     <t>Rendered Manifests Cache (Redis)</t>
@@ -358,10 +374,15 @@
     <t>missing-authentication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argo CD supports authentication for Redis, but only in non-HA mode.
+The Argo CD team plans to enable authentication by default, and for HA mode, in a future version.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/argoproj/argo-cd/issues/11386</t>
   </si>
   <si>
     <t>Unlikely</t>
@@ -657,9 +678,6 @@
   </si>
   <si>
     <t>server-side-request-forgery@api-server@repo-server@api-server&gt;fetching-rendered-manifests</t>
-  </si>
-  <si>
-    <t>Accepted</t>
   </si>
   <si>
     <t xml:space="preserve">There is potential for SSRF in the repo-server. The repo-server is responsible for fetching manifests from git and running a plugin to render the manifests. The plugins themself support fetching remote resources, such as Kustomizes remote bases and Helms remote dependencies.
@@ -808,102 +826,106 @@
     <t>CWE-912</t>
   </si>
   <si>
-    <t>Code Backdooring</t>
-  </si>
-  <si>
-    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
+    <t>Container Base Image Backdooring</t>
+  </si>
+  <si>
+    <t>External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>Container Infrastructure Hardening</t>
+  </si>
+  <si>
+    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
+  </si>
+  <si>
+    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at API Server</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@api-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use a widely-used base image, which is maintained by the Ubuntu team. We rely on the Ubuntu team to monitor  their dependencies for vulnerabilities and keep them patched. We also rely on Snyk to notify us of any  vulnerabilities in our base image.
+The Argo CD team is evaluating distroless base images to further limit the CVE surface area.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/argoproj/argo-cd/issues/9029</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Application Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@application-controller</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@applicationset-controller</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@dex-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Argo CD team relies on the Dex team to monitor their dependencies for vulnerabilities and keep them patched. We also run weekly Snyk scans on the currently-used version of Dex. If a Dex image contains high- or critical- severity vulnerabilities, we push a release to update the image.
+</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Argo CD team relies on the Redis team to monitor their dependencies for vulnerabilities and keep them patched. We also run weekly Snyk scans on the currently-used version of Redis. If a Redis image contains high- or critical- severity vulnerabilities, we push a release to update the image.
+</t>
+  </si>
+  <si>
+    <t>Repo Server Storage</t>
+  </si>
+  <si>
+    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
+  </si>
+  <si>
+    <t>container-baseimage-backdooring@repo-server-storage</t>
+  </si>
+  <si>
+    <t>CWE-1127</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure</t>
+  </si>
+  <si>
+    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
   </si>
   <si>
     <t>Build Pipeline Hardening</t>
   </si>
   <si>
-    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
-  </si>
-  <si>
-    <t>code-backdooring@argo-cd-build-pipeline</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at API Server</t>
-  </si>
-  <si>
-    <t>Container Infrastructure Hardening</t>
-  </si>
-  <si>
-    <t>Apply hardening of all container infrastructures (see for example the &lt;i&gt;CIS-Benchmarks for Docker and Kubernetes&lt;/i&gt; and the &lt;i&gt;Docker Bench for Security&lt;/i&gt;). Use only trusted base images of the original vendors, verify digital signatures and apply image creation best practices. Also consider using Google's &lt;i&gt;Distroless&lt;/i&gt; base images or otherwise very small base images. Regularly execute container image scans with tools checking the layers for vulnerable components.</t>
-  </si>
-  <si>
-    <t>Are recommendations from the linked cheat sheet and referenced ASVS/CSVS applied?</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@api-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Application Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@application-controller</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at ApplicationSet Controller</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@applicationset-controller</t>
-  </si>
-  <si>
-    <t>External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at External Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@external-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Host Cluster Kubernetes API</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@host-cluster-kubernetes-api</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at OIDC Proxy (Dex)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@dex-server</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Rendered Manifests Cache (Redis)</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Repo Server Storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server Storage</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server-storage</t>
-  </si>
-  <si>
-    <t>Container Base Image Backdooring risk at Repo Server</t>
-  </si>
-  <si>
-    <t>container-baseimage-backdooring@repo-server</t>
-  </si>
-  <si>
-    <t>CWE-1127</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure</t>
-  </si>
-  <si>
-    <t>Missing Build Infrastructure in the threat model (referencing asset Application Controller as an example)</t>
-  </si>
-  <si>
     <t>Include the build infrastructure in the model.</t>
   </si>
   <si>
@@ -973,6 +995,13 @@
     <t>missing-authentication-second-factor@web-ui&gt;get-app-manifests@web-ui@api-server</t>
   </si>
   <si>
+    <t xml:space="preserve">Argo CD does not currently support 2FA for the web UI.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/argoproj/argo-cd/issues/10232</t>
+  </si>
+  <si>
     <t>Missing Two-Factor Authentication covering communication link Get Application Sync Windows from Web UI to API Server</t>
   </si>
   <si>
@@ -1003,22 +1032,20 @@
     <t>missing-authentication-second-factor@web-ui&gt;list-resource-actions@web-ui@api-server</t>
   </si>
   <si>
-    <t>Missing Two-Factor Authentication covering communication link Manage Application Resources from Web UI to API Server</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@web-ui&gt;manage-application-resources@web-ui@api-server</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Watch the Resource Tree from Web UI to API Server</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@web-ui&gt;watch-the-resource-tree@web-ui@api-server</t>
-  </si>
-  <si>
     <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from User CLI to API Server</t>
   </si>
   <si>
     <t>missing-authentication-second-factor@user-cli&gt;make-requests-to-api-server@user-cli@api-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argo CD does not currently support 2FA for the CLI.
+</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;make-requests-to-api-server@web-ui@api-server</t>
   </si>
   <si>
     <t xml:space="preserve">Argo CD does not yet support 2FA for API actions. It has been requested, specifically when users attempt sensitive API calls.
@@ -1026,13 +1053,16 @@
 </t>
   </si>
   <si>
-    <t>https://github.com/argoproj/argo-cd/issues/10232</t>
-  </si>
-  <si>
-    <t>Missing Two-Factor Authentication covering communication link Make Requests to API Server from Web UI to API Server</t>
-  </si>
-  <si>
-    <t>missing-authentication-second-factor@web-ui&gt;make-requests-to-api-server@web-ui@api-server</t>
+    <t>Missing Two-Factor Authentication covering communication link Manage Application Resources from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;manage-application-resources@web-ui@api-server</t>
+  </si>
+  <si>
+    <t>Missing Two-Factor Authentication covering communication link Watch the Resource Tree from Web UI to API Server</t>
+  </si>
+  <si>
+    <t>missing-authentication-second-factor@web-ui&gt;watch-the-resource-tree@web-ui@api-server</t>
   </si>
   <si>
     <t>Missing Two-Factor Authentication covering communication link Get App Code from Web UI to API Server</t>
@@ -1161,9 +1191,6 @@
 </t>
   </si>
   <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
     <t>CWE-311</t>
   </si>
   <si>
@@ -1237,6 +1264,22 @@
   </si>
   <si>
     <t>unnecessary-data-transfer@sync-window@api-server@web-ui</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at Argo CD Build Pipeline (GitHub Actions)</t>
+  </si>
+  <si>
+    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
+  </si>
+  <si>
+    <t>code-backdooring@argo-cd-build-pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most Argo CD dependencies are pinned at particular versions, and we run weekly Snyk scans to detect  vulnerabilities. Un-pinned dependencies include packages which are bundled with our Ubuntu base image. We rely on the Ubuntu team to monitor their dependencies for vulnerabilities and keep them patched. We also rely on Snyk to notify us of any vulnerabilities in our base image.
+</t>
   </si>
   <si>
     <t>CWE-434</t>
@@ -2869,16 +2912,16 @@
         <v>94</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="J19" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>98</v>
@@ -2890,7 +2933,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>34</v>
@@ -2923,13 +2966,13 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="J20" s="19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>104</v>
@@ -2977,16 +3020,16 @@
         <v>94</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="19">
+        <v>100</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="19">
-        <v>24</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>98</v>
@@ -2998,15 +3041,23 @@
         <v>32</v>
       </c>
       <c r="O21" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="17"/>
+      <c r="R21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
@@ -3031,16 +3082,16 @@
         <v>94</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J22" s="19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>98</v>
@@ -3052,37 +3103,45 @@
         <v>32</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>77</v>
@@ -3094,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -3121,22 +3180,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>77</v>
@@ -3148,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>34</v>
@@ -3175,22 +3234,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>77</v>
@@ -3202,19 +3261,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -3238,13 +3297,13 @@
         <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>27</v>
@@ -3256,19 +3315,19 @@
         <v>100</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>34</v>
@@ -3292,16 +3351,16 @@
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>77</v>
@@ -3310,19 +3369,19 @@
         <v>68</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3346,16 +3405,16 @@
         <v>74</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>77</v>
@@ -3364,19 +3423,19 @@
         <v>58</v>
       </c>
       <c r="K28" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="L28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3400,13 +3459,13 @@
         <v>74</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>84</v>
@@ -3418,19 +3477,19 @@
         <v>79</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3445,22 +3504,22 @@
         <v>20</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>47</v>
@@ -3472,19 +3531,19 @@
         <v>33</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3505,16 +3564,16 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>84</v>
@@ -3526,19 +3585,19 @@
         <v>79</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3559,16 +3618,16 @@
         <v>22</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>84</v>
@@ -3580,19 +3639,19 @@
         <v>79</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3613,16 +3672,16 @@
         <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>84</v>
@@ -3634,19 +3693,19 @@
         <v>79</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3667,16 +3726,16 @@
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>84</v>
@@ -3688,19 +3747,19 @@
         <v>79</v>
       </c>
       <c r="K34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="L34" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>149</v>
-      </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3721,16 +3780,16 @@
         <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
@@ -3742,19 +3801,19 @@
         <v>79</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3775,16 +3834,16 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>84</v>
@@ -3796,19 +3855,19 @@
         <v>79</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3829,16 +3888,16 @@
         <v>22</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
@@ -3850,19 +3909,19 @@
         <v>79</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3883,16 +3942,16 @@
         <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
@@ -3904,19 +3963,19 @@
         <v>79</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -3937,16 +3996,16 @@
         <v>22</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
@@ -3958,19 +4017,19 @@
         <v>79</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -3991,16 +4050,16 @@
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>84</v>
@@ -4012,19 +4071,19 @@
         <v>79</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -4045,52 +4104,52 @@
         <v>22</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J41" s="19">
         <v>100</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T41" s="17" t="s">
         <v>77</v>
@@ -4101,46 +4160,46 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J42" s="19">
         <v>49</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -4155,46 +4214,46 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J43" s="19">
         <v>29</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -4209,46 +4268,46 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J44" s="19">
         <v>29</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>34</v>
@@ -4263,46 +4322,46 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J45" s="19">
         <v>8</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4317,46 +4376,46 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J46" s="19">
         <v>33</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4371,46 +4430,46 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J47" s="19">
         <v>40</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4425,46 +4484,46 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J48" s="19">
         <v>40</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4479,46 +4538,46 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J49" s="19">
         <v>40</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4533,46 +4592,46 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J50" s="19">
         <v>40</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4587,25 +4646,25 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>42</v>
@@ -4614,19 +4673,19 @@
         <v>58</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4641,22 +4700,22 @@
         <v>22</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>84</v>
@@ -4668,19 +4727,19 @@
         <v>79</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4695,22 +4754,22 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>27</v>
@@ -4722,31 +4781,31 @@
         <v>100</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T53" s="17" t="s">
         <v>77</v>
@@ -4757,22 +4816,22 @@
         <v>22</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>27</v>
@@ -4784,31 +4843,31 @@
         <v>100</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S54" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T54" s="17" t="s">
         <v>77</v>
@@ -4819,55 +4878,55 @@
         <v>22</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J55" s="19">
         <v>29</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N55" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="R55" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S55" s="18" t="s">
         <v>90</v>
@@ -4881,58 +4940,58 @@
         <v>22</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J56" s="19">
         <v>100</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T56" s="17" t="s">
         <v>77</v>
@@ -4943,58 +5002,58 @@
         <v>22</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J57" s="19">
         <v>100</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T57" s="17" t="s">
         <v>77</v>
@@ -5005,58 +5064,58 @@
         <v>22</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J58" s="19">
         <v>100</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T58" s="17" t="s">
         <v>77</v>
@@ -5067,58 +5126,58 @@
         <v>22</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J59" s="19">
         <v>100</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T59" s="17" t="s">
         <v>77</v>
@@ -5129,58 +5188,58 @@
         <v>22</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J60" s="19">
         <v>100</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T60" s="17" t="s">
         <v>77</v>
@@ -5191,58 +5250,58 @@
         <v>22</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J61" s="19">
         <v>100</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T61" s="17" t="s">
         <v>77</v>
@@ -5253,58 +5312,58 @@
         <v>22</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J62" s="19">
         <v>38</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N62" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T62" s="17" t="s">
         <v>77</v>
@@ -5315,58 +5374,58 @@
         <v>22</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J63" s="19">
         <v>38</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N63" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T63" s="17" t="s">
         <v>77</v>
@@ -5377,58 +5436,58 @@
         <v>22</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J64" s="19">
         <v>38</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N64" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T64" s="17" t="s">
         <v>77</v>
@@ -5439,58 +5498,58 @@
         <v>22</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J65" s="19">
         <v>49</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T65" s="17" t="s">
         <v>77</v>
@@ -5501,58 +5560,58 @@
         <v>22</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J66" s="19">
         <v>49</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N66" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="R66" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T66" s="17" t="s">
         <v>77</v>
@@ -5563,7 +5622,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>73</v>
@@ -5572,37 +5631,37 @@
         <v>74</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J67" s="19">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5617,7 +5676,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>73</v>
@@ -5626,37 +5685,37 @@
         <v>74</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J68" s="19">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5671,7 +5730,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>73</v>
@@ -5680,37 +5739,37 @@
         <v>74</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J69" s="19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5721,374 +5780,422 @@
       <c r="T69" s="17"/>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="A70" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="E70" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I70" s="7" t="s">
+      <c r="H70" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J70" s="19">
+        <v>100</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q70" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="R70" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S70" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T70" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="19">
+        <v>38</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="P71" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q71" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="R71" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S71" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T71" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="19">
         <v>49</v>
       </c>
-      <c r="K70" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="L70" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="M70" s="23" t="s">
+      <c r="K72" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="L72" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="N70" s="23" t="s">
+      <c r="M72" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="O70" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="17"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="N72" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="P72" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q72" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="R72" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S72" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T72" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D73" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="E73" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" s="19">
-        <v>24</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="L71" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="17"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J72" s="19">
-        <v>68</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="M72" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="N72" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O72" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="17"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J73" s="19">
         <v>33</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="17"/>
+        <v>282</v>
+      </c>
+      <c r="P73" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q73" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="R73" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S73" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T73" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="E74" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G74" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="H74" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J74" s="19">
         <v>24</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="P74" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="17"/>
+        <v>285</v>
+      </c>
+      <c r="P74" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q74" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="R74" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S74" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T74" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="A75" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="E75" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G75" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I75" s="7" t="s">
+      <c r="H75" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="I75" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J75" s="19">
         <v>18</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="P75" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="17"/>
+        <v>289</v>
+      </c>
+      <c r="P75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q75" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="R75" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S75" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J76" s="19">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -6103,46 +6210,46 @@
         <v>22</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J77" s="19">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -6157,46 +6264,46 @@
         <v>22</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J78" s="19">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N78" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -6211,7 +6318,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>22</v>
@@ -6220,37 +6327,37 @@
         <v>91</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J79" s="19">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N79" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -6265,7 +6372,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>22</v>
@@ -6274,37 +6381,37 @@
         <v>91</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J80" s="19">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N80" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -6319,7 +6426,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>22</v>
@@ -6328,52 +6435,60 @@
         <v>91</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="F81" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="19">
+        <v>100</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="L81" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="P81" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J81" s="19">
-        <v>79</v>
-      </c>
-      <c r="K81" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="L81" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="M81" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="N81" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O81" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="P81" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="17"/>
+      <c r="Q81" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="R81" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S81" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T81" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>22</v>
@@ -6382,52 +6497,60 @@
         <v>91</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J82" s="19">
         <v>100</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L82" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N82" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="P82" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="17"/>
+        <v>320</v>
+      </c>
+      <c r="P82" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q82" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="R82" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S82" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T82" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>22</v>
@@ -6436,52 +6559,60 @@
         <v>91</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J83" s="19">
         <v>100</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N83" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="P83" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="17"/>
+        <v>322</v>
+      </c>
+      <c r="P83" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q83" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="R83" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S83" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T83" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>22</v>
@@ -6490,52 +6621,60 @@
         <v>91</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J84" s="19">
         <v>100</v>
       </c>
       <c r="K84" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L84" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="L84" s="23" t="s">
-        <v>309</v>
-      </c>
       <c r="M84" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N84" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="P84" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="17"/>
+        <v>324</v>
+      </c>
+      <c r="P84" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q84" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="R84" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S84" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T84" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>22</v>
@@ -6544,52 +6683,60 @@
         <v>91</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J85" s="19">
         <v>100</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N85" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="P85" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q85" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="P85" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="17"/>
+      <c r="R85" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S85" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T85" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>22</v>
@@ -6598,52 +6745,60 @@
         <v>91</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="J86" s="19">
         <v>100</v>
       </c>
       <c r="K86" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="L86" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="M86" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N86" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="P86" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q86" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="R86" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S86" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T86" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="L86" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="M86" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="N86" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O86" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="P86" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="17"/>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>22</v>
@@ -6652,52 +6807,60 @@
         <v>91</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J87" s="19">
         <v>100</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N87" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="17"/>
+        <v>330</v>
+      </c>
+      <c r="P87" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q87" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="R87" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S87" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T87" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -6706,52 +6869,60 @@
         <v>91</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J88" s="19">
         <v>100</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N88" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="P88" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="17"/>
+        <v>333</v>
+      </c>
+      <c r="P88" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q88" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="R88" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="S88" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T88" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -6760,52 +6931,60 @@
         <v>91</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J89" s="19">
         <v>100</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="P89" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="17"/>
+        <v>336</v>
+      </c>
+      <c r="P89" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q89" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="R89" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S89" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T89" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>22</v>
@@ -6814,223 +6993,215 @@
         <v>91</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J90" s="19">
         <v>100</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N90" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="P90" s="14" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="R90" s="18" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="S90" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="A91" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H91" s="7" t="s">
+      <c r="E91" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="H91" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>42</v>
+      <c r="I91" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="J91" s="19">
         <v>100</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N91" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="P91" s="14" t="s">
-        <v>210</v>
+        <v>340</v>
+      </c>
+      <c r="P91" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S91" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>329</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="H92" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>28</v>
+      <c r="A92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="J92" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="P92" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q92" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="R92" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="S92" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T92" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="17"/>
     </row>
     <row r="93">
       <c r="A93" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>335</v>
+        <v>121</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J93" s="19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>34</v>
@@ -7045,7 +7216,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>22</v>
@@ -7054,37 +7225,37 @@
         <v>74</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J94" s="19">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P94" s="11" t="s">
         <v>34</v>
@@ -7099,7 +7270,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>22</v>
@@ -7108,37 +7279,37 @@
         <v>74</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J95" s="19">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>34</v>
@@ -7153,7 +7324,7 @@
         <v>22</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>22</v>
@@ -7162,37 +7333,37 @@
         <v>74</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J96" s="19">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>34</v>
@@ -7203,50 +7374,50 @@
       <c r="T96" s="17"/>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="A97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I97" s="7" t="s">
+      <c r="F97" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I97" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J97" s="19">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N97" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>34</v>
@@ -7261,7 +7432,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>51</v>
@@ -7273,13 +7444,13 @@
         <v>92</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>77</v>
@@ -7288,19 +7459,19 @@
         <v>1</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N98" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="P98" s="11" t="s">
         <v>34</v>
@@ -7315,7 +7486,7 @@
         <v>51</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>51</v>
@@ -7327,13 +7498,13 @@
         <v>92</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>77</v>
@@ -7342,19 +7513,19 @@
         <v>1</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N99" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P99" s="11" t="s">
         <v>34</v>
@@ -7365,113 +7536,121 @@
       <c r="T99" s="17"/>
     </row>
     <row r="100">
-      <c r="A100" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="I100" s="9" t="s">
+      <c r="J100" s="19">
+        <v>40</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="L100" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="N100" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="P100" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q100" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="R100" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S100" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T100" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J100" s="19">
-        <v>1</v>
-      </c>
-      <c r="K100" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="L100" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="M100" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="N100" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O100" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="P100" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="17"/>
     </row>
     <row r="101">
       <c r="A101" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J101" s="19">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="P101" s="14" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>373</v>
+        <v>180</v>
       </c>
       <c r="S101" s="18" t="s">
         <v>90</v>
@@ -7485,69 +7664,61 @@
         <v>22</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J102" s="19">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="N102" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="P102" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q102" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="R102" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="S102" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T102" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="P102" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="17"/>
     </row>
     <row r="103">
       <c r="A103" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>22</v>
@@ -7559,10 +7730,10 @@
         <v>92</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>27</v>
@@ -7574,19 +7745,19 @@
         <v>100</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M103" s="23" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N103" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="21" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P103" s="11" t="s">
         <v>34</v>
@@ -7601,7 +7772,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>22</v>
@@ -7613,10 +7784,10 @@
         <v>92</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>27</v>
@@ -7628,19 +7799,19 @@
         <v>100</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="21" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P104" s="11" t="s">
         <v>34</v>
@@ -7651,50 +7822,50 @@
       <c r="T104" s="17"/>
     </row>
     <row r="105">
-      <c r="A105" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="A105" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H105" s="7" t="s">
+      <c r="F105" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H105" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J105" s="19">
         <v>100</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N105" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O105" s="21" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>34</v>
@@ -7709,7 +7880,7 @@
         <v>51</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>51</v>
@@ -7721,10 +7892,10 @@
         <v>92</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>27</v>
@@ -7736,19 +7907,19 @@
         <v>100</v>
       </c>
       <c r="K106" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="L106" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="M106" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="L106" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="M106" s="23" t="s">
-        <v>384</v>
-      </c>
       <c r="N106" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="21" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P106" s="11" t="s">
         <v>34</v>
@@ -7763,7 +7934,7 @@
         <v>51</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>51</v>
@@ -7775,10 +7946,10 @@
         <v>92</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>27</v>
@@ -7790,19 +7961,19 @@
         <v>100</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N107" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="21" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P107" s="11" t="s">
         <v>34</v>
@@ -7817,7 +7988,7 @@
         <v>51</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>51</v>
@@ -7829,10 +8000,10 @@
         <v>92</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>27</v>
@@ -7844,19 +8015,19 @@
         <v>100</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>34</v>
@@ -7867,58 +8038,66 @@
       <c r="T108" s="17"/>
     </row>
     <row r="109">
-      <c r="A109" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="9" t="s">
+      <c r="A109" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I109" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J109" s="19">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="P109" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="17"/>
+        <v>407</v>
+      </c>
+      <c r="P109" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q109" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="R109" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S109" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T109" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="18" t="s">
@@ -7937,10 +8116,10 @@
         <v>24</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>95</v>
@@ -7952,25 +8131,25 @@
         <v>40</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="M110" s="23" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="N110" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="21" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="R110" s="18" t="s">
         <v>89</v>
@@ -7993,49 +8172,49 @@
         <v>73</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>95</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="J111" s="19">
         <v>40</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M111" s="23" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="N111" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="21" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S111" s="18" t="s">
         <v>90</v>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t>Severity</t>
   </si>
@@ -313,34 +313,13 @@
     <t>Missing Authentication</t>
   </si>
   <si>
-    <t>Repo Server</t>
-  </si>
-  <si>
-    <t>Fetching Rendered Manifests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Fetching Rendered Manifests from API Server to Repo Server</t>
+    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
   </si>
   <si>
     <t>Authentication of Incoming Requests</t>
   </si>
   <si>
     <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
-  </si>
-  <si>
-    <t>missing-authentication@api-server&gt;fetching-rendered-manifests@api-server@repo-server</t>
-  </si>
-  <si>
-    <t>Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Rendered Manifest Requests from Application Controller to Repo Server</t>
-  </si>
-  <si>
-    <t>missing-authentication@application-controller&gt;rendered-manifest-requests@application-controller@repo-server</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link Validate Dex OIDC Token from API Server to OIDC Proxy (Dex)</t>
   </si>
   <si>
     <t>missing-authentication@api-server&gt;validate-dex-oidc-token@api-server@dex-server</t>
@@ -362,6 +341,41 @@
     <t>2023-01-16</t>
   </si>
   <si>
+    <t>Repo Server</t>
+  </si>
+  <si>
+    <t>Fetching Rendered Manifests</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Fetching Rendered Manifests from API Server to Repo Server</t>
+  </si>
+  <si>
+    <t>missing-authentication@api-server&gt;fetching-rendered-manifests@api-server@repo-server</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Application controller and the API server components send unathenticated requests to the repo-server. This is generally okay, because while the repo-server may send sensitive information (manifests), it generally does not send secret information.
+However, Argo CD may be configured with a secret-substitution plugin, which injects secrets into the manifests. In this case, the repo-server may send secret information.
+Someone with the ability to make requests to the repo-server could potentially use this to retrieve secrets.
+A couple mitigations are 1) to host Argo CD on its own cluster or 2) use network policies to limit access.
+The Argo CD team plans to eventually add authentication which will further mitigate the risk.
+</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>https://github.com/argoproj/argo-cd/issues/12084</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link Fetching Rendered Manifests from Application Controller to Repo Server</t>
+  </si>
+  <si>
+    <t>missing-authentication@application-controller&gt;fetching-rendered-manifests@application-controller@repo-server</t>
+  </si>
+  <si>
     <t>Rendered Manifests Cache (Redis)</t>
   </si>
   <si>
@@ -372,9 +386,6 @@
   </si>
   <si>
     <t>missing-authentication@repo-server&gt;send-receive-cached-rendered-manifests@repo-server@rendered-manifests-cache</t>
-  </si>
-  <si>
-    <t>Accepted</t>
   </si>
   <si>
     <t xml:space="preserve">Argo CD supports authentication for Redis, but only in non-HA mode.
@@ -798,10 +809,10 @@
     <t>server-side-request-forgery@application-controller@host-cluster-kubernetes-api@application-controller&gt;reconcile-resource-state-host-cluster</t>
   </si>
   <si>
-    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Rendered Manifest Requests</t>
-  </si>
-  <si>
-    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;rendered-manifest-requests</t>
+    <t>Server-Side Request Forgery (SSRF) risk at Application Controller server-side web-requesting the target Repo Server via Fetching Rendered Manifests</t>
+  </si>
+  <si>
+    <t>server-side-request-forgery@application-controller@repo-server@application-controller&gt;fetching-rendered-manifests</t>
   </si>
   <si>
     <t>Server-Side Request Forgery (SSRF) risk at ApplicationSet Controller server-side web-requesting the target Host Cluster Kubernetes API via Reconcile Resource State (Host Cluster)</t>
@@ -2858,28 +2869,28 @@
         <v>94</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="19">
+        <v>33</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="L18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="19">
-        <v>40</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="M18" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="N18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>34</v>
@@ -2912,36 +2923,44 @@
         <v>94</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="19">
+        <v>100</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="19">
-        <v>40</v>
-      </c>
-      <c r="K19" s="20" t="s">
+      <c r="Q19" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="21" t="s">
+      <c r="R19" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="17"/>
+      <c r="S19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
@@ -2966,36 +2985,44 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="J20" s="19">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
@@ -3020,30 +3047,30 @@
         <v>94</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="J21" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="P21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="14" t="s">
         <v>108</v>
       </c>
       <c r="Q21" s="20" t="s">
@@ -3056,7 +3083,7 @@
         <v>90</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -3082,43 +3109,43 @@
         <v>94</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J22" s="19">
         <v>24</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S22" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -3126,22 +3153,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>77</v>
@@ -3153,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -3180,22 +3207,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>77</v>
@@ -3207,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>125</v>
-      </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>34</v>
@@ -3234,22 +3261,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>77</v>
@@ -3261,19 +3288,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -3297,13 +3324,13 @@
         <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>27</v>
@@ -3315,19 +3342,19 @@
         <v>100</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>34</v>
@@ -3351,16 +3378,16 @@
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>77</v>
@@ -3369,19 +3396,19 @@
         <v>68</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3405,16 +3432,16 @@
         <v>74</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>77</v>
@@ -3423,19 +3450,19 @@
         <v>58</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3459,13 +3486,13 @@
         <v>74</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>84</v>
@@ -3477,19 +3504,19 @@
         <v>79</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3504,22 +3531,22 @@
         <v>20</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>47</v>
@@ -3531,19 +3558,19 @@
         <v>33</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3564,16 +3591,16 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>84</v>
@@ -3585,19 +3612,19 @@
         <v>79</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3618,16 +3645,16 @@
         <v>22</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>84</v>
@@ -3639,19 +3666,19 @@
         <v>79</v>
       </c>
       <c r="K32" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="L32" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>155</v>
-      </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3672,16 +3699,16 @@
         <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>84</v>
@@ -3693,19 +3720,19 @@
         <v>79</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3726,16 +3753,16 @@
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>84</v>
@@ -3747,19 +3774,19 @@
         <v>79</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3780,16 +3807,16 @@
         <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
@@ -3801,19 +3828,19 @@
         <v>79</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3834,16 +3861,16 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>84</v>
@@ -3855,19 +3882,19 @@
         <v>79</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3888,16 +3915,16 @@
         <v>22</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
@@ -3909,19 +3936,19 @@
         <v>79</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3942,16 +3969,16 @@
         <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
@@ -3963,19 +3990,19 @@
         <v>79</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -3996,16 +4023,16 @@
         <v>22</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
@@ -4017,19 +4044,19 @@
         <v>79</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -4050,16 +4077,16 @@
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>84</v>
@@ -4071,19 +4098,19 @@
         <v>79</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -4104,52 +4131,52 @@
         <v>22</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J41" s="19">
         <v>100</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T41" s="17" t="s">
         <v>77</v>
@@ -4160,46 +4187,46 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J42" s="19">
         <v>49</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -4214,46 +4241,46 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J43" s="19">
         <v>29</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -4268,46 +4295,46 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J44" s="19">
         <v>29</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>34</v>
@@ -4322,46 +4349,46 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J45" s="19">
         <v>8</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4376,46 +4403,46 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J46" s="19">
         <v>33</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4430,46 +4457,46 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J47" s="19">
         <v>40</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4484,46 +4511,46 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J48" s="19">
         <v>40</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4538,46 +4565,46 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J49" s="19">
         <v>40</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4592,46 +4619,46 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J50" s="19">
         <v>40</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4646,25 +4673,25 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>42</v>
@@ -4673,19 +4700,19 @@
         <v>58</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4700,22 +4727,22 @@
         <v>22</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>84</v>
@@ -4727,19 +4754,19 @@
         <v>79</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4754,58 +4781,58 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J53" s="19">
         <v>100</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T53" s="17" t="s">
         <v>77</v>
@@ -4816,22 +4843,22 @@
         <v>22</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>27</v>
@@ -4843,31 +4870,31 @@
         <v>100</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S54" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T54" s="17" t="s">
         <v>77</v>
@@ -4878,55 +4905,55 @@
         <v>22</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J55" s="19">
         <v>29</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N55" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R55" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S55" s="18" t="s">
         <v>90</v>
@@ -4940,58 +4967,58 @@
         <v>22</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J56" s="19">
         <v>100</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T56" s="17" t="s">
         <v>77</v>
@@ -5002,58 +5029,58 @@
         <v>22</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J57" s="19">
         <v>100</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T57" s="17" t="s">
         <v>77</v>
@@ -5064,58 +5091,58 @@
         <v>22</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J58" s="19">
         <v>100</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T58" s="17" t="s">
         <v>77</v>
@@ -5126,58 +5153,58 @@
         <v>22</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J59" s="19">
         <v>100</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T59" s="17" t="s">
         <v>77</v>
@@ -5188,58 +5215,58 @@
         <v>22</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J60" s="19">
         <v>100</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T60" s="17" t="s">
         <v>77</v>
@@ -5250,58 +5277,58 @@
         <v>22</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J61" s="19">
         <v>100</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T61" s="17" t="s">
         <v>77</v>
@@ -5312,58 +5339,58 @@
         <v>22</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J62" s="19">
         <v>38</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N62" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T62" s="17" t="s">
         <v>77</v>
@@ -5374,58 +5401,58 @@
         <v>22</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J63" s="19">
         <v>38</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N63" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T63" s="17" t="s">
         <v>77</v>
@@ -5436,58 +5463,58 @@
         <v>22</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J64" s="19">
         <v>38</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N64" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T64" s="17" t="s">
         <v>77</v>
@@ -5498,58 +5525,58 @@
         <v>22</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J65" s="19">
         <v>49</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T65" s="17" t="s">
         <v>77</v>
@@ -5560,58 +5587,58 @@
         <v>22</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J66" s="19">
         <v>49</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N66" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R66" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T66" s="17" t="s">
         <v>77</v>
@@ -5622,7 +5649,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>73</v>
@@ -5631,16 +5658,16 @@
         <v>74</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>77</v>
@@ -5649,19 +5676,19 @@
         <v>24</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5676,7 +5703,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>73</v>
@@ -5685,16 +5712,16 @@
         <v>74</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>77</v>
@@ -5703,19 +5730,19 @@
         <v>68</v>
       </c>
       <c r="K68" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="N68" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="L68" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>267</v>
-      </c>
       <c r="O68" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5730,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>73</v>
@@ -5739,16 +5766,16 @@
         <v>74</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>77</v>
@@ -5757,19 +5784,19 @@
         <v>40</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5784,7 +5811,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>73</v>
@@ -5793,13 +5820,13 @@
         <v>74</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>27</v>
@@ -5811,34 +5838,34 @@
         <v>100</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S70" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71">
@@ -5846,7 +5873,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>73</v>
@@ -5855,16 +5882,16 @@
         <v>74</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I71" s="22" t="s">
         <v>77</v>
@@ -5873,34 +5900,34 @@
         <v>38</v>
       </c>
       <c r="K71" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="P71" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q71" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="L71" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="P71" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q71" s="20" t="s">
-        <v>275</v>
-      </c>
       <c r="R71" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S71" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72">
@@ -5908,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>73</v>
@@ -5917,16 +5944,16 @@
         <v>74</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>77</v>
@@ -5935,34 +5962,34 @@
         <v>49</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S72" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73">
@@ -5970,7 +5997,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>73</v>
@@ -5979,13 +6006,13 @@
         <v>74</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>47</v>
@@ -5997,28 +6024,28 @@
         <v>33</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R73" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S73" s="18" t="s">
         <v>90</v>
@@ -6032,7 +6059,7 @@
         <v>22</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>73</v>
@@ -6041,16 +6068,16 @@
         <v>74</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>77</v>
@@ -6059,28 +6086,28 @@
         <v>24</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R74" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S74" s="18" t="s">
         <v>90</v>
@@ -6094,7 +6121,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>73</v>
@@ -6103,16 +6130,16 @@
         <v>74</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>77</v>
@@ -6121,34 +6148,34 @@
         <v>18</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S75" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76">
@@ -6156,7 +6183,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>22</v>
@@ -6168,13 +6195,13 @@
         <v>92</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>77</v>
@@ -6183,19 +6210,19 @@
         <v>38</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N76" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -6210,7 +6237,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>22</v>
@@ -6222,13 +6249,13 @@
         <v>92</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>77</v>
@@ -6237,19 +6264,19 @@
         <v>58</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -6264,7 +6291,7 @@
         <v>22</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>22</v>
@@ -6273,13 +6300,13 @@
         <v>91</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>27</v>
@@ -6291,19 +6318,19 @@
         <v>100</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N78" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -6318,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>22</v>
@@ -6327,16 +6354,16 @@
         <v>91</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>77</v>
@@ -6345,19 +6372,19 @@
         <v>58</v>
       </c>
       <c r="K79" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M79" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="L79" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M79" s="23" t="s">
-        <v>304</v>
-      </c>
       <c r="N79" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -6372,7 +6399,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>22</v>
@@ -6381,13 +6408,13 @@
         <v>91</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>84</v>
@@ -6399,19 +6426,19 @@
         <v>79</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N80" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -6426,7 +6453,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>22</v>
@@ -6435,13 +6462,13 @@
         <v>91</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>27</v>
@@ -6453,34 +6480,34 @@
         <v>100</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N81" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S81" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82">
@@ -6488,7 +6515,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>22</v>
@@ -6497,13 +6524,13 @@
         <v>91</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>27</v>
@@ -6515,34 +6542,34 @@
         <v>100</v>
       </c>
       <c r="K82" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="N82" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P82" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="L82" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="M82" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="N82" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O82" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q82" s="20" t="s">
-        <v>317</v>
-      </c>
       <c r="R82" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S82" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83">
@@ -6550,7 +6577,7 @@
         <v>22</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>22</v>
@@ -6559,13 +6586,13 @@
         <v>91</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>27</v>
@@ -6577,34 +6604,34 @@
         <v>100</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N83" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q83" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S83" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84">
@@ -6612,7 +6639,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>22</v>
@@ -6621,13 +6648,13 @@
         <v>91</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>27</v>
@@ -6639,34 +6666,34 @@
         <v>100</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N84" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R84" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S84" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85">
@@ -6674,7 +6701,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>22</v>
@@ -6683,13 +6710,13 @@
         <v>91</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>27</v>
@@ -6701,34 +6728,34 @@
         <v>100</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N85" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P85" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R85" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S85" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86">
@@ -6736,7 +6763,7 @@
         <v>22</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>22</v>
@@ -6745,13 +6772,13 @@
         <v>91</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>27</v>
@@ -6763,34 +6790,34 @@
         <v>100</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N86" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P86" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R86" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S86" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87">
@@ -6798,7 +6825,7 @@
         <v>22</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>22</v>
@@ -6807,13 +6834,13 @@
         <v>91</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>27</v>
@@ -6825,34 +6852,34 @@
         <v>100</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N87" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="R87" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S87" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -6860,7 +6887,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -6869,13 +6896,13 @@
         <v>91</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>27</v>
@@ -6887,34 +6914,34 @@
         <v>100</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N88" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P88" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S88" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89">
@@ -6922,7 +6949,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -6931,13 +6958,13 @@
         <v>91</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>27</v>
@@ -6949,34 +6976,34 @@
         <v>100</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P89" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q89" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R89" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S89" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90">
@@ -6984,7 +7011,7 @@
         <v>22</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>22</v>
@@ -6993,13 +7020,13 @@
         <v>91</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>27</v>
@@ -7011,34 +7038,34 @@
         <v>100</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N90" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P90" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R90" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S90" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91">
@@ -7046,7 +7073,7 @@
         <v>22</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>22</v>
@@ -7055,13 +7082,13 @@
         <v>91</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>27</v>
@@ -7073,28 +7100,28 @@
         <v>100</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N91" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P91" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S91" s="18" t="s">
         <v>90</v>
@@ -7108,25 +7135,25 @@
         <v>22</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>77</v>
@@ -7135,19 +7162,19 @@
         <v>1</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P92" s="11" t="s">
         <v>34</v>
@@ -7162,7 +7189,7 @@
         <v>22</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>22</v>
@@ -7171,13 +7198,13 @@
         <v>74</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>27</v>
@@ -7189,19 +7216,19 @@
         <v>100</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>34</v>
@@ -7216,7 +7243,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>22</v>
@@ -7225,16 +7252,16 @@
         <v>74</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>77</v>
@@ -7243,19 +7270,19 @@
         <v>24</v>
       </c>
       <c r="K94" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="N94" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="L94" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="M94" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="N94" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="O94" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P94" s="11" t="s">
         <v>34</v>
@@ -7270,7 +7297,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>22</v>
@@ -7279,16 +7306,16 @@
         <v>74</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>77</v>
@@ -7297,19 +7324,19 @@
         <v>68</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>34</v>
@@ -7324,7 +7351,7 @@
         <v>22</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>22</v>
@@ -7336,13 +7363,13 @@
         <v>92</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>77</v>
@@ -7351,19 +7378,19 @@
         <v>29</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N96" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>34</v>
@@ -7378,7 +7405,7 @@
         <v>51</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>51</v>
@@ -7390,13 +7417,13 @@
         <v>92</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>77</v>
@@ -7405,19 +7432,19 @@
         <v>1</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N97" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>34</v>
@@ -7432,7 +7459,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>51</v>
@@ -7444,13 +7471,13 @@
         <v>92</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>77</v>
@@ -7459,19 +7486,19 @@
         <v>1</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N98" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P98" s="11" t="s">
         <v>34</v>
@@ -7486,7 +7513,7 @@
         <v>51</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>51</v>
@@ -7498,13 +7525,13 @@
         <v>92</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>77</v>
@@ -7513,19 +7540,19 @@
         <v>1</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N99" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P99" s="11" t="s">
         <v>34</v>
@@ -7540,55 +7567,55 @@
         <v>22</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J100" s="19">
         <v>40</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N100" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P100" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="R100" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S100" s="18" t="s">
         <v>90</v>
@@ -7602,25 +7629,25 @@
         <v>22</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>77</v>
@@ -7629,28 +7656,28 @@
         <v>18</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P101" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S101" s="18" t="s">
         <v>90</v>
@@ -7664,7 +7691,7 @@
         <v>22</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>22</v>
@@ -7676,10 +7703,10 @@
         <v>92</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>27</v>
@@ -7691,19 +7718,19 @@
         <v>100</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N102" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P102" s="11" t="s">
         <v>34</v>
@@ -7718,7 +7745,7 @@
         <v>22</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>22</v>
@@ -7730,10 +7757,10 @@
         <v>92</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>27</v>
@@ -7745,19 +7772,19 @@
         <v>100</v>
       </c>
       <c r="K103" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="L103" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="M103" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="L103" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="M103" s="23" t="s">
-        <v>390</v>
-      </c>
       <c r="N103" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P103" s="11" t="s">
         <v>34</v>
@@ -7772,7 +7799,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>22</v>
@@ -7784,10 +7811,10 @@
         <v>92</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>27</v>
@@ -7799,19 +7826,19 @@
         <v>100</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P104" s="11" t="s">
         <v>34</v>
@@ -7826,7 +7853,7 @@
         <v>51</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>51</v>
@@ -7838,10 +7865,10 @@
         <v>92</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>27</v>
@@ -7853,19 +7880,19 @@
         <v>100</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N105" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O105" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>34</v>
@@ -7880,7 +7907,7 @@
         <v>51</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>51</v>
@@ -7892,10 +7919,10 @@
         <v>92</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>27</v>
@@ -7907,19 +7934,19 @@
         <v>100</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N106" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P106" s="11" t="s">
         <v>34</v>
@@ -7934,7 +7961,7 @@
         <v>51</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>51</v>
@@ -7946,10 +7973,10 @@
         <v>92</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>27</v>
@@ -7961,19 +7988,19 @@
         <v>100</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N107" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P107" s="11" t="s">
         <v>34</v>
@@ -7988,7 +8015,7 @@
         <v>51</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>51</v>
@@ -8000,10 +8027,10 @@
         <v>92</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>27</v>
@@ -8015,19 +8042,19 @@
         <v>100</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>34</v>
@@ -8042,7 +8069,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>73</v>
@@ -8051,16 +8078,16 @@
         <v>74</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I109" s="22" t="s">
         <v>77</v>
@@ -8069,28 +8096,28 @@
         <v>29</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S109" s="18" t="s">
         <v>90</v>
@@ -8116,13 +8143,13 @@
         <v>24</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I110" s="22" t="s">
         <v>77</v>
@@ -8131,25 +8158,25 @@
         <v>40</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M110" s="23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N110" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R110" s="18" t="s">
         <v>89</v>
@@ -8172,49 +8199,49 @@
         <v>73</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J111" s="19">
         <v>40</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M111" s="23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N111" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S111" s="18" t="s">
         <v>90</v>

--- a/risks.xlsx
+++ b/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t>Severity</t>
   </si>
@@ -250,19 +250,13 @@
     <t/>
   </si>
   <si>
-    <t>Cross-Site Scripting (XSS) risk at API Server</t>
+    <t>Cross-Site Scripting (XSS) risk at OIDC Proxy (Dex)</t>
   </si>
   <si>
     <t>XSS Prevention</t>
   </si>
   <si>
     <t>Try to encode all values sent back to the browser and also handle DOM-manipulations in a safe way to avoid DOM-based XSS. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>cross-site-scripting@api-server</t>
-  </si>
-  <si>
-    <t>Cross-Site Scripting (XSS) risk at OIDC Proxy (Dex)</t>
   </si>
   <si>
     <t>cross-site-scripting@dex-server</t>
@@ -301,6 +295,24 @@
     <t>Michael Crenshaw</t>
   </si>
   <si>
+    <t>Cross-Site Scripting (XSS) risk at API Server</t>
+  </si>
+  <si>
+    <t>cross-site-scripting@api-server</t>
+  </si>
+  <si>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some API server responses are particularly vulnerable to XSS attacks. For example, responses which include user- configured link URLs. In those cases, we apply server-side validation to prevent including scripts in URLs.
+Other responses are generally JSON or plain-text which are handled by the UI in a way that is not especially XSS- prone. For example, the data structure used to generate the application resource tree is interpreted as a tree in a way which makes it difficult to inject any active component. And plain-text manifests are rendered in a third- party text editor which safely interprets the text as simply text.
+The Argo CD team plans to continually evaluate our default Content Security Policy and narrow down the rules where possible.
+</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
     <t>Elevation of Privilege</t>
   </si>
   <si>
@@ -364,9 +376,6 @@
 </t>
   </si>
   <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
     <t>https://github.com/argoproj/argo-cd/issues/12084</t>
   </si>
   <si>
@@ -700,9 +709,6 @@
   </si>
   <si>
     <t>server-side-request-forgery@api-server@dex-server@api-server&gt;validate-dex-oidc-token</t>
-  </si>
-  <si>
-    <t>Mitigated</t>
   </si>
   <si>
     <t xml:space="preserve">There is a request to get the Dex public keys from the Dex server. The request URL comes from an ArgoCD configmap  so there is no risk of SSRF. Dex is also out of scope of components that are developed by ArgoCD maintainers.
@@ -2699,13 +2705,13 @@
         <v>76</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J15" s="19">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>78</v>
@@ -2753,16 +2759,16 @@
         <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J16" s="19">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>79</v>
@@ -2774,49 +2780,57 @@
         <v>32</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>77</v>
       </c>
       <c r="J17" s="19">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>79</v>
@@ -2828,19 +2842,19 @@
         <v>32</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="Q17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>77</v>
@@ -2857,16 +2871,16 @@
         <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>47</v>
@@ -2878,19 +2892,19 @@
         <v>33</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>34</v>
@@ -2911,16 +2925,16 @@
         <v>73</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>27</v>
@@ -2932,31 +2946,31 @@
         <v>100</v>
       </c>
       <c r="K19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="23" t="s">
-        <v>96</v>
-      </c>
       <c r="M19" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>77</v>
@@ -2973,55 +2987,55 @@
         <v>73</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J20" s="19">
         <v>40</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -3035,55 +3049,55 @@
         <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J21" s="19">
         <v>40</v>
       </c>
       <c r="K21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="N21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="21" t="s">
+      <c r="R21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="R21" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -3097,55 +3111,55 @@
         <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J22" s="19">
         <v>24</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -3153,22 +3167,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>77</v>
@@ -3180,19 +3194,19 @@
         <v>0</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>34</v>
@@ -3207,22 +3221,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>77</v>
@@ -3234,19 +3248,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>127</v>
-      </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>34</v>
@@ -3261,22 +3275,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>77</v>
@@ -3288,19 +3302,19 @@
         <v>0</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>34</v>
@@ -3324,13 +3338,13 @@
         <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>27</v>
@@ -3342,19 +3356,19 @@
         <v>100</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>34</v>
@@ -3378,16 +3392,16 @@
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>77</v>
@@ -3396,19 +3410,19 @@
         <v>68</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>34</v>
@@ -3432,16 +3446,16 @@
         <v>74</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>77</v>
@@ -3450,19 +3464,19 @@
         <v>58</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>34</v>
@@ -3486,16 +3500,16 @@
         <v>74</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>77</v>
@@ -3504,19 +3518,19 @@
         <v>79</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>34</v>
@@ -3531,22 +3545,22 @@
         <v>20</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>47</v>
@@ -3558,19 +3572,19 @@
         <v>33</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>34</v>
@@ -3591,19 +3605,19 @@
         <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>28</v>
@@ -3612,19 +3626,19 @@
         <v>79</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>34</v>
@@ -3645,19 +3659,19 @@
         <v>22</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>52</v>
@@ -3666,19 +3680,19 @@
         <v>79</v>
       </c>
       <c r="K32" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="L32" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="N32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>34</v>
@@ -3699,19 +3713,19 @@
         <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>55</v>
@@ -3720,19 +3734,19 @@
         <v>79</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>34</v>
@@ -3753,19 +3767,19 @@
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>58</v>
@@ -3774,19 +3788,19 @@
         <v>79</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>34</v>
@@ -3807,19 +3821,19 @@
         <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>61</v>
@@ -3828,19 +3842,19 @@
         <v>79</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>34</v>
@@ -3861,19 +3875,19 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>35</v>
@@ -3882,19 +3896,19 @@
         <v>79</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>34</v>
@@ -3915,19 +3929,19 @@
         <v>22</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>64</v>
@@ -3936,19 +3950,19 @@
         <v>79</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>34</v>
@@ -3969,19 +3983,19 @@
         <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>67</v>
@@ -3990,19 +4004,19 @@
         <v>79</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>34</v>
@@ -4023,19 +4037,19 @@
         <v>22</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>70</v>
@@ -4044,19 +4058,19 @@
         <v>79</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>34</v>
@@ -4077,19 +4091,19 @@
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>38</v>
@@ -4098,19 +4112,19 @@
         <v>79</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>34</v>
@@ -4131,52 +4145,52 @@
         <v>22</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J41" s="19">
         <v>100</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T41" s="17" t="s">
         <v>77</v>
@@ -4187,46 +4201,46 @@
         <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J42" s="19">
         <v>49</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>34</v>
@@ -4241,46 +4255,46 @@
         <v>22</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J43" s="19">
         <v>29</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>34</v>
@@ -4295,46 +4309,46 @@
         <v>22</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J44" s="19">
         <v>29</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>34</v>
@@ -4349,46 +4363,46 @@
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J45" s="19">
         <v>8</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>34</v>
@@ -4403,46 +4417,46 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J46" s="19">
         <v>33</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>34</v>
@@ -4457,46 +4471,46 @@
         <v>22</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J47" s="19">
         <v>40</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>34</v>
@@ -4511,46 +4525,46 @@
         <v>22</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J48" s="19">
         <v>40</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>34</v>
@@ -4565,46 +4579,46 @@
         <v>22</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J49" s="19">
         <v>40</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>34</v>
@@ -4619,46 +4633,46 @@
         <v>22</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J50" s="19">
         <v>40</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>34</v>
@@ -4673,25 +4687,25 @@
         <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>42</v>
@@ -4700,19 +4714,19 @@
         <v>58</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>34</v>
@@ -4727,25 +4741,25 @@
         <v>22</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>42</v>
@@ -4754,19 +4768,19 @@
         <v>79</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>34</v>
@@ -4781,58 +4795,58 @@
         <v>22</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J53" s="19">
         <v>100</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N53" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T53" s="17" t="s">
         <v>77</v>
@@ -4843,22 +4857,22 @@
         <v>22</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>27</v>
@@ -4870,31 +4884,31 @@
         <v>100</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N54" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S54" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T54" s="17" t="s">
         <v>77</v>
@@ -4905,58 +4919,58 @@
         <v>22</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J55" s="19">
         <v>29</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N55" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R55" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S55" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T55" s="17" t="s">
         <v>77</v>
@@ -4967,58 +4981,58 @@
         <v>22</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J56" s="19">
         <v>100</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N56" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P56" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T56" s="17" t="s">
         <v>77</v>
@@ -5029,58 +5043,58 @@
         <v>22</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J57" s="19">
         <v>100</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N57" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T57" s="17" t="s">
         <v>77</v>
@@ -5091,58 +5105,58 @@
         <v>22</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J58" s="19">
         <v>100</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N58" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T58" s="17" t="s">
         <v>77</v>
@@ -5153,58 +5167,58 @@
         <v>22</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J59" s="19">
         <v>100</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N59" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T59" s="17" t="s">
         <v>77</v>
@@ -5215,58 +5229,58 @@
         <v>22</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J60" s="19">
         <v>100</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N60" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T60" s="17" t="s">
         <v>77</v>
@@ -5277,58 +5291,58 @@
         <v>22</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J61" s="19">
         <v>100</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N61" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T61" s="17" t="s">
         <v>77</v>
@@ -5339,58 +5353,58 @@
         <v>22</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J62" s="19">
         <v>38</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N62" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T62" s="17" t="s">
         <v>77</v>
@@ -5401,58 +5415,58 @@
         <v>22</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J63" s="19">
         <v>38</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N63" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T63" s="17" t="s">
         <v>77</v>
@@ -5463,58 +5477,58 @@
         <v>22</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J64" s="19">
         <v>38</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N64" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R64" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T64" s="17" t="s">
         <v>77</v>
@@ -5525,58 +5539,58 @@
         <v>22</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J65" s="19">
         <v>49</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N65" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T65" s="17" t="s">
         <v>77</v>
@@ -5587,58 +5601,58 @@
         <v>22</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J66" s="19">
         <v>49</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N66" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R66" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T66" s="17" t="s">
         <v>77</v>
@@ -5649,7 +5663,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>73</v>
@@ -5658,16 +5672,16 @@
         <v>74</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>77</v>
@@ -5676,19 +5690,19 @@
         <v>24</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>34</v>
@@ -5703,7 +5717,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>73</v>
@@ -5712,16 +5726,16 @@
         <v>74</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>77</v>
@@ -5730,19 +5744,19 @@
         <v>68</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L68" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>34</v>
@@ -5757,7 +5771,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>73</v>
@@ -5766,16 +5780,16 @@
         <v>74</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>77</v>
@@ -5784,19 +5798,19 @@
         <v>40</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>34</v>
@@ -5811,7 +5825,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>73</v>
@@ -5820,13 +5834,13 @@
         <v>74</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>27</v>
@@ -5838,34 +5852,34 @@
         <v>100</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71">
@@ -5873,7 +5887,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>73</v>
@@ -5882,16 +5896,16 @@
         <v>74</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I71" s="22" t="s">
         <v>77</v>
@@ -5900,34 +5914,34 @@
         <v>38</v>
       </c>
       <c r="K71" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="P71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="R71" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S71" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T71" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="L71" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="N71" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="P71" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q71" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="R71" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S71" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T71" s="17" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="72">
@@ -5935,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>73</v>
@@ -5944,16 +5958,16 @@
         <v>74</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>77</v>
@@ -5962,34 +5976,34 @@
         <v>49</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S72" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73">
@@ -5997,7 +6011,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>73</v>
@@ -6006,13 +6020,13 @@
         <v>74</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>47</v>
@@ -6024,31 +6038,31 @@
         <v>33</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R73" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S73" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T73" s="17" t="s">
         <v>77</v>
@@ -6059,7 +6073,7 @@
         <v>22</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>73</v>
@@ -6068,16 +6082,16 @@
         <v>74</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>77</v>
@@ -6086,31 +6100,31 @@
         <v>24</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R74" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S74" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T74" s="17" t="s">
         <v>77</v>
@@ -6121,7 +6135,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>73</v>
@@ -6130,16 +6144,16 @@
         <v>74</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>77</v>
@@ -6148,34 +6162,34 @@
         <v>18</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76">
@@ -6183,7 +6197,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>22</v>
@@ -6192,16 +6206,16 @@
         <v>74</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>77</v>
@@ -6210,19 +6224,19 @@
         <v>38</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N76" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>34</v>
@@ -6237,7 +6251,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>22</v>
@@ -6246,16 +6260,16 @@
         <v>23</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>77</v>
@@ -6264,19 +6278,19 @@
         <v>58</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N77" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>34</v>
@@ -6291,22 +6305,22 @@
         <v>22</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>27</v>
@@ -6318,19 +6332,19 @@
         <v>100</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N78" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P78" s="11" t="s">
         <v>34</v>
@@ -6345,25 +6359,25 @@
         <v>22</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>77</v>
@@ -6372,19 +6386,19 @@
         <v>58</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N79" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>34</v>
@@ -6399,25 +6413,25 @@
         <v>22</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>77</v>
@@ -6426,19 +6440,19 @@
         <v>79</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N80" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>34</v>
@@ -6453,22 +6467,22 @@
         <v>22</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>27</v>
@@ -6480,34 +6494,34 @@
         <v>100</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N81" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S81" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82">
@@ -6515,22 +6529,22 @@
         <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>27</v>
@@ -6542,34 +6556,34 @@
         <v>100</v>
       </c>
       <c r="K82" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="N82" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="P82" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q82" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="R82" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S82" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T82" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="L82" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="M82" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="N82" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O82" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q82" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="R82" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S82" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="T82" s="17" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="83">
@@ -6577,22 +6591,22 @@
         <v>22</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>27</v>
@@ -6604,34 +6618,34 @@
         <v>100</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L83" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N83" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q83" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84">
@@ -6639,22 +6653,22 @@
         <v>22</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>27</v>
@@ -6666,34 +6680,34 @@
         <v>100</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N84" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R84" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S84" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85">
@@ -6701,22 +6715,22 @@
         <v>22</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>27</v>
@@ -6728,34 +6742,34 @@
         <v>100</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N85" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P85" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R85" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S85" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86">
@@ -6763,22 +6777,22 @@
         <v>22</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>27</v>
@@ -6790,34 +6804,34 @@
         <v>100</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N86" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P86" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R86" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S86" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87">
@@ -6825,22 +6839,22 @@
         <v>22</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>27</v>
@@ -6852,34 +6866,34 @@
         <v>100</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N87" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R87" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S87" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88">
@@ -6887,22 +6901,22 @@
         <v>22</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>27</v>
@@ -6914,34 +6928,34 @@
         <v>100</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N88" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P88" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S88" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89">
@@ -6949,22 +6963,22 @@
         <v>22</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>27</v>
@@ -6976,34 +6990,34 @@
         <v>100</v>
       </c>
       <c r="K89" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N89" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P89" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q89" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R89" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S89" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90">
@@ -7011,22 +7025,22 @@
         <v>22</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>27</v>
@@ -7038,34 +7052,34 @@
         <v>100</v>
       </c>
       <c r="K90" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N90" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P90" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R90" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S90" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91">
@@ -7073,22 +7087,22 @@
         <v>22</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>27</v>
@@ -7100,31 +7114,31 @@
         <v>100</v>
       </c>
       <c r="K91" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N91" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P91" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S91" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T91" s="17" t="s">
         <v>77</v>
@@ -7135,25 +7149,25 @@
         <v>22</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>77</v>
@@ -7162,19 +7176,19 @@
         <v>1</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P92" s="11" t="s">
         <v>34</v>
@@ -7189,7 +7203,7 @@
         <v>22</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>22</v>
@@ -7198,13 +7212,13 @@
         <v>74</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>27</v>
@@ -7216,19 +7230,19 @@
         <v>100</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>34</v>
@@ -7243,7 +7257,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>22</v>
@@ -7252,16 +7266,16 @@
         <v>74</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>77</v>
@@ -7270,19 +7284,19 @@
         <v>24</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L94" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P94" s="11" t="s">
         <v>34</v>
@@ -7297,7 +7311,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>22</v>
@@ -7306,16 +7320,16 @@
         <v>74</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>77</v>
@@ -7324,19 +7338,19 @@
         <v>68</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P95" s="11" t="s">
         <v>34</v>
@@ -7351,7 +7365,7 @@
         <v>22</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>22</v>
@@ -7360,16 +7374,16 @@
         <v>74</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>77</v>
@@ -7378,19 +7392,19 @@
         <v>29</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L96" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N96" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P96" s="11" t="s">
         <v>34</v>
@@ -7405,7 +7419,7 @@
         <v>51</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>51</v>
@@ -7414,16 +7428,16 @@
         <v>74</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>77</v>
@@ -7432,19 +7446,19 @@
         <v>1</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N97" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>34</v>
@@ -7459,7 +7473,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>51</v>
@@ -7468,16 +7482,16 @@
         <v>74</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>77</v>
@@ -7486,19 +7500,19 @@
         <v>1</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L98" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N98" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P98" s="11" t="s">
         <v>34</v>
@@ -7513,7 +7527,7 @@
         <v>51</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>51</v>
@@ -7522,16 +7536,16 @@
         <v>74</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>77</v>
@@ -7540,19 +7554,19 @@
         <v>1</v>
       </c>
       <c r="K99" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N99" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P99" s="11" t="s">
         <v>34</v>
@@ -7567,58 +7581,58 @@
         <v>22</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J100" s="19">
         <v>40</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N100" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P100" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R100" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S100" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T100" s="17" t="s">
         <v>77</v>
@@ -7629,25 +7643,25 @@
         <v>22</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>77</v>
@@ -7656,31 +7670,31 @@
         <v>18</v>
       </c>
       <c r="K101" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P101" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S101" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T101" s="17" t="s">
         <v>77</v>
@@ -7691,22 +7705,22 @@
         <v>22</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>27</v>
@@ -7718,19 +7732,19 @@
         <v>100</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L102" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N102" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P102" s="11" t="s">
         <v>34</v>
@@ -7745,22 +7759,22 @@
         <v>22</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>27</v>
@@ -7772,19 +7786,19 @@
         <v>100</v>
       </c>
       <c r="K103" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M103" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N103" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P103" s="11" t="s">
         <v>34</v>
@@ -7799,22 +7813,22 @@
         <v>22</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>27</v>
@@ -7826,19 +7840,19 @@
         <v>100</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P104" s="11" t="s">
         <v>34</v>
@@ -7853,22 +7867,22 @@
         <v>51</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>27</v>
@@ -7880,19 +7894,19 @@
         <v>100</v>
       </c>
       <c r="K105" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L105" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N105" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O105" s="21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>34</v>
@@ -7907,22 +7921,22 @@
         <v>51</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>27</v>
@@ -7934,19 +7948,19 @@
         <v>100</v>
       </c>
       <c r="K106" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L106" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N106" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P106" s="11" t="s">
         <v>34</v>
@@ -7961,22 +7975,22 @@
         <v>51</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>27</v>
@@ -7988,19 +8002,19 @@
         <v>100</v>
       </c>
       <c r="K107" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L107" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N107" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P107" s="11" t="s">
         <v>34</v>
@@ -8015,22 +8029,22 @@
         <v>51</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>27</v>
@@ -8042,19 +8056,19 @@
         <v>100</v>
       </c>
       <c r="K108" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>34</v>
@@ -8069,7 +8083,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>73</v>
@@ -8078,16 +8092,16 @@
         <v>74</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I109" s="22" t="s">
         <v>77</v>
@@ -8096,31 +8110,31 @@
         <v>29</v>
       </c>
       <c r="K109" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S109" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T109" s="17" t="s">
         <v>77</v>
@@ -8143,13 +8157,13 @@
         <v>24</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I110" s="22" t="s">
         <v>77</v>
@@ -8158,31 +8172,31 @@
         <v>40</v>
       </c>
       <c r="K110" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M110" s="23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N110" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R110" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T110" s="17" t="s">
         <v>77</v>
@@ -8199,52 +8213,52 @@
         <v>73</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J111" s="19">
         <v>40</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M111" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N111" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T111" s="17" t="s">
         <v>77</v>
